--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C4460-BB55-7D44-A74C-EBF95504CA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DC0D5-CE18-F645-98CC-F0F4070155D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="11060" yWindow="760" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="468">
   <si>
     <t>Title</t>
   </si>
@@ -723,13 +723,727 @@
   </si>
   <si>
     <t>Douglas fir and Lodgepole pine</t>
+  </si>
+  <si>
+    <t>Effects of natural disturbance and harvesting on the landscape and stand level structure of wet, cold Engelmann Spruce-Subalpine Fir forests of south-central British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Kopra</t>
+  </si>
+  <si>
+    <t>Monashee mountains (between Valemount and Vernon)</t>
+  </si>
+  <si>
+    <t>Interspecific interactions in mixed stands of paper birch (Betula papyrifera) and interior Douglas-fir (Pseudotsuga mensiezii, var. glauca)</t>
+  </si>
+  <si>
+    <t>Louw</t>
+  </si>
+  <si>
+    <t>Adams Lake and Malakwa</t>
+  </si>
+  <si>
+    <t>Paper birch and Douglas fir</t>
+  </si>
+  <si>
+    <t>Yes if we test for specific pathogens</t>
+  </si>
+  <si>
+    <t>found Armillaria root disease for caused reduced seedling establishement and competition with Dougals fir</t>
+  </si>
+  <si>
+    <t>Tomentosus root rot of white spruce in central British Columbia</t>
+  </si>
+  <si>
+    <t>Merler</t>
+  </si>
+  <si>
+    <t>White spruce</t>
+  </si>
+  <si>
+    <t>Pathology of conifer seed and seedlings on natural and disturbed forest floor seedbeds in the Engelmann spruce-subalpine fir zone of the interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Sicamous Creek research forest</t>
+  </si>
+  <si>
+    <t>Found two funges: Rhizoctonia &amp; Caloscypha fulgens caused seedling mortality for Englemann spruce and Subalpine fir</t>
+  </si>
+  <si>
+    <t>Relative bulk density as an index of soil compaction and forest productivity in British Columbia</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>Many see page 93</t>
+  </si>
+  <si>
+    <t>Douglas fir, lodgepole pine and hybrid spurce</t>
+  </si>
+  <si>
+    <t>Seasonal variation in constitutive and induced defenses of spruce (Picea spp.) hosts of the white pine weevil Pissodes strobi peck</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Sitka spurce</t>
+  </si>
+  <si>
+    <t>Stand models for lodgepole pine and limits to their application</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Assessing and promoting windfirmness in conifers in British Columbia</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Nelson, Kamloops and Cariboo</t>
+  </si>
+  <si>
+    <t>Douglas fir and sitka spruce</t>
+  </si>
+  <si>
+    <t>Interior BC</t>
+  </si>
+  <si>
+    <t>Ecological and height growth analysis of some sub-boreal immature lodgepole pine stands in central British Columbia</t>
+  </si>
+  <si>
+    <t>Wange</t>
+  </si>
+  <si>
+    <t>An investigation into the factors contributing to the growth-check of conifer regeneration on Northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Montigny</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sitka spruce, western hemlock and western red cedar</t>
+  </si>
+  <si>
+    <t>Structure and function of western red cedar and western hemlock forests on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Western red cedar, Western hemlock, amablilis fir</t>
+  </si>
+  <si>
+    <t>seedlings regenerated following cutting on the two types exhibit large differences in growth. Seedlings on cutovers in the CH type grow slowly and have symptoms of nutrient defiency; those in the HA type grow relatively rapidly with no sign of nutrient deficiency. </t>
+  </si>
+  <si>
+    <t>A flagging disease of western white pine</t>
+  </si>
+  <si>
+    <t>Molnar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrow park </t>
+  </si>
+  <si>
+    <t>Western white pine</t>
+  </si>
+  <si>
+    <t>Pullularia pullulans affects seedling survival of western white pine</t>
+  </si>
+  <si>
+    <t>Estimates of above-ground biomass, net primary production and energy flows in 8 to 10 year old red alder (Alnus rubra Bong.) ecosystems</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>UBC</t>
+  </si>
+  <si>
+    <t>Red alder</t>
+  </si>
+  <si>
+    <t>Sulphur availability on interior lodgepole pine sites</t>
+  </si>
+  <si>
+    <t>Kishchuk</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>See table 1 page 5</t>
+  </si>
+  <si>
+    <t>Hydrogeomorphic disturbance, landscape development and riparian vegetation dynamics of an alluvial, temperate rainforest in the Carmanah River valley, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>Red alder, Western redcedar, Sitka spruce</t>
+  </si>
+  <si>
+    <t>turnover island</t>
+  </si>
+  <si>
+    <t>Use of competition indices in the selection of western hemlock plus trees</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Western redcedar dieback : possible links to climate change and implications for forest management on Vancouver Island, B.C.</t>
+  </si>
+  <si>
+    <t>Seebacher</t>
+  </si>
+  <si>
+    <t>Western red cedar</t>
+  </si>
+  <si>
+    <t>Stand and tree dynamics in uneven-aged interior Douglas-fir stands</t>
+  </si>
+  <si>
+    <t>Nienaber</t>
+  </si>
+  <si>
+    <t>Analysis and modelling of interspecies competition during forest secondary succession</t>
+  </si>
+  <si>
+    <t>Bellefluer</t>
+  </si>
+  <si>
+    <t>see table 2.1</t>
+  </si>
+  <si>
+    <t>Competition between paper birch and douglas-fia in two different biogeoclimatic zones of British Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang </t>
+  </si>
+  <si>
+    <t>Soil collembola under different conifer species on Vancouver Island, British Columbia</t>
+  </si>
+  <si>
+    <t>Baumbrough</t>
+  </si>
+  <si>
+    <t>Western hemlock, western redcedar, amabilis fir, douglas fir, and sitka spurce</t>
+  </si>
+  <si>
+    <t>Studies of western hemlock nutrition</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Kispiox forest</t>
+  </si>
+  <si>
+    <t>Warren’s collar weevil in lodgepole pine stands in the Kispiox Forest District</t>
+  </si>
+  <si>
+    <t>Byford</t>
+  </si>
+  <si>
+    <t>floodplain, subalpine, Pinus contorta, Pseudotsuga, Thuja, Abies</t>
+  </si>
+  <si>
+    <t>Forest vegetation of west-central Vancouver Island, British Columbia</t>
+  </si>
+  <si>
+    <t>Gagnon</t>
+  </si>
+  <si>
+    <t>Variation in nitrogen and water relations traits between two boreal spruce species from an interacting resource gradient in northern British Columbia</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>Fort Nelson, BC</t>
+  </si>
+  <si>
+    <t>White and Black spruce</t>
+  </si>
+  <si>
+    <t>Changes in the landscape and vegetation of southeastern Vancouver Island and Saltspring Island, Canada since European settlement</t>
+  </si>
+  <si>
+    <t>Bjorkman</t>
+  </si>
+  <si>
+    <t>Maple, Cedar, Douglas fir</t>
+  </si>
+  <si>
+    <t>Productivity analysis of silvicultural treatments in cedar and hemlock stands on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Nery</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>The effect of some environmental factors on the morphological characteristics of western hemlock seedlings (Tsuga heterophylla (Raf.) (Sarg.)</t>
+  </si>
+  <si>
+    <t>Soos</t>
+  </si>
+  <si>
+    <t>A study of some factors influencing the abundance of Adelges cooleyi (Gill.) on Douglas fir</t>
+  </si>
+  <si>
+    <t>Kozak</t>
+  </si>
+  <si>
+    <t>Boundary district</t>
+  </si>
+  <si>
+    <t>Some effects of forest floor displacement on soil properties and lodgepole pine productivity in the Boundary Forest District</t>
+  </si>
+  <si>
+    <t>Hickling</t>
+  </si>
+  <si>
+    <t>Lodgepole pine</t>
+  </si>
+  <si>
+    <t>Forest stand type and ectomycorrhizal fungal communities of western hemlock on northern Vancouver Island, Canada</t>
+  </si>
+  <si>
+    <t>Lim</t>
+  </si>
+  <si>
+    <t>Okanagan</t>
+  </si>
+  <si>
+    <t>Humans, climate, and an ignitions-limited fire regime at Vaseux Lake</t>
+  </si>
+  <si>
+    <t>Pogue</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Insect and disease risk factors in established interior spruce plantations</t>
+  </si>
+  <si>
+    <t>Conzens</t>
+  </si>
+  <si>
+    <t>Prince George</t>
+  </si>
+  <si>
+    <t>Spruce</t>
+  </si>
+  <si>
+    <t>A bud midge, likely Rhabdophaga swainei Felt (Diptera: Cecidomyiidae), and a terminal weevil, Pissodes strobi Peck (Coleoptera: Curculionidae), were found to consistently infest and damage a significant number of immature interior spruce tree</t>
+  </si>
+  <si>
+    <t>Conservation genetics of whitebark pine (Pinus albicaulis Engelm) in British Columbia</t>
+  </si>
+  <si>
+    <t>Krakowski</t>
+  </si>
+  <si>
+    <t>Whitebark pine</t>
+  </si>
+  <si>
+    <t>An ecological investigation of western redcedar sites on western Vancouver Island</t>
+  </si>
+  <si>
+    <t>Dickinson</t>
+  </si>
+  <si>
+    <t>Ecological site quality, site index, and height growth of white spruce stands in the sub-boreal spruce zone of British Columbia</t>
+  </si>
+  <si>
+    <t>Studies on europhium trinacriforme, the perfect stage of a species of leptographium isolated from lesions on western white pine affected with pole blight</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Long-term fertilization effects on ectomycorrhizal community structure and fine root length in interior spruce forests</t>
+  </si>
+  <si>
+    <t>Hay</t>
+  </si>
+  <si>
+    <t>interior spruce</t>
+  </si>
+  <si>
+    <t>Water relations in the Douglas-fir region on Vancouver Island</t>
+  </si>
+  <si>
+    <t>McMinn</t>
+  </si>
+  <si>
+    <t>Vancouver and Kamloops</t>
+  </si>
+  <si>
+    <t>Relationships between coarse woody debris and understory vegetation in six forest ecosystems in British Columbia</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Many see page 24</t>
+  </si>
+  <si>
+    <t>Isolation of endophytic bacteria from Lodgepole Pine (Pinus contorta var. latifolia (Dougl.) Engelm.) and Western Red Cedar (Thuja plicata Donn.) and determination of their nitrogen fixing ability</t>
+  </si>
+  <si>
+    <t>Bal</t>
+  </si>
+  <si>
+    <t>Lodgepole Pine and Western redcedar</t>
+  </si>
+  <si>
+    <t>Variation in carabid community structure associated with coastal Douglas-fir forest successional stages</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Douglas fir and western redcedar</t>
+  </si>
+  <si>
+    <t>Impacts of environmental change on tree productivity in temperate-maritime forest ecosystems</t>
+  </si>
+  <si>
+    <t>Hember</t>
+  </si>
+  <si>
+    <t>Douglas fir and western hemlock</t>
+  </si>
+  <si>
+    <t>Root-zone soil temperature: sources of variation and some effects on planted conifer seedlings in high-elevation forest openings in the interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Balisky</t>
+  </si>
+  <si>
+    <t>Engelmann spruce and lodgepole pine</t>
+  </si>
+  <si>
+    <t>Long-term effects of nitrogen and phosphorus fertilization on ectomycorrhizal diversity of 18-year-old western hemlock (Tsuga heterophylla) on northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>The relationships between the ecological site quality and the site index and stem form of red alder in southwestern B.C.</t>
+  </si>
+  <si>
+    <t>Courtin</t>
+  </si>
+  <si>
+    <t>Geographic variation in seed weight, some cone scale measurements and seed germination of Douglas-fir Pseudotsuga menziesii (Mirb.) Franco</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>Many see page 19</t>
+  </si>
+  <si>
+    <t>Modelling juvenile height in mixed species, even aged interior cedar-hemlock stands</t>
+  </si>
+  <si>
+    <t>Froese</t>
+  </si>
+  <si>
+    <t>Quesnel highlands</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Showed that in site conditions were the best in modeling juvenile height</t>
+  </si>
+  <si>
+    <t>Fire history and ecology of remnant forest patches in the Sub-Boreal Pine-Spruce zone of central British Columbia</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>NONe but helpful</t>
+  </si>
+  <si>
+    <t>SBPSxc</t>
+  </si>
+  <si>
+    <t>Endophytic colonization and nitrogen fixation by Paenibacillus polymyxa in association with lodgepole pine and western redcedar</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Western redcedar and lodgepole pine</t>
+  </si>
+  <si>
+    <t>Multivariate analysis of terrestrial bryophyte-habitat relationships in a subalpine forest of coastal British Columbia</t>
+  </si>
+  <si>
+    <t>Sadler</t>
+  </si>
+  <si>
+    <t>Cypress Mountain and Mt Seymour</t>
+  </si>
+  <si>
+    <t>See page 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculate ectomycorrhizae on Lodgepole Pine (Pinus contorts) and associated nitrogen fixation	</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Many see page 8</t>
+  </si>
+  <si>
+    <t>ICH and SBS</t>
+  </si>
+  <si>
+    <t>Response of interior spruce to fertilization in the interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Interior spruce</t>
+  </si>
+  <si>
+    <t>The ecological and conservation genetics of Garry oak (Quercus garryana Dougl. ex Hook))</t>
+  </si>
+  <si>
+    <t>Huebert</t>
+  </si>
+  <si>
+    <t>Southwest Vancouver</t>
+  </si>
+  <si>
+    <t>Post-harvest floor changes and nitrogen mobilization in an Engelmann spruce-subalpine fir forest</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Mycorrhizae of outplanted conifer seedlings on eastern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Douglas fir, western hemlock, and western redcedar</t>
+  </si>
+  <si>
+    <t>Fertilizer efficiency and incorporation and soil dynamics in forest ecosystems of northern Vancouver Island</t>
+  </si>
+  <si>
+    <t>Meeting management goals in an urban forest : vegetation dynamics and prescriptions in Stanley Park</t>
+  </si>
+  <si>
+    <t>Buffo</t>
+  </si>
+  <si>
+    <t>Stanley park</t>
+  </si>
+  <si>
+    <t>The effect of coarse woody debris on site productivity of some forest sites in southwestern British Columbia</t>
+  </si>
+  <si>
+    <t>Kayahara</t>
+  </si>
+  <si>
+    <t>North Vancouver Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western hemlock,  silver fir, douglas fir, </t>
+  </si>
+  <si>
+    <t>Phosphorus forms of podzolic soils of northern Vancouver Island and their use by western red cedar</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Some aspects of boron, copper and iron nutrition of lodgepole pine and Douglas-fir</t>
+  </si>
+  <si>
+    <t>Majid</t>
+  </si>
+  <si>
+    <t>Lodgepole Pine and Douglas fir</t>
+  </si>
+  <si>
+    <t>Is direct seeding a good option for regeneration in British Columbia?</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Stand structure classification, succession, and mapping using LiDAR</t>
+  </si>
+  <si>
+    <t>Cariboo</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth release of trees following fine-scale canopy disturbances in old-growth forests of coastal British Columbia, Canada	</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Western red cedar, western hemlock and silver fir</t>
+  </si>
+  <si>
+    <t>Metro Vancouver</t>
+  </si>
+  <si>
+    <t>A study of variability in certain Douglas-fir populations in British Columbia.</t>
+  </si>
+  <si>
+    <t>Tusko</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>A comparison of soil microbial communities in adjacent forest types that differ in nutrient cycling rates</t>
+  </si>
+  <si>
+    <t>Leckie</t>
+  </si>
+  <si>
+    <t>Forest types</t>
+  </si>
+  <si>
+    <t>The Douglas-fir forest associations on Vancouver Island in their initial stages of secondary succession</t>
+  </si>
+  <si>
+    <t>Mueller-Dombois</t>
+  </si>
+  <si>
+    <t>Root and fungal biomass production on low, medium and high productivity second-growth douglas-fir stands on Vancouver Island</t>
+  </si>
+  <si>
+    <t>Coppersmith</t>
+  </si>
+  <si>
+    <t>Scotch broom (cytisus scoparius) and soil nitrogen : ecological implications</t>
+  </si>
+  <si>
+    <t>gary oak</t>
+  </si>
+  <si>
+    <t>Shaben</t>
+  </si>
+  <si>
+    <t>Rocky point</t>
+  </si>
+  <si>
+    <t>The effects of variable-retention harvesting and stand age on fine-root decomposition and fungal communities in coastal temperate rainforests</t>
+  </si>
+  <si>
+    <t>Philpott</t>
+  </si>
+  <si>
+    <t>campbell river</t>
+  </si>
+  <si>
+    <t>Strategy to convert an even-aged stratified stand to an uneven-aged mixed species stand</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Pages 22-26</t>
+  </si>
+  <si>
+    <t>ICHmw1</t>
+  </si>
+  <si>
+    <t>An ecological classification of the ponderosa pine stands in the southwestern interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Brayshaw</t>
+  </si>
+  <si>
+    <t>Initial effects of slashburning on the nutrient status of two sub-boreal spruce zone ecosystems</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>A landscape level analysis of yellow-cedar decline in coastal British Columbia</t>
+  </si>
+  <si>
+    <t>Wooton</t>
+  </si>
+  <si>
+    <t>Yellow cedar</t>
+  </si>
+  <si>
+    <t>Variation and inheritance of some physiological and morphological traits in Pseudotsuga menziesii (Mirb.) Franco var. menziesii.</t>
+  </si>
+  <si>
+    <t>Sziklai</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Relationships among soil carbon, nitrogen, climate, and vegetation in forests of British Columbia</t>
+  </si>
+  <si>
+    <t>Araghi-Rahi</t>
+  </si>
+  <si>
+    <t>Many See page 26</t>
+  </si>
+  <si>
+    <t>Phytogeocoenoses of the coastal western Hemlock zone in Strathcona Provincial Park, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Kojima</t>
+  </si>
+  <si>
+    <t>Strathcona Provincial park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -776,6 +1490,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -798,7 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -807,6 +1526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1122,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2416,6 +3136,1609 @@
         <v>229</v>
       </c>
     </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60">
+        <v>2003</v>
+      </c>
+      <c r="E60" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>2015</v>
+      </c>
+      <c r="E61" t="s">
+        <v>235</v>
+      </c>
+      <c r="F61" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>1984</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>1997</v>
+      </c>
+      <c r="E63" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" t="s">
+        <v>237</v>
+      </c>
+      <c r="H63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64">
+        <v>2009</v>
+      </c>
+      <c r="E64" t="s">
+        <v>247</v>
+      </c>
+      <c r="F64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66">
+        <v>1967</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67">
+        <v>1992</v>
+      </c>
+      <c r="E67" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>1999</v>
+      </c>
+      <c r="E68" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69">
+        <v>1992</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70">
+        <v>1993</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>267</v>
+      </c>
+      <c r="G70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17">
+      <c r="A71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71">
+        <v>1954</v>
+      </c>
+      <c r="E71" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" t="s">
+        <v>272</v>
+      </c>
+      <c r="G71" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72">
+        <v>1977</v>
+      </c>
+      <c r="E72" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>278</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73">
+        <v>1998</v>
+      </c>
+      <c r="E73" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74">
+        <v>2011</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>1980</v>
+      </c>
+      <c r="E75" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>2007</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77">
+        <v>1999</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78">
+        <v>1978</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B79" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1997</v>
+      </c>
+      <c r="E79" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" t="s">
+        <v>236</v>
+      </c>
+      <c r="G79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80">
+        <v>1999</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>2000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82">
+        <v>1994</v>
+      </c>
+      <c r="E82" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <v>1985</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>1994</v>
+      </c>
+      <c r="E84" t="s">
+        <v>311</v>
+      </c>
+      <c r="F84" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>2008</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86">
+        <v>2012</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>1961</v>
+      </c>
+      <c r="E87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>322</v>
+      </c>
+      <c r="C88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D88">
+        <v>1961</v>
+      </c>
+      <c r="E88" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>1997</v>
+      </c>
+      <c r="E89" t="s">
+        <v>323</v>
+      </c>
+      <c r="F89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
+        <v>2010</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91">
+        <v>2017</v>
+      </c>
+      <c r="E91" t="s">
+        <v>329</v>
+      </c>
+      <c r="F91" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>334</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92">
+        <v>1985</v>
+      </c>
+      <c r="E92" t="s">
+        <v>335</v>
+      </c>
+      <c r="F92" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>2001</v>
+      </c>
+      <c r="E93" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>1984</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>343</v>
+      </c>
+      <c r="B95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95">
+        <v>1993</v>
+      </c>
+      <c r="E95" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>344</v>
+      </c>
+      <c r="B96" t="s">
+        <v>345</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96">
+        <v>1955</v>
+      </c>
+      <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97">
+        <v>2012</v>
+      </c>
+      <c r="E97" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98">
+        <v>1957</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99">
+        <v>1997</v>
+      </c>
+      <c r="E99" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>356</v>
+      </c>
+      <c r="B100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>2003</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>359</v>
+      </c>
+      <c r="B101" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101">
+        <v>1995</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>362</v>
+      </c>
+      <c r="B102" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102">
+        <v>2011</v>
+      </c>
+      <c r="E102" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C103" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>1993</v>
+      </c>
+      <c r="E103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" t="s">
+        <v>367</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <v>2005</v>
+      </c>
+      <c r="E104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" t="s">
+        <v>371</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105">
+        <v>1992</v>
+      </c>
+      <c r="E105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" t="s">
+        <v>373</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106">
+        <v>1971</v>
+      </c>
+      <c r="E106" t="s">
+        <v>374</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" t="s">
+        <v>376</v>
+      </c>
+      <c r="C107" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107">
+        <v>2000</v>
+      </c>
+      <c r="E107" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" t="s">
+        <v>378</v>
+      </c>
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>380</v>
+      </c>
+      <c r="B108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108">
+        <v>2001</v>
+      </c>
+      <c r="E108" t="s">
+        <v>383</v>
+      </c>
+      <c r="F108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109">
+        <v>2010</v>
+      </c>
+      <c r="E109" t="s">
+        <v>61</v>
+      </c>
+      <c r="F109" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>387</v>
+      </c>
+      <c r="B110" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110">
+        <v>1999</v>
+      </c>
+      <c r="E110" t="s">
+        <v>389</v>
+      </c>
+      <c r="F110" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>391</v>
+      </c>
+      <c r="B111" t="s">
+        <v>392</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <v>2002</v>
+      </c>
+      <c r="E111" t="s">
+        <v>393</v>
+      </c>
+      <c r="F111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>395</v>
+      </c>
+      <c r="B112" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112">
+        <v>1991</v>
+      </c>
+      <c r="E112" t="s">
+        <v>394</v>
+      </c>
+      <c r="F112" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>398</v>
+      </c>
+      <c r="B113" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113">
+        <v>2009</v>
+      </c>
+      <c r="E113" t="s">
+        <v>400</v>
+      </c>
+      <c r="F113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114">
+        <v>1987</v>
+      </c>
+      <c r="E114" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" t="s">
+        <v>127</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>403</v>
+      </c>
+      <c r="B115" t="s">
+        <v>404</v>
+      </c>
+      <c r="C115" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115">
+        <v>1990</v>
+      </c>
+      <c r="E115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>406</v>
+      </c>
+      <c r="B116" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>1996</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>407</v>
+      </c>
+      <c r="B117" t="s">
+        <v>408</v>
+      </c>
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117">
+        <v>2010</v>
+      </c>
+      <c r="E117" t="s">
+        <v>409</v>
+      </c>
+      <c r="F117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17">
+      <c r="A118" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B118" t="s">
+        <v>411</v>
+      </c>
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118">
+        <v>2000</v>
+      </c>
+      <c r="E118" t="s">
+        <v>412</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>414</v>
+      </c>
+      <c r="B119" t="s">
+        <v>415</v>
+      </c>
+      <c r="C119" t="s">
+        <v>280</v>
+      </c>
+      <c r="D119">
+        <v>1995</v>
+      </c>
+      <c r="E119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>416</v>
+      </c>
+      <c r="B120" t="s">
+        <v>417</v>
+      </c>
+      <c r="C120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120">
+        <v>1984</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>419</v>
+      </c>
+      <c r="B121" t="s">
+        <v>420</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>2016</v>
+      </c>
+      <c r="E121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>422</v>
+      </c>
+      <c r="B122" t="s">
+        <v>424</v>
+      </c>
+      <c r="C122" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122">
+        <v>2012</v>
+      </c>
+      <c r="E122" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>426</v>
+      </c>
+      <c r="B123" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123">
+        <v>2008</v>
+      </c>
+      <c r="E123" t="s">
+        <v>429</v>
+      </c>
+      <c r="F123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>431</v>
+      </c>
+      <c r="C124" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124">
+        <v>1963</v>
+      </c>
+      <c r="E124" t="s">
+        <v>253</v>
+      </c>
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>433</v>
+      </c>
+      <c r="B125" t="s">
+        <v>434</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125">
+        <v>2003</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" t="s">
+        <v>437</v>
+      </c>
+      <c r="C126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D126">
+        <v>1959</v>
+      </c>
+      <c r="E126" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>438</v>
+      </c>
+      <c r="B127" t="s">
+        <v>439</v>
+      </c>
+      <c r="C127" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127">
+        <v>1986</v>
+      </c>
+      <c r="E127" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>440</v>
+      </c>
+      <c r="B128" t="s">
+        <v>442</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>2006</v>
+      </c>
+      <c r="E128" t="s">
+        <v>443</v>
+      </c>
+      <c r="F128" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>444</v>
+      </c>
+      <c r="B129" t="s">
+        <v>445</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129">
+        <v>2018</v>
+      </c>
+      <c r="E129" t="s">
+        <v>446</v>
+      </c>
+      <c r="F129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>447</v>
+      </c>
+      <c r="B130" t="s">
+        <v>448</v>
+      </c>
+      <c r="C130" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130">
+        <v>1997</v>
+      </c>
+      <c r="E130" t="s">
+        <v>450</v>
+      </c>
+      <c r="F130" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>451</v>
+      </c>
+      <c r="B131" t="s">
+        <v>452</v>
+      </c>
+      <c r="C131" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131">
+        <v>1955</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>453</v>
+      </c>
+      <c r="B132" t="s">
+        <v>454</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <v>1987</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>456</v>
+      </c>
+      <c r="B133" t="s">
+        <v>457</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>2010</v>
+      </c>
+      <c r="E133" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>459</v>
+      </c>
+      <c r="B134" t="s">
+        <v>460</v>
+      </c>
+      <c r="C134" t="s">
+        <v>461</v>
+      </c>
+      <c r="D134">
+        <v>1963</v>
+      </c>
+      <c r="E134" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>462</v>
+      </c>
+      <c r="B135" t="s">
+        <v>463</v>
+      </c>
+      <c r="C135" t="s">
+        <v>42</v>
+      </c>
+      <c r="D135">
+        <v>2014</v>
+      </c>
+      <c r="E135" t="s">
+        <v>464</v>
+      </c>
+      <c r="F135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>465</v>
+      </c>
+      <c r="B136" t="s">
+        <v>466</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>1971</v>
+      </c>
+      <c r="E136" t="s">
+        <v>467</v>
+      </c>
+      <c r="F136" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B42" r:id="rId1" display="https://open.library.ubc.ca/search?q=*&amp;creator=Bientjes%2C%20Willem" xr:uid="{8C161014-7DFA-A842-8983-6D7AFEE2CCAD}"/>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DC0D5-CE18-F645-98CC-F0F4070155D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E8140-4C6F-E746-A515-E44D04248187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="760" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="542">
   <si>
     <t>Title</t>
   </si>
@@ -1437,6 +1437,228 @@
   </si>
   <si>
     <t>Strathcona Provincial park</t>
+  </si>
+  <si>
+    <t>Garibaldi national park</t>
+  </si>
+  <si>
+    <t>The role of understory vegetation in the nutrient cycle of forested ecosystems in the mountain hemlock biogeoclimatic zone</t>
+  </si>
+  <si>
+    <t>Yarie</t>
+  </si>
+  <si>
+    <t>See page 5</t>
+  </si>
+  <si>
+    <t>Investigation of phosphorus acquisition strategies of ectomycorrhizal fungal communities along a podzolization gradient</t>
+  </si>
+  <si>
+    <t>Meeds</t>
+  </si>
+  <si>
+    <t>Tsuga heterophylla</t>
+  </si>
+  <si>
+    <t>The effects of natural and anthropogenic disturbances on the structure and composition of early-successional plant communities in the Interior Cedar-Hemlock (ICH) zone of southern British Columbia</t>
+  </si>
+  <si>
+    <t>Corriveau</t>
+  </si>
+  <si>
+    <t>Revelstoke</t>
+  </si>
+  <si>
+    <t>Lots</t>
+  </si>
+  <si>
+    <t>Managing for landscape patterns in the sub-boreal forests of British Columbia</t>
+  </si>
+  <si>
+    <t>Andison</t>
+  </si>
+  <si>
+    <t>SBSmk1</t>
+  </si>
+  <si>
+    <t>Many See page 8</t>
+  </si>
+  <si>
+    <t>Ectomycorrhizal communities of Douglas-fir and paper birch along a gradient of stand age following clearcutting and wildfire in the Interior Cedar-Hemlock zone, southern British Columbia</t>
+  </si>
+  <si>
+    <t>Twieg</t>
+  </si>
+  <si>
+    <t>Douglas fir and paper birch</t>
+  </si>
+  <si>
+    <t>Many sse page 16</t>
+  </si>
+  <si>
+    <t>Spatial analysis in a successional perspective : a boreal mixedwood landscape in northeastern British Columbia</t>
+  </si>
+  <si>
+    <t>Albani</t>
+  </si>
+  <si>
+    <t>See page 30</t>
+  </si>
+  <si>
+    <t>White spurce and black spurce</t>
+  </si>
+  <si>
+    <t>Vegetation response to right-of-way clearing procedures in coastal British Columbia</t>
+  </si>
+  <si>
+    <t>McGee</t>
+  </si>
+  <si>
+    <t>Vancouver island and mission</t>
+  </si>
+  <si>
+    <t>An ecological study of the Sitka spruce forest on the west coast of Vancouver Island</t>
+  </si>
+  <si>
+    <t>Corded</t>
+  </si>
+  <si>
+    <t>Investigation of the stability of the steepland forest soils in the coast mountains, southwest British Columbia</t>
+  </si>
+  <si>
+    <t>O'Loughlin</t>
+  </si>
+  <si>
+    <t>Howe sound</t>
+  </si>
+  <si>
+    <t>Order and organization in lodgepole pine forests of West-Central British Columbia</t>
+  </si>
+  <si>
+    <t>Brulisauer</t>
+  </si>
+  <si>
+    <t>See page 39</t>
+  </si>
+  <si>
+    <t>Phytocoenoses in the dry subzone of the interior western hemlock zone of British Columbia</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Survival and growth of western larch seedlings in relation to light availability</t>
+  </si>
+  <si>
+    <t>Klinka</t>
+  </si>
+  <si>
+    <t>Okanagan falls</t>
+  </si>
+  <si>
+    <t>Western Larch</t>
+  </si>
+  <si>
+    <t>Western larch species reduced in survival under low and intermediate light conditions</t>
+  </si>
+  <si>
+    <t>Regeneration, growth and productivity of trees within gaps of old-growth forests on the outer coast (CWHvh2) of British Columbia</t>
+  </si>
+  <si>
+    <t>Prince Rupert</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Regeneration of tree is highly dependent on canopy gaps</t>
+  </si>
+  <si>
+    <t>The long-term history of plant communities on southeastern Vancouver Island based on vegetation resurveys and phytolith analysis</t>
+  </si>
+  <si>
+    <t>McCune</t>
+  </si>
+  <si>
+    <t>Douglas fir and gary oak</t>
+  </si>
+  <si>
+    <t>Soil nutrient status and fungal community structure of high and low phosphatase microsites in a mixed Douglas-­fir paper birch stand</t>
+  </si>
+  <si>
+    <t>Godin</t>
+  </si>
+  <si>
+    <t>See page 16</t>
+  </si>
+  <si>
+    <t>The influence of soil fauna on nitrogen mineralization and decomposition in soil formed under western redcedar, western hemlock, sitka spruce and douglas-fir forests on the west coast of Vancouver Island</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Western redcedar, western hemlock, sitka spruce and douglas fir</t>
+  </si>
+  <si>
+    <t>The effects of slashburning on soil mineralizable nitrogen on two sites in the lower Fraser Valley</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Fraser valley</t>
+  </si>
+  <si>
+    <t>The long-term effects of biosolids on rangeland soil quality and plant community in the central Interior of British Columbia</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>See page 25</t>
+  </si>
+  <si>
+    <t>Vertical distribution and biomass of fine roots in three subalpine forest plant associations in southwestern British Columbia</t>
+  </si>
+  <si>
+    <t>Nuszdorfer</t>
+  </si>
+  <si>
+    <t>See page 26</t>
+  </si>
+  <si>
+    <t>Fertilization of western hemlock with nitrogen, phosphorus, and lime : a greenhouse study</t>
+  </si>
+  <si>
+    <t>Newsome</t>
+  </si>
+  <si>
+    <t>Vegetational composition and regeneration in three forest associations after logging in the coastal Western Hemlock zone</t>
+  </si>
+  <si>
+    <t>Houseknecht</t>
+  </si>
+  <si>
+    <t>See page 7</t>
+  </si>
+  <si>
+    <t>Classification and successional relationships of some bog and forest ecosystems near Prince Rupert, British Columbia</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>The effect of pre-commercial thinning on growth and development of paper birch leading stands in British Columbia's Interior</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Paper birch</t>
+  </si>
+  <si>
+    <t>see page 5</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4579,7 +4801,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>444</v>
       </c>
@@ -4599,7 +4821,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>447</v>
       </c>
@@ -4619,7 +4841,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>451</v>
       </c>
@@ -4639,7 +4861,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>453</v>
       </c>
@@ -4659,7 +4881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>456</v>
       </c>
@@ -4679,7 +4901,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>459</v>
       </c>
@@ -4699,7 +4921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>462</v>
       </c>
@@ -4719,7 +4941,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>465</v>
       </c>
@@ -4737,6 +4959,527 @@
       </c>
       <c r="F136" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>469</v>
+      </c>
+      <c r="B137" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>1978</v>
+      </c>
+      <c r="E137" t="s">
+        <v>468</v>
+      </c>
+      <c r="F137" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>472</v>
+      </c>
+      <c r="B138" t="s">
+        <v>473</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>2020</v>
+      </c>
+      <c r="E138" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B139" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" t="s">
+        <v>280</v>
+      </c>
+      <c r="D139">
+        <v>2008</v>
+      </c>
+      <c r="E139" t="s">
+        <v>477</v>
+      </c>
+      <c r="F139" t="s">
+        <v>478</v>
+      </c>
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" t="s">
+        <v>480</v>
+      </c>
+      <c r="C140" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140">
+        <v>1996</v>
+      </c>
+      <c r="E140" t="s">
+        <v>481</v>
+      </c>
+      <c r="F140" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>483</v>
+      </c>
+      <c r="B141" t="s">
+        <v>484</v>
+      </c>
+      <c r="C141" t="s">
+        <v>280</v>
+      </c>
+      <c r="D141">
+        <v>2006</v>
+      </c>
+      <c r="E141" t="s">
+        <v>486</v>
+      </c>
+      <c r="F141" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>488</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142">
+        <v>2001</v>
+      </c>
+      <c r="E142" t="s">
+        <v>489</v>
+      </c>
+      <c r="F142" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>491</v>
+      </c>
+      <c r="B143" t="s">
+        <v>492</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143">
+        <v>1988</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144">
+        <v>1994</v>
+      </c>
+      <c r="E144" t="s">
+        <v>493</v>
+      </c>
+      <c r="F144" t="s">
+        <v>99</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>494</v>
+      </c>
+      <c r="B145" t="s">
+        <v>495</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145">
+        <v>1972</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>496</v>
+      </c>
+      <c r="B146" t="s">
+        <v>497</v>
+      </c>
+      <c r="C146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146">
+        <v>9172</v>
+      </c>
+      <c r="E146" t="s">
+        <v>498</v>
+      </c>
+      <c r="F146" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>499</v>
+      </c>
+      <c r="B147" t="s">
+        <v>500</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147">
+        <v>1994</v>
+      </c>
+      <c r="E147" t="s">
+        <v>501</v>
+      </c>
+      <c r="F147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>502</v>
+      </c>
+      <c r="B148" t="s">
+        <v>503</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148">
+        <v>1964</v>
+      </c>
+      <c r="E148" t="s">
+        <v>172</v>
+      </c>
+      <c r="F148" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17">
+      <c r="A149" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" t="s">
+        <v>411</v>
+      </c>
+      <c r="C149" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149">
+        <v>2000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>412</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B150" t="s">
+        <v>505</v>
+      </c>
+      <c r="C150" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150">
+        <v>1997</v>
+      </c>
+      <c r="E150" t="s">
+        <v>506</v>
+      </c>
+      <c r="F150" t="s">
+        <v>507</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B151" t="s">
+        <v>505</v>
+      </c>
+      <c r="C151" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151">
+        <v>2001</v>
+      </c>
+      <c r="E151" t="s">
+        <v>510</v>
+      </c>
+      <c r="F151" t="s">
+        <v>511</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>513</v>
+      </c>
+      <c r="B152" t="s">
+        <v>514</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>2013</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>516</v>
+      </c>
+      <c r="B153" t="s">
+        <v>517</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153">
+        <v>2013</v>
+      </c>
+      <c r="E153" t="s">
+        <v>518</v>
+      </c>
+      <c r="F153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>519</v>
+      </c>
+      <c r="B154" t="s">
+        <v>520</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>1999</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>522</v>
+      </c>
+      <c r="B155" t="s">
+        <v>523</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155">
+        <v>1989</v>
+      </c>
+      <c r="E155" t="s">
+        <v>524</v>
+      </c>
+      <c r="F155" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>525</v>
+      </c>
+      <c r="B156" t="s">
+        <v>526</v>
+      </c>
+      <c r="C156" t="s">
+        <v>204</v>
+      </c>
+      <c r="D156">
+        <v>2018</v>
+      </c>
+      <c r="E156" t="s">
+        <v>423</v>
+      </c>
+      <c r="F156" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>528</v>
+      </c>
+      <c r="B157" t="s">
+        <v>529</v>
+      </c>
+      <c r="C157" t="s">
+        <v>432</v>
+      </c>
+      <c r="D157">
+        <v>1982</v>
+      </c>
+      <c r="E157" t="s">
+        <v>468</v>
+      </c>
+      <c r="F157" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>531</v>
+      </c>
+      <c r="B158" t="s">
+        <v>532</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158">
+        <v>1985</v>
+      </c>
+      <c r="E158" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>533</v>
+      </c>
+      <c r="B159" t="s">
+        <v>534</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159">
+        <v>1976</v>
+      </c>
+      <c r="E159" t="s">
+        <v>56</v>
+      </c>
+      <c r="F159" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>536</v>
+      </c>
+      <c r="B160" t="s">
+        <v>537</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160">
+        <v>1983</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>538</v>
+      </c>
+      <c r="B161" t="s">
+        <v>539</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161">
+        <v>2019</v>
+      </c>
+      <c r="E161" t="s">
+        <v>541</v>
+      </c>
+      <c r="F161" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9E8140-4C6F-E746-A515-E44D04248187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED9D91-4E60-CF43-9A6F-E54AAFC16284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$161</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2066,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2099,1484 +2102,1450 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>1960</v>
+        <v>2001</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
+      <c r="A3" t="s">
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>1994</v>
+        <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>32</v>
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>1959</v>
+        <v>1995</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
+      <c r="A8" t="s">
+        <v>525</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>526</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="D8">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>1991</v>
+        <v>2003</v>
       </c>
       <c r="E10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>1993</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>1983</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>1998</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>2016</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13">
-        <v>1996</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="D14">
-        <v>1989</v>
+        <v>1999</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15">
-        <v>1998</v>
+        <v>1964</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>2001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>1954</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17">
-        <v>1985</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>2010</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>87</v>
+      <c r="A19" t="s">
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1">
-      <c r="A21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1994</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>2013</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1965</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
+      <c r="H22" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1997</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>2004</v>
+      </c>
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>105</v>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>106</v>
+      <c r="A24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>108</v>
+      <c r="A25" t="s">
+        <v>451</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>2007</v>
+        <v>1955</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>111</v>
+      <c r="A26" t="s">
+        <v>249</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>2000</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>1997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>2013</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>117</v>
+      <c r="H27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>119</v>
+      <c r="A28" t="s">
+        <v>499</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D28">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>501</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>123</v>
+      <c r="A29" t="s">
+        <v>407</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>1997</v>
+        <v>2010</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>409</v>
       </c>
       <c r="F29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>128</v>
+      <c r="A30" t="s">
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>414</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="D32">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="1" t="s">
-        <v>136</v>
+      <c r="A33" t="s">
+        <v>175</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>373</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="D34">
-        <v>1983</v>
+        <v>1971</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>139</v>
+        <v>374</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>373</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36">
-        <v>1969</v>
-      </c>
-      <c r="E36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1997</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D37">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="6" t="s">
-        <v>152</v>
+      <c r="A38" t="s">
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="N38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" t="s">
-        <v>158</v>
+      <c r="A39" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>336</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="1" t="s">
-        <v>160</v>
+      <c r="A40" t="s">
+        <v>438</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>439</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
       </c>
       <c r="D40">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>494</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>495</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>2004</v>
+        <v>1972</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>169</v>
+      <c r="A42" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" t="s">
+        <v>476</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="D42">
-        <v>1954</v>
+        <v>2008</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>478</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="D43">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E43" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>1995</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>1994</v>
+      </c>
+      <c r="E46" t="s">
+        <v>493</v>
+      </c>
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>1994</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B48" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" t="s">
         <v>52</v>
       </c>
-      <c r="D44">
-        <v>1991</v>
-      </c>
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45">
-        <v>1990</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46">
-        <v>2013</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <v>1998</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
       <c r="D48">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50">
-        <v>2000</v>
+        <v>1984</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>522</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>523</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D51">
-        <v>1980</v>
+        <v>1989</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>524</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>448</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>1949</v>
+        <v>1997</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
-        <v>206</v>
+      <c r="A53" t="s">
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D54">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>214</v>
+      <c r="A55" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D55">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>377</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>220</v>
+      <c r="A57" t="s">
+        <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D57">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E57" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" t="s">
-        <v>223</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>516</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>517</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D58">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>518</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>227</v>
+      <c r="A59" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>2015</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>346</v>
+      </c>
+      <c r="B60" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>2012</v>
+      </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" t="s">
         <v>47</v>
       </c>
-      <c r="D59">
-        <v>1993</v>
-      </c>
-      <c r="E59" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60">
-        <v>2003</v>
-      </c>
-      <c r="E60" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B61" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" t="s">
-        <v>66</v>
-      </c>
       <c r="D61">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E61" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F61" t="s">
-        <v>236</v>
-      </c>
-      <c r="G61" t="s">
-        <v>237</v>
-      </c>
-      <c r="H61" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>239</v>
+      <c r="A62" t="s">
+        <v>324</v>
       </c>
       <c r="B62" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>1984</v>
+        <v>1997</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" t="s">
-        <v>237</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="2" t="s">
-        <v>242</v>
+      <c r="A63" t="s">
+        <v>533</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>534</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>1997</v>
+        <v>1976</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G63" t="s">
-        <v>237</v>
-      </c>
-      <c r="H63" t="s">
-        <v>244</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>2009</v>
       </c>
       <c r="E64" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>249</v>
+      <c r="A65" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>2000</v>
+        <v>1960</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D66">
-        <v>1967</v>
-      </c>
-      <c r="E66" t="s">
-        <v>253</v>
-      </c>
-      <c r="F66" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1965</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="2" t="s">
-        <v>255</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17">
+      <c r="A68" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B68" t="s">
-        <v>256</v>
+        <v>411</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D68">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E68" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" t="s">
-        <v>258</v>
+        <v>412</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>262</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17">
+      <c r="A69" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="D69">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>264</v>
+        <v>412</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3605,356 +3574,359 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17">
-      <c r="A71" s="1" t="s">
-        <v>269</v>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>1954</v>
+        <v>1969</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>272</v>
-      </c>
-      <c r="G71" t="s">
-        <v>237</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="D72">
-        <v>1977</v>
+        <v>1998</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>278</v>
+      <c r="A73" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>505</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="D73">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>506</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>507</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>282</v>
+      <c r="A74" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>505</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="D74">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>510</v>
       </c>
       <c r="F74" t="s">
-        <v>284</v>
+        <v>511</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>286</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>466</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="E75" t="s">
-        <v>285</v>
+        <v>467</v>
       </c>
       <c r="F75" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>288</v>
+      <c r="A76" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D76">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>290</v>
+        <v>127</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="2" t="s">
-        <v>291</v>
+      <c r="A77" t="s">
+        <v>321</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C77" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="D77">
-        <v>1999</v>
+        <v>1961</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>293</v>
+      <c r="A78" t="s">
+        <v>338</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="D78">
-        <v>1978</v>
+        <v>2001</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>295</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>296</v>
+      <c r="A79" t="s">
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D79">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="E79" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>236</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F80" t="s">
-        <v>300</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>433</v>
       </c>
       <c r="B81" t="s">
-        <v>302</v>
+        <v>434</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D81">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>538</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>539</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="D82">
-        <v>1994</v>
+        <v>2019</v>
       </c>
       <c r="E82" t="s">
-        <v>303</v>
+        <v>541</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="D83">
-        <v>1985</v>
+        <v>1967</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>306</v>
+        <v>253</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D84">
-        <v>1994</v>
+        <v>2002</v>
       </c>
       <c r="E84" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="F84" t="s">
-        <v>312</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>313</v>
+      <c r="A85" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D85">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="F86" t="s">
-        <v>165</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D87">
-        <v>1961</v>
+        <v>2010</v>
       </c>
       <c r="E87" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
         <v>77</v>
@@ -3962,1529 +3934,1568 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D88">
-        <v>1961</v>
+        <v>2013</v>
       </c>
       <c r="E88" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D89">
-        <v>1997</v>
+        <v>2011</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D90">
-        <v>2010</v>
+        <v>1986</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D91">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="F91" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D92">
-        <v>1985</v>
+        <v>2015</v>
       </c>
       <c r="E92" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F92" t="s">
-        <v>336</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>236</v>
+      </c>
+      <c r="G92" t="s">
+        <v>237</v>
       </c>
       <c r="H92" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>338</v>
+      <c r="A93" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>340</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>341</v>
+      <c r="A94" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D94">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>290</v>
+        <v>163</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D95">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="E95" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>344</v>
+      <c r="A96" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D96">
-        <v>1955</v>
+        <v>2000</v>
       </c>
       <c r="E96" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="F96" t="s">
-        <v>340</v>
+        <v>114</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>346</v>
+      <c r="A97" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>347</v>
+        <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D97">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="F97" t="s">
-        <v>348</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>513</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>514</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>1957</v>
+        <v>2013</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>491</v>
       </c>
       <c r="B99" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="C99" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="D99">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="E99" t="s">
-        <v>351</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>357</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D100">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="F100" t="s">
-        <v>358</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D101">
-        <v>1995</v>
+        <v>1957</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>361</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>362</v>
+      <c r="A102" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D102">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="E102" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="F102" t="s">
-        <v>364</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="1" t="s">
-        <v>365</v>
+      <c r="A103" t="s">
+        <v>472</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>473</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>1993</v>
+        <v>2020</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>367</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
+        <v>474</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" t="s">
-        <v>368</v>
+      <c r="A104" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>369</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D104">
-        <v>2005</v>
+        <v>1984</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>77</v>
+        <v>241</v>
+      </c>
+      <c r="G104" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D105">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>372</v>
+      <c r="A106" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B106" t="s">
-        <v>373</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="D106">
-        <v>1971</v>
+        <v>1999</v>
       </c>
       <c r="E106" t="s">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17">
       <c r="A107" s="1" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="B107" t="s">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D107">
-        <v>2000</v>
+        <v>1954</v>
       </c>
       <c r="E107" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="F107" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="G107" t="s">
-        <v>19</v>
-      </c>
-      <c r="H107" t="s">
-        <v>379</v>
+        <v>237</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="D108">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E108" t="s">
-        <v>383</v>
-      </c>
-      <c r="F108" t="s">
-        <v>382</v>
+        <v>17</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="B109" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>425</v>
       </c>
       <c r="D109">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="B110" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D110">
-        <v>1999</v>
+        <v>1959</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>391</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>392</v>
+        <v>167</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D111">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E111" t="s">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="D112">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="E112" t="s">
-        <v>394</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>398</v>
+        <v>531</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D113">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="E113" t="s">
-        <v>400</v>
+        <v>276</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D114">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>529</v>
       </c>
       <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115">
+        <v>1982</v>
+      </c>
+      <c r="E115" t="s">
+        <v>468</v>
+      </c>
+      <c r="F115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>496</v>
+      </c>
+      <c r="B116" t="s">
+        <v>497</v>
+      </c>
+      <c r="C116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116">
+        <v>9172</v>
+      </c>
+      <c r="E116" t="s">
+        <v>498</v>
+      </c>
+      <c r="F116" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117">
+        <v>2018</v>
+      </c>
+      <c r="E117" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" t="s">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>344</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" t="s">
         <v>42</v>
       </c>
-      <c r="D115">
-        <v>1990</v>
-      </c>
-      <c r="E115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
-        <v>406</v>
-      </c>
-      <c r="B116" t="s">
-        <v>373</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116">
-        <v>1996</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>407</v>
-      </c>
-      <c r="B117" t="s">
-        <v>408</v>
-      </c>
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117">
-        <v>2010</v>
-      </c>
-      <c r="E117" t="s">
-        <v>409</v>
-      </c>
-      <c r="F117" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="17">
-      <c r="A118" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B118" t="s">
-        <v>411</v>
-      </c>
-      <c r="C118" t="s">
-        <v>138</v>
-      </c>
       <c r="D118">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="E118" t="s">
-        <v>412</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G118" t="s">
+        <v>253</v>
+      </c>
+      <c r="F118" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>309</v>
+      </c>
+      <c r="B119" t="s">
+        <v>310</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119">
+        <v>1994</v>
+      </c>
+      <c r="E119" t="s">
+        <v>311</v>
+      </c>
+      <c r="F119" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>392</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>2002</v>
+      </c>
+      <c r="E120" t="s">
+        <v>393</v>
+      </c>
+      <c r="F120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121">
+        <v>1997</v>
+      </c>
+      <c r="E121" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
-        <v>414</v>
-      </c>
-      <c r="B119" t="s">
-        <v>415</v>
-      </c>
-      <c r="C119" t="s">
-        <v>280</v>
-      </c>
-      <c r="D119">
-        <v>1995</v>
-      </c>
-      <c r="E119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
-        <v>416</v>
-      </c>
-      <c r="B120" t="s">
-        <v>417</v>
-      </c>
-      <c r="C120" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120">
-        <v>1984</v>
-      </c>
-      <c r="E120" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
-        <v>419</v>
-      </c>
-      <c r="B121" t="s">
-        <v>420</v>
-      </c>
-      <c r="C121" t="s">
-        <v>34</v>
-      </c>
-      <c r="D121">
-        <v>2016</v>
-      </c>
-      <c r="E121" t="s">
-        <v>253</v>
-      </c>
-      <c r="F121" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="B122" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
-        <v>425</v>
+        <v>23</v>
       </c>
       <c r="D122">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E122" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="F122" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>331</v>
       </c>
       <c r="C123" t="s">
         <v>42</v>
       </c>
       <c r="D123">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="E123" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="F123" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>430</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>431</v>
+        <v>149</v>
       </c>
       <c r="C124" t="s">
-        <v>432</v>
+        <v>138</v>
       </c>
       <c r="D124">
-        <v>1963</v>
+        <v>1992</v>
       </c>
       <c r="E124" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>433</v>
+        <v>519</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D125">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" t="s">
-        <v>436</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D126">
-        <v>1959</v>
+        <v>2010</v>
       </c>
       <c r="E126" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>438</v>
+        <v>202</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="D127">
-        <v>1986</v>
+        <v>1949</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="B128" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D128">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="E128" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="B129" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D129">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="E129" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="F129" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>448</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D130">
-        <v>1997</v>
+        <v>1959</v>
       </c>
       <c r="E130" t="s">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>449</v>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="B131" t="s">
-        <v>452</v>
+        <v>289</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D131">
-        <v>1955</v>
+        <v>2007</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>455</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D132">
-        <v>1987</v>
+        <v>2006</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>443</v>
       </c>
       <c r="F132" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>456</v>
+        <v>274</v>
       </c>
       <c r="B133" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D133">
-        <v>2010</v>
+        <v>1977</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="F133" t="s">
-        <v>458</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="B134" t="s">
-        <v>460</v>
+        <v>353</v>
       </c>
       <c r="C134" t="s">
-        <v>461</v>
+        <v>354</v>
       </c>
       <c r="D134">
-        <v>1963</v>
+        <v>1997</v>
       </c>
       <c r="E134" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>462</v>
+        <v>319</v>
       </c>
       <c r="B135" t="s">
-        <v>463</v>
+        <v>320</v>
       </c>
       <c r="C135" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>2014</v>
+        <v>1961</v>
       </c>
       <c r="E135" t="s">
-        <v>464</v>
+        <v>56</v>
       </c>
       <c r="F135" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="B136" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D136">
-        <v>1971</v>
+        <v>2008</v>
       </c>
       <c r="E136" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F136" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>470</v>
+        <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D137">
-        <v>1978</v>
+        <v>1983</v>
       </c>
       <c r="E137" t="s">
-        <v>468</v>
-      </c>
-      <c r="F137" t="s">
-        <v>471</v>
+        <v>17</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>472</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
-        <v>473</v>
+        <v>215</v>
       </c>
       <c r="C138" t="s">
         <v>10</v>
       </c>
       <c r="D138">
-        <v>2020</v>
+        <v>1998</v>
       </c>
       <c r="E138" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="F138" t="s">
-        <v>474</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
-        <v>475</v>
+      <c r="A139" t="s">
+        <v>395</v>
       </c>
       <c r="B139" t="s">
-        <v>476</v>
+        <v>396</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="D139">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="E139" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
       <c r="F139" t="s">
-        <v>478</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="B140" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C140" t="s">
-        <v>66</v>
+        <v>461</v>
       </c>
       <c r="D140">
-        <v>1996</v>
+        <v>1963</v>
       </c>
       <c r="E140" t="s">
-        <v>481</v>
+        <v>276</v>
       </c>
       <c r="F140" t="s">
-        <v>482</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" t="s">
-        <v>483</v>
+      <c r="A141" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>484</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="D141">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E141" t="s">
-        <v>486</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
-        <v>485</v>
+        <v>62</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="B142" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D142">
-        <v>2001</v>
+        <v>1987</v>
       </c>
       <c r="E142" t="s">
-        <v>489</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>490</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>491</v>
+        <v>286</v>
       </c>
       <c r="B143" t="s">
-        <v>492</v>
+        <v>287</v>
       </c>
       <c r="C143" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D143">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="F143" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="1" t="s">
-        <v>96</v>
+      <c r="A144" t="s">
+        <v>430</v>
       </c>
       <c r="B144" t="s">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>432</v>
       </c>
       <c r="D144">
-        <v>1994</v>
+        <v>1963</v>
       </c>
       <c r="E144" t="s">
-        <v>493</v>
+        <v>253</v>
       </c>
       <c r="F144" t="s">
-        <v>99</v>
-      </c>
-      <c r="G144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B145" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D145">
-        <v>1972</v>
+        <v>2006</v>
       </c>
       <c r="E145" t="s">
-        <v>17</v>
+        <v>486</v>
       </c>
       <c r="F145" t="s">
-        <v>251</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" t="s">
-        <v>496</v>
+      <c r="A146" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>497</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D146">
-        <v>9172</v>
+        <v>1997</v>
       </c>
       <c r="E146" t="s">
-        <v>498</v>
+        <v>126</v>
       </c>
       <c r="F146" t="s">
-        <v>332</v>
+        <v>127</v>
+      </c>
+      <c r="G146" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="B147" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D147">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="E147" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
       <c r="F147" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>502</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>503</v>
+        <v>201</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D148">
-        <v>1964</v>
+        <v>1980</v>
       </c>
       <c r="E148" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="17">
-      <c r="A149" s="1" t="s">
-        <v>410</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>411</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D149">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="E149" t="s">
-        <v>412</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>413</v>
+        <v>84</v>
+      </c>
+      <c r="F149" t="s">
+        <v>208</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H149" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>504</v>
+        <v>296</v>
       </c>
       <c r="B150" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="C150" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>1997</v>
       </c>
       <c r="E150" t="s">
-        <v>506</v>
+        <v>92</v>
       </c>
       <c r="F150" t="s">
-        <v>507</v>
+        <v>236</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" t="s">
-        <v>508</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="1" t="s">
-        <v>509</v>
+      <c r="A151" t="s">
+        <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>505</v>
+        <v>297</v>
       </c>
       <c r="C151" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D151">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E151" t="s">
-        <v>510</v>
+        <v>253</v>
       </c>
       <c r="F151" t="s">
-        <v>511</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s">
-        <v>512</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>513</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>514</v>
+        <v>261</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D152">
-        <v>2013</v>
+        <v>1992</v>
       </c>
       <c r="E152" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
-        <v>515</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>516</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>517</v>
+        <v>302</v>
       </c>
       <c r="C153" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="E153" t="s">
-        <v>518</v>
+        <v>17</v>
       </c>
       <c r="F153" t="s">
-        <v>213</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="B154" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D154">
-        <v>1999</v>
+        <v>2010</v>
       </c>
       <c r="E154" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="F154" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>522</v>
+        <v>368</v>
       </c>
       <c r="B155" t="s">
-        <v>523</v>
+        <v>369</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D155">
-        <v>1989</v>
+        <v>2005</v>
       </c>
       <c r="E155" t="s">
-        <v>524</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>390</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
       <c r="B156" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="C156" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="D156">
-        <v>2018</v>
+        <v>1978</v>
       </c>
       <c r="E156" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="F156" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>528</v>
+        <v>64</v>
       </c>
       <c r="B157" t="s">
-        <v>529</v>
+        <v>65</v>
       </c>
       <c r="C157" t="s">
-        <v>432</v>
+        <v>66</v>
       </c>
       <c r="D157">
-        <v>1982</v>
+        <v>1996</v>
       </c>
       <c r="E157" t="s">
-        <v>468</v>
+        <v>63</v>
       </c>
       <c r="F157" t="s">
-        <v>530</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>531</v>
+        <v>245</v>
       </c>
       <c r="B158" t="s">
-        <v>532</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="D158">
-        <v>1985</v>
+        <v>2009</v>
       </c>
       <c r="E158" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F158" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>533</v>
+      <c r="A159" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>534</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D159">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="F159" t="s">
-        <v>535</v>
+        <v>223</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>536</v>
+      <c r="A160" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B160" t="s">
-        <v>537</v>
+        <v>221</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D160">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="E160" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="F160" t="s">
-        <v>530</v>
+        <v>127</v>
+      </c>
+      <c r="G160" t="s">
+        <v>237</v>
+      </c>
+      <c r="H160" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>538</v>
+        <v>131</v>
       </c>
       <c r="B161" t="s">
-        <v>539</v>
+        <v>132</v>
       </c>
       <c r="C161" t="s">
         <v>34</v>
       </c>
       <c r="D161">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E161" t="s">
-        <v>541</v>
+        <v>116</v>
       </c>
       <c r="F161" t="s">
-        <v>540</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H161" xr:uid="{C4661730-15EF-D74B-AA2D-D46848E18CF6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H161">
+      <sortCondition ref="B1:B161"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" display="https://open.library.ubc.ca/search?q=*&amp;creator=Bientjes%2C%20Willem" xr:uid="{8C161014-7DFA-A842-8983-6D7AFEE2CCAD}"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://open.library.ubc.ca/search?q=*&amp;creator=Bientjes%2C%20Willem" xr:uid="{8C161014-7DFA-A842-8983-6D7AFEE2CCAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED9D91-4E60-CF43-9A6F-E54AAFC16284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE4F151-F5C0-4143-AA76-B4EFAD00B901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="600">
   <si>
     <t>Title</t>
   </si>
@@ -1662,6 +1662,180 @@
   </si>
   <si>
     <t>see page 5</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>1. Understanding spatial patterns on mixedwood landscapes 2. are processes of succesion dispersal limited?</t>
+  </si>
+  <si>
+    <t>Moisture and nutrient gradients can explain spatial patterns in mixedwood landscapes, disturbance in terms of fire can also be used. White spurce is seed dispersal limited which occurs because spruce is a poor establisher after burns</t>
+  </si>
+  <si>
+    <t>Results/Conclusions</t>
+  </si>
+  <si>
+    <t>1. Nitrogen in soil has a negative relationship to endophytic diazotrophic bacteria, this baterica can colonize and survive in conifer hosts, the bacteria promote plant growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen was not shown to have a negative relationship with bacteria, Bacteria did increase seedling survival and growth </t>
+  </si>
+  <si>
+    <t>How disturbance regimes alter natural ecosystems</t>
+  </si>
+  <si>
+    <t>Generally as size and age restrictions increased, interior forest area decreased, edge density increased, age-class distribution favoured younger forests, spatial diversity increased, and temporal diversity decreased. The detailed results demonstrated the importance of using a variety of pattern metrics, in different forms, to grasp the full impacts of each type and degree of restriction.</t>
+  </si>
+  <si>
+    <t>How differences in soil C and N can explain primary production and differences in forest types</t>
+  </si>
+  <si>
+    <t>Climate can explain differences in C concentrations in the soil, Water availability controlled primary production of forests and soil N content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to forests differ in composition based on descriptions, what explains tree growth, do disturbance regime causes patterns, what about understory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different forests are different compositionally, Large scale disturbances can explain species composition, Gap dynamics can also explain species composition </t>
+  </si>
+  <si>
+    <t>Light transmission and variability in growth determines patterns, Climatic variables can explain regional differences</t>
+  </si>
+  <si>
+    <t>Light differences were too small to cause major differences, no general succesional changes in dynamics between aspen and spurce</t>
+  </si>
+  <si>
+    <t>Biosolids will increase soil properties, which will improve species composition long term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant compostion did change and soil had lower PH, more water, and increased soil nutrients </t>
+  </si>
+  <si>
+    <t>Endophytic bacteria are in the tissues of lodgepole pine and western red cedar. They fix nitrogen for theses species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endophytic bacteria was found, the bacteria did fix nitrogen </t>
+  </si>
+  <si>
+    <t>How paper birch affects douglas fir growth, density, resource availability</t>
+  </si>
+  <si>
+    <t>reducing paper birch density increased douglas fir growth, paper birch increased resource availability, light and soil moisture</t>
+  </si>
+  <si>
+    <t>Seed microsite characteristics of seedlings, understanding seedling microclimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disturbed sites had higher soil temperature, Cold treatment grew taller while warm treatment gained more height </t>
+  </si>
+  <si>
+    <t>Determine successional relationships</t>
+  </si>
+  <si>
+    <t>Microsite climate is more important compared to successional releationships</t>
+  </si>
+  <si>
+    <t>Disturbance causes natural regeneration, changes EM community and increases resource availability</t>
+  </si>
+  <si>
+    <t>Reduced light limitations causes increased survival and growth, EM causes reductions in N and P soil nutrients, low severity burn treatment led to increased douglas fir regeneration</t>
+  </si>
+  <si>
+    <t>Single stand hold more collembola populations, how soil nutrients also changed collembola diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single stands had more collembola while nutrients did change collembola diversity </t>
+  </si>
+  <si>
+    <t>Inter tree competition led to growth suppresion for weaker species, this is also important in secondary succesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how competion alters secondary succession </t>
+  </si>
+  <si>
+    <t>cedar takes up more NO3 while hemlock takes more NH4, species have different fine root distributions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species did not differ in abilities to obtain different N compounds, Cedar is more competitive than hemlock for N </t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Temperature and soaking alters germination rate</t>
+  </si>
+  <si>
+    <t>shade tolerant species will have better growth than less tolerant species, some species will be better adapted to changes in seasonal light environment</t>
+  </si>
+  <si>
+    <t>species are better when selected for specific planting, regeneration potential should be taken into account when planting specific species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging and changes in forest fires can account for large scale vegetation differences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how multiple resources affect tree growth, find density-growth relationship </t>
+  </si>
+  <si>
+    <t>Site quality did not affect radial growth, Carbon and tree height were important in predicitng radial tree growth while soil water and foliar N were not, neighbor density only slightly improved model</t>
+  </si>
+  <si>
+    <t>Pine accessed more N, distributed more biomass and N aboveground and was better at N uptake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All of the hypotheses were confirmed </t>
+  </si>
+  <si>
+    <t>Do roads increase growth in trees along the road, if so how far does this extend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roads do increase growth upto 5 meters away. </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reducing interspecific competition increased seedling survival, competition can be used to explain succession during this study period of 5 years. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">describes different zones based on successional but poses no predictions or hypotheses. </t>
+  </si>
+  <si>
+    <t>observational study looking at resin of spruce trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees with more resin canals were more resistant to weevil, seasonal varaibility can alter resistence as well </t>
+  </si>
+  <si>
+    <t>Understand regeneration patters in MH zone</t>
+  </si>
+  <si>
+    <t>Regeneration is more succesful close to trees rather in gaps, late melting snow exemplifies these patterns, microsite play a vital role in determining regeneration patterns</t>
+  </si>
+  <si>
+    <t>How evolution, succession and ontogeny all affect community order</t>
+  </si>
+  <si>
+    <t>Organizational dynamics were most pronounced at the onset of succession and slowed down with increasing stand age. Stability and resilience were found to be lower on sites of poor environmental conditions than on mesic sites. No relationship, however, of stability or resilience with diversity could be established as levels of diversity in both mesic and xeric sites were similar. Lower redundancy on xeric sites was interpreted as an indicator for lower stability, leading to higher sensitivity to environmental fluctuations during the process of recovery. It was found that processes in successional and organismic development were reasonably similar except for sites in unproductive locations.</t>
+  </si>
+  <si>
+    <t>How will stanley park regenerate forest wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species can't invade as fire is suppressed in stanley park, thining of species alters species composition </t>
+  </si>
+  <si>
+    <t>how does spacing affect douglas fir regeneration</t>
+  </si>
+  <si>
+    <t>At the individual tree level, small Douglas-fir tree (&lt;15 cm dbh) growth responses significantly differed between control and spacing treatments for diameter, basal area, height, and volume. Large Douglas-fir tree (&gt;15 cm dbh) diameter and basal area growth response differed significantly between the control and the 5 m clumped spacing. Despite similar trends, results were less distinct for non- Douglas-fir species. Up to 20-25 cm dbh, volume growth efficiency increased regularly with increasing dbh on both control and spaced plots. Trees seemed to be the most efficient for the 5 m clumped spacing and the least efficient for the control. The study also showed that age distribution was clearly distinct from diameter distribution.</t>
+  </si>
+  <si>
+    <t>how does weevil affect height growth of lodgepole pine</t>
+  </si>
+  <si>
+    <t>Mortalitly from weevil is less than 5%, weevil did not have an affect on height growth as it preffered adult trees</t>
   </si>
 </sst>
 </file>
@@ -2069,13 +2243,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -2120,8 +2300,14 @@
       <c r="F2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -2140,8 +2326,14 @@
       <c r="F3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>546</v>
+      </c>
+      <c r="J3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>479</v>
       </c>
@@ -2160,8 +2352,14 @@
       <c r="F4" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>462</v>
       </c>
@@ -2180,8 +2378,14 @@
       <c r="F5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>550</v>
+      </c>
+      <c r="J5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2206,8 +2410,14 @@
       <c r="H6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2226,8 +2436,14 @@
       <c r="F7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>554</v>
+      </c>
+      <c r="J7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>525</v>
       </c>
@@ -2246,8 +2462,14 @@
       <c r="F8" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>556</v>
+      </c>
+      <c r="J8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>356</v>
       </c>
@@ -2266,8 +2488,14 @@
       <c r="F9" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>558</v>
+      </c>
+      <c r="J9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -2286,8 +2514,14 @@
       <c r="F10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>560</v>
+      </c>
+      <c r="J10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>365</v>
       </c>
@@ -2309,8 +2543,14 @@
       <c r="G11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>562</v>
+      </c>
+      <c r="J11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -2329,8 +2569,14 @@
       <c r="F12" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>564</v>
+      </c>
+      <c r="J12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -2352,8 +2598,14 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>566</v>
+      </c>
+      <c r="J13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -2372,8 +2624,14 @@
       <c r="F14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>568</v>
+      </c>
+      <c r="J14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -2393,7 +2651,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>293</v>
       </c>
@@ -2415,8 +2673,14 @@
       <c r="G16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>571</v>
+      </c>
+      <c r="J16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -2435,8 +2699,14 @@
       <c r="F17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -2455,8 +2725,14 @@
       <c r="F18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>574</v>
+      </c>
+      <c r="J18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2475,8 +2751,14 @@
       <c r="F19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>576</v>
+      </c>
+      <c r="J19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -2495,8 +2777,14 @@
       <c r="F20" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1">
+      <c r="I20" t="s">
+        <v>574</v>
+      </c>
+      <c r="J20" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="5" customFormat="1">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -2517,8 +2805,14 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -2543,8 +2837,14 @@
       <c r="H22" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2566,8 +2866,14 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="K23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2592,8 +2898,14 @@
       <c r="H24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>451</v>
       </c>
@@ -2612,8 +2924,14 @@
       <c r="F25" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>249</v>
       </c>
@@ -2632,8 +2950,14 @@
       <c r="F26" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
         <v>152</v>
       </c>
@@ -2658,8 +2982,14 @@
       <c r="H27" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>499</v>
       </c>
@@ -2678,8 +3008,14 @@
       <c r="F28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>407</v>
       </c>
@@ -2698,8 +3034,14 @@
       <c r="F29" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -2718,8 +3060,14 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -2738,8 +3086,14 @@
       <c r="F31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>414</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE4F151-F5C0-4143-AA76-B4EFAD00B901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF9C7D-5138-294F-8EE3-F89FE017AC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="7660" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="623">
   <si>
     <t>Title</t>
   </si>
@@ -1836,6 +1836,75 @@
   </si>
   <si>
     <t>Mortalitly from weevil is less than 5%, weevil did not have an affect on height growth as it preffered adult trees</t>
+  </si>
+  <si>
+    <t>Soils from CH will have different phosphorus forms and different soil chemistry to HA stands, Burning (immediatnly, 5 and 10 years after) affects phosphorus forms and soil chemistry. Western red cedar can use many forms of phosphorus and trees with mycorrhizal use different forms of P</t>
+  </si>
+  <si>
+    <t>Soils differ in PH, Carbon concentration, C/N, C/P and Lca but differences in P concentration and forms do not exist. After burning PH and concentrations of P, Ca, Mg and Mn increased and by 10 years after the concentrations were back to normal levels, P levels didn't change but there was a shift in P forms from inorganic to organic. No differences between mycorrhizae were found and western red cedar was able to use a variety or organic and inorganic P</t>
+  </si>
+  <si>
+    <t>Yao</t>
+  </si>
+  <si>
+    <t>To determine the range in seed germination percent and the geographic factors influencing germination in Douglas-fir</t>
+  </si>
+  <si>
+    <t>Figures with relevant data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude intially affected germination but this effect disappeared after 50 days or so. Latitude affected seed-weight more than elevation. </t>
+  </si>
+  <si>
+    <t>Cedar stands are resistent to blowdown, cedar litter has low nutrient content because of high N eficiency of cedar and N mineralization in the forest floor is inhibited by high tannin contents in the sala litter all these casue low N supply in old gorwth CH forests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salal is a stong fertilizer for N, understory removal improved tree height, diameter and biomass but did not affect distribution patterns. Soil organic matter was immobilizing N fertilizer within hours of application. Microbial biomass absorbed large portions of total soil N but was a poor indicator of N availability. </t>
+  </si>
+  <si>
+    <t>How do seedlings/saplings respond to varying light environments, to what extend are measures of survival and growth related to shade tolerance, how to traits change with light environments and what traits are related to shade tolerance</t>
+  </si>
+  <si>
+    <t>Tables 6.1-6.3</t>
+  </si>
+  <si>
+    <t>light did change growth and survial for most species, more shade tolerant species had greater plastic responses in growth ratio, above and below ground biomass and SLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do densities of individual naturally regenerating tree species differ by gap size are these results tied to a species' shade toleranc ranking, do growth rates of shade tolerant and shade intolerant species vary by gap size and gap position, is the best location for germination and early establishment also the best for growth. if gap partioning is occuring is regeneration niche of gorwth niche most important. </t>
+  </si>
+  <si>
+    <t>natural regeneration was strongly tied to gap position, larger gaps had more seedlings, direct sunlight constrains natural regeneration at high latitudes. Little evidence that gap partioning occurs during regeneration phase of trees. Little differences in plant species in whole plant growth in response to ambient light. small gap sizes caused large mortality with most shade intolerant species having hihest mortality. overall favourable locations for emergence and early establishment are less favoruable for growth and survival for seedlings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does productivity vary in a mixture of stands and to determine if increased productivity (yield) is associated with competitive reduction through separation or increased spatial ranomness. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemlock and redcedar may have positive plant interactions due to being able to uptake different forms of nitrogen. These benefits were offset by competition for growing space when stands were dense. Hemlock is more productive alone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to evaluate the insect and disease risk factors to successfully gorwing spruce plantations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two species were found to be present in most stands, detection of pests is poor in immature stands. Stands older than 35 are expected to have effects due to pests. </t>
+  </si>
+  <si>
+    <t>compare biomass of roots across different soil types, changing material within bags, to determine if seasonal dynamic were correlated with biotic and abiotic site factors such as soil temp, moisture and litter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass didn’t change with site type, materials in bag had a significant effect on biomass, site quality had an effect of root biomass and NPP, biotic and abiotic factors shown be not very informative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain both quantitative and qualitative information of sitka spruce dominated plant communities. Interpret vegeation environmental relationships. </t>
+  </si>
+  <si>
+    <t>ocean spray, soil moisture and soil chemistry can be used to differ forest sites from each other</t>
+  </si>
+  <si>
+    <t>disturbance types influences overstory tree structure and composition, disturbance types influences understory tree structure and composition. If rates of revegetation and early plant successional patters will differ with disturbance type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturbance types was important in determining snag dynamics, CWD dynamics, species richness and species composition for overstory but undersoty diversity was the exception. Clearcut sites exhibited more rapid succesion than fire sites. Vegetation type were similar based on disturbance type. </t>
   </si>
 </sst>
 </file>
@@ -2243,13 +2312,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2280,8 +2349,11 @@
       <c r="J1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -2307,7 +2379,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -2333,7 +2405,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>479</v>
       </c>
@@ -2359,7 +2431,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>462</v>
       </c>
@@ -2385,7 +2457,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2417,7 +2489,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2515,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>525</v>
       </c>
@@ -2469,7 +2541,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>356</v>
       </c>
@@ -2495,7 +2567,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -2521,7 +2593,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>365</v>
       </c>
@@ -2550,7 +2622,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>536</v>
       </c>
@@ -2576,7 +2648,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -2605,7 +2677,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>298</v>
       </c>
@@ -2631,7 +2703,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>502</v>
       </c>
@@ -2651,7 +2723,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>293</v>
       </c>
@@ -3112,6 +3184,12 @@
       <c r="F32" t="s">
         <v>290</v>
       </c>
+      <c r="I32" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -3138,10 +3216,10 @@
         <v>372</v>
       </c>
       <c r="B34" t="s">
-        <v>373</v>
+        <v>602</v>
       </c>
       <c r="C34" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>1971</v>
@@ -3151,6 +3229,12 @@
       </c>
       <c r="F34" t="s">
         <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>603</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3172,6 +3256,12 @@
       <c r="F35" t="s">
         <v>18</v>
       </c>
+      <c r="I35" t="s">
+        <v>606</v>
+      </c>
+      <c r="J35" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -3192,6 +3282,15 @@
       <c r="F36" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="I36" t="s">
+        <v>608</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K36" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
@@ -3212,6 +3311,12 @@
       <c r="F37" t="s">
         <v>145</v>
       </c>
+      <c r="I37" t="s">
+        <v>611</v>
+      </c>
+      <c r="J37" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
@@ -3232,6 +3337,12 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
+      <c r="I38" t="s">
+        <v>613</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="N38" t="s">
         <v>157</v>
       </c>
@@ -3261,6 +3372,12 @@
       <c r="H39" t="s">
         <v>337</v>
       </c>
+      <c r="I39" t="s">
+        <v>615</v>
+      </c>
+      <c r="J39" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -3281,6 +3398,12 @@
       <c r="F40" t="s">
         <v>12</v>
       </c>
+      <c r="I40" t="s">
+        <v>617</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
@@ -3301,6 +3424,12 @@
       <c r="F41" t="s">
         <v>251</v>
       </c>
+      <c r="I41" t="s">
+        <v>619</v>
+      </c>
+      <c r="J41" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
@@ -3323,6 +3452,12 @@
       </c>
       <c r="G42" t="s">
         <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>621</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:14">

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF9C7D-5138-294F-8EE3-F89FE017AC37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A7016-25E5-2C4C-AB18-F59E7179CA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7660" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="560" yWindow="9140" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="638">
   <si>
     <t>Title</t>
   </si>
@@ -332,9 +332,6 @@
     <t>Curran</t>
   </si>
   <si>
-    <t>South coastal BC</t>
-  </si>
-  <si>
     <t>Douglas fir, western red cedar and western hemlock</t>
   </si>
   <si>
@@ -632,9 +629,6 @@
     <t>The influence of red alder in adjacent conifer stands : nutrient cycling and light transmission</t>
   </si>
   <si>
-    <t>Lavery,</t>
-  </si>
-  <si>
     <t>Red alder, Douglas fir and Grand fir</t>
   </si>
   <si>
@@ -1905,6 +1899,57 @@
   </si>
   <si>
     <t xml:space="preserve">disturbance types was important in determining snag dynamics, CWD dynamics, species richness and species composition for overstory but undersoty diversity was the exception. Clearcut sites exhibited more rapid succesion than fire sites. Vegetation type were similar based on disturbance type. </t>
+  </si>
+  <si>
+    <t>Lavery</t>
+  </si>
+  <si>
+    <t>To investigate the relationship between red alder growth with ecological site quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red alder has properties such as resistance to root pathogens, N-fixation and ability to increase organic matter. Best zones for its growth are CWHxm, dm and vm based on temperature and climatic moisture regimes, red alder causes PH in soil to be acidic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How ground beetle assemblages vary with forest successional stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logging increases species diversity and richness of carabid beetles especially by opportunistic species that are early colonizers, some species in old gorwth forest are lost when habitats are cut but some species can recover once a canopy is re-established. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">observe any general trends in tree growth or nutrient response to fire impact across five BEC subzones </t>
+  </si>
+  <si>
+    <t>Douglas fir is positively affected by slashburning but western hemlock and western redcedar show oppositive trends. This has to do with foliar nutrients such as B, Ca, K, Mg, Fe and S. longterm effects are different to short term effects, organic matter levels falls during a burning then recovers by 30 years after the event. Nitrogen may be more available in forest soils postburn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand the successional role of western red cedar through regenerational differences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western redcedar has life history characteristics that enable it to coexists with hemlock and fir species. Small scale disturbances and gap dynamics allow western redcedar to be dominant in the forests. Disturbed substrates allow western redcedar to regenerate well. Thuja had high mortality during gemination and establishment but low mortality during the sapling and canopy tree stages of its life cycle differentiate it from fir and hemlock. redcedar requires exploitation of small scale heterogeneity. </t>
+  </si>
+  <si>
+    <t>Understand how disturbance affects the assart effect see page 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">found assart effect on cutovers, regeneration was altered by disturbance most likely due to N flush. Most trees were lacks S after disturbance. Harvesting altered forest air and forest floor temperatures. </t>
+  </si>
+  <si>
+    <t>estimate the extend of genetic control over germination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">south populations of silver fir germinate more than north populations </t>
+  </si>
+  <si>
+    <t>Western redcedar requires lots of percipitation and soil moisture. Fertile soils are also important as well as soil depth, rooting depth</t>
+  </si>
+  <si>
+    <t>how does burning affect soil mineralizable nitrogen on a hardwood and conifer site and how does other soil variable relate to these changes in mineralizable nitrogen</t>
+  </si>
+  <si>
+    <t>Burning altered nitrogen availability with increased nitrogen being available post fire and long term averages showed decreases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results aren't useful </t>
   </si>
 </sst>
 </file>
@@ -2310,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2344,21 +2389,21 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -2367,24 +2412,24 @@
         <v>2001</v>
       </c>
       <c r="E2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -2396,21 +2441,21 @@
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -2419,24 +2464,24 @@
         <v>1996</v>
       </c>
       <c r="E4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -2445,16 +2490,16 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2483,10 +2528,10 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2509,44 +2554,44 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8">
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2558,21 +2603,21 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -2581,24 +2626,24 @@
         <v>2003</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -2610,24 +2655,24 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -2639,21 +2684,21 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
         <v>128</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2662,7 +2707,7 @@
         <v>2010</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -2671,21 +2716,21 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D14">
         <v>1999</v>
@@ -2694,21 +2739,21 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -2717,21 +2762,21 @@
         <v>1964</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16">
         <v>1978</v>
@@ -2740,24 +2785,24 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -2772,18 +2817,18 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="C18" t="s">
         <v>70</v>
@@ -2798,10 +2843,10 @@
         <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2824,18 +2869,18 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -2847,21 +2892,21 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I20" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -2870,26 +2915,26 @@
         <v>2013</v>
       </c>
       <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
         <v>116</v>
-      </c>
-      <c r="F21" t="s">
-        <v>117</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
         <v>184</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
       </c>
       <c r="C22" t="s">
         <v>89</v>
@@ -2898,30 +2943,30 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
         <v>186</v>
-      </c>
-      <c r="F22" t="s">
-        <v>187</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" t="s">
-        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
@@ -2939,10 +2984,10 @@
         <v>13</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2971,18 +3016,18 @@
         <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -2994,21 +3039,21 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I25" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
         <v>66</v>
@@ -3020,21 +3065,21 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -3043,30 +3088,30 @@
         <v>1997</v>
       </c>
       <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
         <v>154</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -3075,24 +3120,24 @@
         <v>1994</v>
       </c>
       <c r="E28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -3101,24 +3146,24 @@
         <v>2010</v>
       </c>
       <c r="E29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -3133,47 +3178,47 @@
         <v>12</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31">
         <v>1994</v>
       </c>
       <c r="E31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D32">
         <v>1995</v>
@@ -3182,21 +3227,21 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
         <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
@@ -3205,18 +3250,18 @@
         <v>1991</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -3225,24 +3270,24 @@
         <v>1971</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="I34" t="s">
+        <v>601</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -3257,21 +3302,21 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D36" s="5">
         <v>1997</v>
@@ -3280,24 +3325,24 @@
         <v>61</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
+        <v>606</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="K36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
         <v>143</v>
-      </c>
-      <c r="B37" t="s">
-        <v>144</v>
       </c>
       <c r="C37" t="s">
         <v>89</v>
@@ -3306,24 +3351,24 @@
         <v>1998</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I37" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
         <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>135</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -3332,27 +3377,27 @@
         <v>2001</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -3361,30 +3406,30 @@
         <v>1985</v>
       </c>
       <c r="E39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I39" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J39" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B40" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
@@ -3399,18 +3444,18 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -3422,53 +3467,53 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I41" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J41" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B42" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D42">
         <v>2008</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F42" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="I42" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>1992</v>
@@ -3477,15 +3522,21 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="I43" t="s">
+        <v>622</v>
+      </c>
+      <c r="J43" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -3497,722 +3548,763 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>361</v>
+        <v>359</v>
+      </c>
+      <c r="I44" t="s">
+        <v>624</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45">
         <v>1994</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
+        <v>491</v>
+      </c>
+      <c r="F45" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="5"/>
+      <c r="I45" t="s">
+        <v>626</v>
+      </c>
+      <c r="J45" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="1" t="s">
-        <v>96</v>
+      <c r="A46" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>1994</v>
       </c>
       <c r="E46" t="s">
-        <v>493</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
       </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>628</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D47">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="s">
-        <v>31</v>
+      <c r="I47" t="s">
+        <v>630</v>
+      </c>
+      <c r="J47" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="2" t="s">
-        <v>401</v>
+      <c r="A48" t="s">
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I48" t="s">
+        <v>632</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E49" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="I49" t="s">
+        <v>572</v>
+      </c>
+      <c r="J49" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>520</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>521</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>522</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>522</v>
-      </c>
-      <c r="B51" t="s">
-        <v>523</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51">
-        <v>1989</v>
-      </c>
-      <c r="E51" t="s">
-        <v>524</v>
-      </c>
-      <c r="F51" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>388</v>
+      </c>
+      <c r="I50" t="s">
+        <v>635</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="4" customFormat="1">
+      <c r="A51" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1997</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>447</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E52" t="s">
-        <v>450</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D53">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
         <v>227</v>
       </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B54" t="s">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
       </c>
       <c r="D54">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>375</v>
       </c>
       <c r="F54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>376</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E55" t="s">
-        <v>377</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D56">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" t="s">
+        <v>515</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57">
+        <v>2013</v>
+      </c>
+      <c r="E57" t="s">
+        <v>516</v>
+      </c>
+      <c r="F57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>2015</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>2012</v>
+      </c>
+      <c r="E59" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60">
+        <v>2011</v>
+      </c>
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>1997</v>
+      </c>
+      <c r="E61" t="s">
+        <v>321</v>
+      </c>
+      <c r="F61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>531</v>
+      </c>
+      <c r="B62" t="s">
+        <v>532</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>1976</v>
+      </c>
+      <c r="E62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>2009</v>
+      </c>
+      <c r="E63" t="s">
+        <v>398</v>
+      </c>
+      <c r="F63" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>307</v>
-      </c>
-      <c r="B57" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57">
-        <v>1985</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>516</v>
-      </c>
-      <c r="B58" t="s">
-        <v>517</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>1960</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D58">
-        <v>2013</v>
-      </c>
-      <c r="E58" t="s">
-        <v>518</v>
-      </c>
-      <c r="F58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59">
-        <v>2015</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="s">
-        <v>346</v>
-      </c>
-      <c r="B60" t="s">
-        <v>347</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60">
-        <v>2012</v>
-      </c>
-      <c r="E60" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>362</v>
-      </c>
-      <c r="B61" t="s">
-        <v>363</v>
-      </c>
-      <c r="C61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61">
-        <v>2011</v>
-      </c>
-      <c r="E61" t="s">
-        <v>253</v>
-      </c>
-      <c r="F61" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="s">
-        <v>324</v>
-      </c>
-      <c r="B62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62">
-        <v>1997</v>
-      </c>
-      <c r="E62" t="s">
-        <v>323</v>
-      </c>
-      <c r="F62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>533</v>
-      </c>
-      <c r="B63" t="s">
-        <v>534</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63">
-        <v>1976</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D65" s="5">
+        <v>1965</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F63" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>398</v>
-      </c>
-      <c r="B64" t="s">
-        <v>399</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64">
-        <v>2009</v>
-      </c>
-      <c r="E64" t="s">
-        <v>400</v>
-      </c>
-      <c r="F64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>1960</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="F65" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="5">
-        <v>1965</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>2004</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17">
+      <c r="A67" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B67" t="s">
+        <v>409</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>2000</v>
+      </c>
+      <c r="E67" t="s">
+        <v>410</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68">
+        <v>1993</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69">
+        <v>1969</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>2004</v>
-      </c>
-      <c r="E67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="17">
-      <c r="A68" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B68" t="s">
-        <v>411</v>
-      </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68">
-        <v>2000</v>
-      </c>
-      <c r="E68" t="s">
-        <v>412</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G68" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70">
+        <v>1998</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" t="s">
+        <v>503</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>1997</v>
+      </c>
+      <c r="E71" t="s">
+        <v>504</v>
+      </c>
+      <c r="F71" t="s">
+        <v>505</v>
+      </c>
+      <c r="G71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="17">
-      <c r="A69" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B69" t="s">
-        <v>411</v>
-      </c>
-      <c r="C69" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69">
-        <v>2000</v>
-      </c>
-      <c r="E69" t="s">
-        <v>412</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H71" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B72" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72">
+        <v>2001</v>
+      </c>
+      <c r="E72" t="s">
+        <v>508</v>
+      </c>
+      <c r="F72" t="s">
+        <v>509</v>
+      </c>
+      <c r="G72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B70" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70">
-        <v>1993</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71">
-        <v>1969</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>278</v>
-      </c>
-      <c r="B72" t="s">
-        <v>279</v>
-      </c>
-      <c r="C72" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72">
-        <v>1998</v>
-      </c>
-      <c r="E72" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" t="s">
-        <v>62</v>
+      <c r="H72" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>504</v>
+      <c r="A73" t="s">
+        <v>463</v>
       </c>
       <c r="B73" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>1997</v>
+        <v>1971</v>
       </c>
       <c r="E73" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>508</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>509</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>505</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
       </c>
       <c r="D74">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E74" t="s">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>511</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
-      <c r="H74" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>465</v>
+        <v>319</v>
       </c>
       <c r="B75" t="s">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D75">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="E75" t="s">
-        <v>467</v>
+        <v>274</v>
       </c>
       <c r="F75" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>230</v>
+      <c r="A76" t="s">
+        <v>336</v>
       </c>
       <c r="B76" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D77">
-        <v>1961</v>
+        <v>1989</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -4220,1586 +4312,1586 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>621</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E78" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="C79" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>1989</v>
+        <v>2003</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>536</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>537</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D80">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>539</v>
       </c>
       <c r="F80" t="s">
-        <v>199</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>433</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="D81">
-        <v>2003</v>
+        <v>1967</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="F81" t="s">
-        <v>435</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>538</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
-        <v>539</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D82">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="E82" t="s">
-        <v>541</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s">
-        <v>540</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>252</v>
+      <c r="A83" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="D83">
-        <v>1967</v>
+        <v>1989</v>
       </c>
       <c r="E83" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>417</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>87</v>
+      <c r="A85" t="s">
+        <v>325</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="D86">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E86" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="F86" t="s">
-        <v>421</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="D87">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="D88">
-        <v>2013</v>
+        <v>1986</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D89">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>284</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>35</v>
+      <c r="A90" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D90">
-        <v>1986</v>
+        <v>2015</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>234</v>
+      </c>
+      <c r="G90" t="s">
+        <v>235</v>
+      </c>
+      <c r="H90" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>192</v>
+      <c r="A91" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="D91">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
         <v>66</v>
       </c>
       <c r="D92">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="E92" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
-      </c>
-      <c r="H92" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>119</v>
+      <c r="A93" t="s">
+        <v>414</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D93">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
-      </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3"/>
+        <v>416</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D94">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="E94" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>416</v>
+      <c r="A95" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>417</v>
+        <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>418</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="1" t="s">
-        <v>111</v>
+      <c r="A96" t="s">
+        <v>511</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>512</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>2000</v>
+        <v>2013</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>114</v>
-      </c>
-      <c r="G96" t="s">
-        <v>13</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>108</v>
+      <c r="A97" t="s">
+        <v>489</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>490</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D97">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="3"/>
+        <v>330</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D98">
-        <v>2013</v>
+        <v>1993</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>515</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="B99" t="s">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D99">
-        <v>1988</v>
+        <v>1957</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>170</v>
+      <c r="A100" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D100">
-        <v>1993</v>
+        <v>1976</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>171</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="C101" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>1957</v>
+        <v>2020</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>472</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>238</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D102">
-        <v>1976</v>
+        <v>1984</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="3"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>472</v>
+        <v>50</v>
       </c>
       <c r="B103" t="s">
-        <v>473</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D103">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="1" t="s">
-        <v>239</v>
+      <c r="A104" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B104" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D104">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="F104" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="G104" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17">
+      <c r="A105" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D105">
-        <v>1991</v>
+        <v>1954</v>
       </c>
       <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>270</v>
+      </c>
+      <c r="G105" t="s">
+        <v>235</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106">
+        <v>1992</v>
+      </c>
+      <c r="E106" t="s">
         <v>17</v>
       </c>
-      <c r="F105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" t="s">
-        <v>256</v>
-      </c>
-      <c r="C106" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106">
-        <v>1999</v>
-      </c>
-      <c r="E106" t="s">
-        <v>257</v>
-      </c>
-      <c r="F106" t="s">
-        <v>258</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="17">
-      <c r="A107" s="1" t="s">
-        <v>269</v>
+      <c r="F106" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>420</v>
       </c>
       <c r="B107" t="s">
-        <v>270</v>
+        <v>422</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>423</v>
       </c>
       <c r="D107">
-        <v>1954</v>
+        <v>2012</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="F107" t="s">
-        <v>272</v>
-      </c>
-      <c r="G107" t="s">
-        <v>237</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D108">
-        <v>1992</v>
+        <v>1959</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>264</v>
+      <c r="F108" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>422</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>424</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>425</v>
+        <v>47</v>
       </c>
       <c r="D109">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="E109" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>332</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>436</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
-        <v>437</v>
+        <v>315</v>
       </c>
       <c r="C110" t="s">
-        <v>66</v>
+        <v>316</v>
       </c>
       <c r="D110">
-        <v>1959</v>
+        <v>2012</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>529</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>530</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D111">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="F111" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>316</v>
+      <c r="A112" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="B112" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="D112">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="F112" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B113" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>430</v>
       </c>
       <c r="D113">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E113" t="s">
-        <v>276</v>
+        <v>466</v>
       </c>
       <c r="F113" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>494</v>
+      </c>
+      <c r="B114" t="s">
+        <v>495</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114">
+        <v>9172</v>
+      </c>
+      <c r="E114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115">
+        <v>2018</v>
+      </c>
+      <c r="E115" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B114" t="s">
-        <v>292</v>
-      </c>
-      <c r="C114" t="s">
-        <v>138</v>
-      </c>
-      <c r="D114">
-        <v>1999</v>
-      </c>
-      <c r="E114" t="s">
-        <v>162</v>
-      </c>
-      <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
-        <v>528</v>
-      </c>
-      <c r="B115" t="s">
-        <v>529</v>
-      </c>
-      <c r="C115" t="s">
-        <v>432</v>
-      </c>
-      <c r="D115">
-        <v>1982</v>
-      </c>
-      <c r="E115" t="s">
-        <v>468</v>
-      </c>
-      <c r="F115" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>496</v>
+        <v>342</v>
       </c>
       <c r="B116" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D116">
-        <v>9172</v>
+        <v>1955</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
+        <v>251</v>
       </c>
       <c r="F116" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="1" t="s">
-        <v>136</v>
+      <c r="A117" t="s">
+        <v>307</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D117">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="E117" t="s">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D118">
-        <v>1955</v>
+        <v>2002</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="F118" t="s">
-        <v>340</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
       </c>
       <c r="D119">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="E119" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>312</v>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D120">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="E120" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="F120" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>329</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D121">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>444</v>
+        <v>147</v>
       </c>
       <c r="B122" t="s">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="D122">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="E122" t="s">
-        <v>446</v>
+        <v>150</v>
       </c>
       <c r="F122" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>330</v>
+        <v>517</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>518</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D123">
-        <v>2017</v>
+        <v>1999</v>
       </c>
       <c r="E123" t="s">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>332</v>
+        <v>519</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" t="s">
-        <v>148</v>
+      <c r="A124" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D124">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>519</v>
+        <v>200</v>
       </c>
       <c r="B125" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="D125">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>521</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>82</v>
+      <c r="A126" t="s">
+        <v>401</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D126">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="E126" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="4"/>
+        <v>403</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>386</v>
       </c>
       <c r="C127" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="D127">
-        <v>1949</v>
+        <v>1999</v>
       </c>
       <c r="E127" t="s">
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="F127" t="s">
-        <v>205</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>404</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D128">
-        <v>1990</v>
+        <v>1959</v>
       </c>
       <c r="E128" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>405</v>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D129">
-        <v>1999</v>
+        <v>2007</v>
       </c>
       <c r="E129" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>390</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D130">
-        <v>1959</v>
+        <v>2006</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D131">
-        <v>2007</v>
+        <v>1977</v>
       </c>
       <c r="E131" t="s">
-        <v>17</v>
+        <v>274</v>
       </c>
       <c r="F131" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="B132" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="D132">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E132" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="F132" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="C133" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>1977</v>
+        <v>1961</v>
       </c>
       <c r="E133" t="s">
-        <v>276</v>
+        <v>56</v>
       </c>
       <c r="F133" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="D134">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E134" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="F134" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D135">
-        <v>1961</v>
+        <v>1983</v>
       </c>
       <c r="E135" t="s">
-        <v>56</v>
-      </c>
-      <c r="F135" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>426</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>427</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D136">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E136" t="s">
-        <v>429</v>
+        <v>214</v>
       </c>
       <c r="F136" t="s">
-        <v>428</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>394</v>
       </c>
       <c r="C137" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D137">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="E137" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>139</v>
+        <v>392</v>
+      </c>
+      <c r="F137" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>214</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="D138">
-        <v>1998</v>
+        <v>1963</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="F138" t="s">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" t="s">
-        <v>395</v>
+      <c r="A139" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D139">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="E139" t="s">
-        <v>394</v>
+        <v>61</v>
       </c>
       <c r="F139" t="s">
-        <v>397</v>
+        <v>62</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B140" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="D140">
-        <v>1963</v>
+        <v>1987</v>
       </c>
       <c r="E140" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
-        <v>58</v>
+      <c r="A141" t="s">
+        <v>284</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D141">
-        <v>2016</v>
+        <v>1980</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F141" t="s">
-        <v>62</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="B142" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="D142">
-        <v>1987</v>
+        <v>1963</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="F142" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>286</v>
+        <v>481</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>482</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="D143">
-        <v>1980</v>
+        <v>2006</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>484</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>430</v>
+      <c r="A144" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B144" t="s">
-        <v>431</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>432</v>
+        <v>124</v>
       </c>
       <c r="D144">
-        <v>1963</v>
+        <v>1997</v>
       </c>
       <c r="E144" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="B145" t="s">
-        <v>484</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
       <c r="D145">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="E145" t="s">
-        <v>486</v>
+        <v>381</v>
       </c>
       <c r="F145" t="s">
-        <v>485</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="1" t="s">
-        <v>123</v>
+      <c r="A146" t="s">
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="D146">
+        <v>1980</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>1991</v>
+      </c>
+      <c r="E147" t="s">
+        <v>84</v>
+      </c>
+      <c r="F147" t="s">
+        <v>206</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
         <v>1997</v>
       </c>
-      <c r="E146" t="s">
-        <v>126</v>
-      </c>
-      <c r="F146" t="s">
-        <v>127</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="E148" t="s">
+        <v>92</v>
+      </c>
+      <c r="F148" t="s">
+        <v>234</v>
+      </c>
+      <c r="G148" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
-      <c r="A147" t="s">
-        <v>380</v>
-      </c>
-      <c r="B147" t="s">
-        <v>381</v>
-      </c>
-      <c r="C147" t="s">
-        <v>125</v>
-      </c>
-      <c r="D147">
-        <v>2001</v>
-      </c>
-      <c r="E147" t="s">
-        <v>383</v>
-      </c>
-      <c r="F147" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" t="s">
-        <v>201</v>
-      </c>
-      <c r="C148" t="s">
-        <v>47</v>
-      </c>
-      <c r="D148">
-        <v>1980</v>
-      </c>
-      <c r="E148" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="2" t="s">
-        <v>206</v>
+      <c r="A149" t="s">
+        <v>341</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D149">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="E149" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
-      <c r="H149" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="1" t="s">
-        <v>296</v>
+      <c r="A150" t="s">
+        <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D150">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="E150" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="F150" t="s">
-        <v>236</v>
-      </c>
-      <c r="G150" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D151">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="E151" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="F151" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>260</v>
+        <v>454</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>455</v>
       </c>
       <c r="C152" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D152">
-        <v>1992</v>
+        <v>2010</v>
       </c>
       <c r="E152" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F152" t="s">
-        <v>62</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D153">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="E153" t="s">
         <v>17</v>
@@ -5810,177 +5902,137 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B154" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C154" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D154">
-        <v>2010</v>
+        <v>1978</v>
       </c>
       <c r="E154" t="s">
-        <v>253</v>
+        <v>466</v>
       </c>
       <c r="F154" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>368</v>
+        <v>64</v>
       </c>
       <c r="B155" t="s">
-        <v>369</v>
+        <v>65</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D155">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E155" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F155" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>469</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
-        <v>470</v>
+        <v>244</v>
       </c>
       <c r="C156" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156">
+        <v>2009</v>
+      </c>
+      <c r="E156" t="s">
+        <v>245</v>
+      </c>
+      <c r="F156" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157">
+        <v>1998</v>
+      </c>
+      <c r="E157" t="s">
+        <v>220</v>
+      </c>
+      <c r="F157" t="s">
+        <v>221</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" t="s">
         <v>10</v>
       </c>
-      <c r="D156">
-        <v>1978</v>
-      </c>
-      <c r="E156" t="s">
-        <v>468</v>
-      </c>
-      <c r="F156" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>64</v>
-      </c>
-      <c r="B157" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" t="s">
-        <v>66</v>
-      </c>
-      <c r="D157">
-        <v>1996</v>
-      </c>
-      <c r="E157" t="s">
-        <v>63</v>
-      </c>
-      <c r="F157" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>245</v>
-      </c>
-      <c r="B158" t="s">
-        <v>246</v>
-      </c>
-      <c r="C158" t="s">
-        <v>194</v>
-      </c>
       <c r="D158">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="E158" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F158" t="s">
-        <v>248</v>
+        <v>126</v>
+      </c>
+      <c r="G158" t="s">
+        <v>235</v>
+      </c>
+      <c r="H158" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="1" t="s">
-        <v>220</v>
+      <c r="A159" t="s">
+        <v>130</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="C159" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D159">
-        <v>1998</v>
+        <v>2015</v>
       </c>
       <c r="E159" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="F159" t="s">
-        <v>223</v>
-      </c>
-      <c r="G159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B160" t="s">
-        <v>221</v>
-      </c>
-      <c r="C160" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160">
-        <v>1997</v>
-      </c>
-      <c r="E160" t="s">
-        <v>243</v>
-      </c>
-      <c r="F160" t="s">
-        <v>127</v>
-      </c>
-      <c r="G160" t="s">
-        <v>237</v>
-      </c>
-      <c r="H160" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="s">
-        <v>131</v>
-      </c>
-      <c r="B161" t="s">
-        <v>132</v>
-      </c>
-      <c r="C161" t="s">
-        <v>34</v>
-      </c>
-      <c r="D161">
-        <v>2015</v>
-      </c>
-      <c r="E161" t="s">
-        <v>116</v>
-      </c>
-      <c r="F161" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H161" xr:uid="{C4661730-15EF-D74B-AA2D-D46848E18CF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H161">
-      <sortCondition ref="B1:B161"/>
+  <autoFilter ref="A1:H159" xr:uid="{C4661730-15EF-D74B-AA2D-D46848E18CF6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
+      <sortCondition ref="B1:B159"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90A7016-25E5-2C4C-AB18-F59E7179CA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6123C4-742F-D844-8E94-2C1DF9FFBB80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="9140" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="655">
   <si>
     <t>Title</t>
   </si>
@@ -1950,6 +1950,57 @@
   </si>
   <si>
     <t xml:space="preserve">results aren't useful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To analyse the effects of cambial ageing, intial spacing, stem taper and growth rate on the development of specific wood properties important to wood quality. To examine juvenile wood devlopment within second-growth stands established over a range of initial spcaing intervals. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas fir demonstrated the lowest overall shade tolerance and the fastest rate for crown recession. Western hemlock more shade tolerant and easier to manage tan douglas fir. Western redcedar showed the most potential for management and was the least shade tolerant species. </t>
+  </si>
+  <si>
+    <t>Soil water content determined seedling survival however frost damage and winter desiccation may also contribute to seedling mortality over subsequent years. Differences in soil water depletion likely reflected differences in microclimate and vegetation . increasing soil water treatment led to increase in seedling survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To develop predcitve models for the number of years to reach breast height (YTBH) for both top height and average height trees. To develop predictive models for juvenile height yield above breast height (1.3) for both top height and avergae height trees. to use site and stand attributes as predictors to explain variability in observed heights </t>
+  </si>
+  <si>
+    <t>The best ad hoc models used functions of site index; however, the parameter prediction approach produced models with equal or better fit to the best ad hoc models, including those using site index alone. Few consistent trends in model form were observed for both years to breast height and height yield, and many models were not biologically tenable and should not be applied operationally. Because all combinations of independent variables were not equally sampled, the data may have not been sufficient to capture trends or variables may be acting as analogues for other causal factors. Regardless, the measured variables were useful predictors of juvenile height, even with small data sets. This promising result demonstrated the validity of the approach and the potential for precise height models not based on site index.</t>
+  </si>
+  <si>
+    <t>investiagte seedling ecology and dispersal of Garry oaks in BC</t>
+  </si>
+  <si>
+    <t>Depending on habitat type, predators removed 53-100 % of acorns that were planted on the surface but 10-92 % of acorns buried in ground cover or soil. Predation on buried acorns was extremely high in all habitats with sparse herb, dense shrub, and moderate to high tree cover. Of the acorns that were not predated, &gt; 83 % of buried acorns produced seedlings, but, perhaps because of desiccation, only &lt; 60% of acorns on the surface produced seedlings in most habitats. In most habitats, &gt; 65 % of first-year seedlings survived to their second year. Some habitats that had high seedling emergence had relatively low seedling survival and vice versa. Many seedlings died from desiccation in habitats with thin soil on a south-facing slope. I observed caching of acorns by Steller's Jays to investigate the role of the jays in dispersal of Garry oaks. Steller's Jays cached acorns between a few centimetres to at least 600 m from harvesting locations, and probably transported some acorns more than 1 km.</t>
+  </si>
+  <si>
+    <t>Vegetation and species patterns will be most correlated with macro-climate factors over the entire study area. Parent material factors  will exert the next strongest influence of vegetation and species patterns. Next meso-climate will be most correlated with vegetation and species patterns. Next soil moisture will control vegetation and species patterns. finally decrease precipitation and increasing continentality will reflect biodiversity patterns in vegetation (alpha and beta diversity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro-climate has the strongest influence on vegetation over the whole study area. Variation in soil parent material was ranked second in importance. Pseudotsuga patterns were driven by elevation and soil moisture gradients  as well as large scale fire distributions. Thuja patterns were strongly correlated to soil nutrients and elevation, resistance to wind damage maintain its high dominace. Abies patterns were wealy correlated to elevation and soil moisture gradients. Alpha and beta diversity were found to increase towards the interior of the study area most likely due to moisture deficits, increased frequency and severity of large scale fires and amount of heat available for plant growth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High phosphatase activites will be associated with microsites high in C and N and low in inorganic P, Additions of C and N will stimulate phosphatase activity. High phosphatase microsites will be assoicated with different fungal communities than low phosphatase microsites. High phosphatase microsites will have lower richness of EM fungi than low phosphatase microsites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None helpful results </t>
+  </si>
+  <si>
+    <t>Identify factors and the underlying ecological mechanisms that differentiate CH and HA forests that influence the gorwth and nutrient acquisition of different conifer species. Test growth of conifer species with different fertilizer and scarification treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil from western redcedar caused inhibition of growth of western hemlock seedlings. Community composition of mycorrihizal and saprophytic fungi differed between CH and HA froests. Diversity and richness of EM fungi were similar between AM dminated and CH forests and EM dominated HA forests. Arbuscular mycorrhizal fungi primarily occurred in CH forests and incidence of AM fungi in HA forests was rare. Without mycorrhization, western redcedar did not achieve its full growth potential in nutrient poor clearcuts. small soil transfers from mature western redcedar dominated forests at time of planting improved mycorrhization of western redcedar seedlings in HA clearcut sites which are deficient in AM fungi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fine root length would increase in fertilized treatments. Species diversity and richness of ECM fungi colonizing spurce roots would be lower in fertilized treatments and the reletive ECM fungal abundance would be lower in fertilization treatments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no fertilization effect on fine root length was observed. Diversity was not affected by fertilization and richness was obly marginally affected by annual fertilization. Frequency and abundance of Tylosopra spp declined in response to the annual fertilization treatments. Fertilization only showed a weak effect on ECM fungal structure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent trends in tree growth were driven by environmental changes such as summer temperature, precipitation and factors that increase atmospheric carbon dioxide and nitrogen deposition. Increases in drought-induced tree mortaility offset a significant proportion of historical growth enhancement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lodgepole pine seedlings perform slights better in scalped soils than undisturbed soils. Scalped soils are assumed to have more nutrients available for tree seedlings. Impact of forest floor displacement on soil and tree nutrition is likely temporary and does not negatively affect lodgepole pine productivity. Scalp soils showed higher concentration of nacronutrients (N,P,S and K). </t>
   </si>
 </sst>
 </file>
@@ -2357,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3770,6 +3821,12 @@
       <c r="F52" t="s">
         <v>163</v>
       </c>
+      <c r="I52" t="s">
+        <v>638</v>
+      </c>
+      <c r="J52" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
@@ -3790,6 +3847,12 @@
       <c r="F53" t="s">
         <v>227</v>
       </c>
+      <c r="I53" t="s">
+        <v>572</v>
+      </c>
+      <c r="J53" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
@@ -3816,6 +3879,12 @@
       <c r="H54" t="s">
         <v>377</v>
       </c>
+      <c r="I54" t="s">
+        <v>641</v>
+      </c>
+      <c r="J54" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
@@ -3836,6 +3905,12 @@
       <c r="F55" t="s">
         <v>73</v>
       </c>
+      <c r="I55" t="s">
+        <v>643</v>
+      </c>
+      <c r="J55" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
@@ -3856,25 +3931,37 @@
       <c r="F56" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
+      <c r="I56" t="s">
+        <v>645</v>
+      </c>
+      <c r="J56" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1">
+      <c r="A57" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="4">
         <v>2013</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
         <v>211</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3902,6 +3989,12 @@
       <c r="H58" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I58" t="s">
+        <v>649</v>
+      </c>
+      <c r="J58" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
@@ -3922,6 +4015,12 @@
       <c r="F59" t="s">
         <v>346</v>
       </c>
+      <c r="I59" t="s">
+        <v>651</v>
+      </c>
+      <c r="J59" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
@@ -3942,6 +4041,12 @@
       <c r="F60" t="s">
         <v>362</v>
       </c>
+      <c r="I60" t="s">
+        <v>583</v>
+      </c>
+      <c r="J60" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
@@ -3961,6 +4066,12 @@
       </c>
       <c r="F61" t="s">
         <v>324</v>
+      </c>
+      <c r="I61" t="s">
+        <v>583</v>
+      </c>
+      <c r="J61" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:10">

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6123C4-742F-D844-8E94-2C1DF9FFBB80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777CFA8-AB5F-6F43-9790-E7C17F0EB2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="660" yWindow="3900" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="692">
   <si>
     <t>Title</t>
   </si>
@@ -2001,6 +2001,117 @@
   </si>
   <si>
     <t xml:space="preserve">lodgepole pine seedlings perform slights better in scalped soils than undisturbed soils. Scalped soils are assumed to have more nutrients available for tree seedlings. Impact of forest floor displacement on soil and tree nutrition is likely temporary and does not negatively affect lodgepole pine productivity. Scalp soils showed higher concentration of nacronutrients (N,P,S and K). </t>
+  </si>
+  <si>
+    <t>Describe and inerpret the vegetational composition and structure of logged openings during secondary succession, to evaluate the role of natural tree regeneration in the CWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was found that factors such as the degree of disturbance, spacing of the planted trees, age, and parent material caused changes in structure and species composition within each association and between associations. In addition, site treatment, especially slashburning, affected the species composition by eliminating many of the low growing indicator species normally found in an association that had had no treatment. Slashburning decreased the number of species in the salal - Douglas-fir association the greatest, while in the swordfern - western redcedar association, this reduction was of a lesser extent. The results of the statistical analysis indicate that associations coupled with site treatment are more important in determining the number and species of coniferous trees invading a logged site than the association type. Coniferous trees preferred the salal - Douglas-fir and moss -western hemlock associations that had no treatment or were piled and burned. Douglas-fir, western hemlock, and western redcedar were all decreased in numbers by slashburning. The regeneration of deciduous trees was found to be more strongly controlled by the association type. The swordfern - western redcedar association was the favoured association. All coniferous species preferred a mineral soil seedbed for germination, however, survival was low except for Douglas-fir. Western hemlock preferred a decaying wood substratum and western redcedar was found most often on rapidly decomposing organic matter in moist pockets. </t>
+  </si>
+  <si>
+    <t>Garry oak would be subject to divergent selection thus have high variability in traits throughout its range</t>
+  </si>
+  <si>
+    <t>traits related to growth and emergence of garry oak are positively assoicated with environmental conditions such as summer aridity. Genetic differentiation for most traits was low, suggesting high gene flow</t>
+  </si>
+  <si>
+    <t>NoNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality was strongly correlated with seedling grade and didn't change with site quality. Shoot growth, root growth and growth in diatmeter were all correlated to seedling grade. Root pruning caused mortality in seedlings. Root pruning didn't effect root growth or growth in diatmeter under bark. Size and vigour of seedlings can predict performance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to increase knowledge of fertilizer applications on douglas fir planations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salt concentration in the soil reduced seedling growth. Fertilizer effects should be long lasting. Fertilizer application should be adjusted to the characteristics of the soil. Seedlings need optimum moisture to grow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">post-disturbance successional pathways in the coastal western hemlock zone are tolerance rather than inhibition in character because of non-growing season photosynthesis by mid and late seral evrgreeen tree species. </t>
+  </si>
+  <si>
+    <t>early succession species invaded medium rich sites quickly especially by red alter and black cottonwood. Most other results have to do with photosynthetic rate</t>
+  </si>
+  <si>
+    <t>Is there an immediate nutritional or moisture supply advantage to leaving a legacy of CWD for the survival and growth of trees especially in comparison to non woody humus. Does decaying wood cause acidification of the soil directly beneath and increase the podzolization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWD is not important to seedling survival and tree growth within the wetter south coastal climates of BC, on sites not having moisture deficit or excess. Non-woody humus are important for short term producitivty. CWD does lower the potential for podzolization and acidifcation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HA type has higher nutrient availability because of the physical effect of repeated windthrow, the CH type has lower nutrient availability because of a greater accumulation of organic matter. The different is due to litter quality of the dominant coniferous species and decomposition and nutrient mineralisation </t>
+  </si>
+  <si>
+    <t>Different forests had different rates and patterns of regeneration after a windstorm in 1906. differences of species composition has persisted for some time. Mass of literfall and differences in N cycling in the literfall was lower in the CH type. nutrient resorption by hemlock in CH type was greater than either hemlock or fir in the HA type. rate of decomposition of the litter was slower in the CH type, while hemlock in both CH and HA type decomposed more rapidly than cedar. differences in substrate quality rather than climatic effects. More on pages 132 to 147!</t>
+  </si>
+  <si>
+    <t>Observe S availability on interior lodgepole pine seedlings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no clear results suggesting increased S increased seedling growth/survival </t>
+  </si>
+  <si>
+    <t>The objective of our study was to determine the variation in survival and growth of western larch seedlings in relation to light availability and site conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regardless of site conditions high light levels can maximize the growth of western larch seedlings. </t>
+  </si>
+  <si>
+    <t>he objectives of this study were: (1) to develop baseline information on the mechanisms and the patterns of regeneration across a sequence of forest types; (2) to assess regeneration success with respect to productivity; and (3) to estimate future growth and productivity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regeneration in canopy gaps is not a problem. Although there is a lot of regeneration, the establishment and growth within these gaps is extremely slow. </t>
+  </si>
+  <si>
+    <t>Classify vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't measure any growth/survival differences </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age class distribution of tree stands, patch characteristics throughout ESSF, landscape diversity, fire frequency, stand structure in both post-fire and post harvest stands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant decrease in the amount of snags from naturally disturbed to harvested stands. Snags provide vertical diversity. Disturbance interval has decreased significantly as a result of increased harvesting. Disturbance is occuring more often than in the past. Fire disturbance is quite rare. Landscape diversity increased post harvesting, diversity increased in evenness not higher richness. patch size and variability decreased post harvest </t>
+  </si>
+  <si>
+    <t>Adelges cooleyi, was more frequent on the maginal and open grown trees than on trees growing in the center of the stand. Mortality was lower on the higher populated trees marginal and open and lower parts of the tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine the mating system of whitebark pine, quantify the level and patterns of genertic diversity in whitebark pine. Come up with management strategy. </t>
+  </si>
+  <si>
+    <t>Nearly all populations were observed to have Cronartium ribicola Fisch. (white pine blister rust) infections, mortality of trees of all ages was often present (due to various causes), and regeneration was often sparse or absent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does doliage efficiency change with site quality and does carbon allocation to belowground stand components decrease with increasing site quality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only root mortality was taken into account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the effect of an alder stand on an adjacent douglas fir or conifer stand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red alder can outgrow conifer seedlings and outcompetes them for light, Alder contributes substantial N to the site. Alder alters the chemical properties of a site significantly over time. This can cause increase growth for adjacent conifers and is enhanced if the alder is planted upslope of a conifer stand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To investiage the soil microbial communities in two coniferous forest types that are commone to Vancouver Isalnd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The microbial communities in CH and HA forests floors were shown to be quite similar. Fungal phospholipid fatty acid were more abundant in CH than HA. Arbuscular mycorrhizal were more abundant in CH sites while bacterial hospholipid fatty acid were more abundant in HA forests. microbial biomass decreased in deeper forest floors layers. </t>
+  </si>
+  <si>
+    <t>What is the effect of thinning on growth and yield of paper birch leading stands at the stand and tree level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking paper birch leading stands inceased tand level height and tree level height, diameter and tree level volume over time. </t>
+  </si>
+  <si>
+    <t>Build better models for lodgepole pine and their economic value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratios of lineal feet per acre to cubic volume per acre are used to adjust logging and milling costs for tree size, based on the average cost per cunit which applies to lodgepole pine trees averaging about 11 inches in dbh. In all cases tested, initial spacings of 13.2 ft. x 13.2 ft. give the best net return per acre from plywood and lumber. Production of lumber is next best. Poles and piling are less attractive, under the present assumptions. Production of pulp chips alone would create a loss at present market value. Results are summarized in two comprehensive wood and product value yield tables (Tables 5A and 55). These tables may improve decision-making concerning initial spacing. The revised simulation model also can be used to simulate, in a few minutes, the growth of many other kinds of lodgepole pine stands from age 15 to age 100, or more. Economic consequences of many approaches to managing lodgepole pine can be illustrated now. </t>
   </si>
 </sst>
 </file>
@@ -2408,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4093,6 +4204,12 @@
       <c r="F62" t="s">
         <v>533</v>
       </c>
+      <c r="I62" t="s">
+        <v>655</v>
+      </c>
+      <c r="J62" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
@@ -4113,6 +4230,12 @@
       <c r="F63" t="s">
         <v>73</v>
       </c>
+      <c r="I63" t="s">
+        <v>657</v>
+      </c>
+      <c r="J63" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
@@ -4136,28 +4259,40 @@
       <c r="G64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+      <c r="I64" t="s">
+        <v>659</v>
+      </c>
+      <c r="J64" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1">
+      <c r="A65" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>1965</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -4176,8 +4311,14 @@
       <c r="F66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="17">
+      <c r="I66" t="s">
+        <v>663</v>
+      </c>
+      <c r="J66" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17">
       <c r="A67" s="1" t="s">
         <v>408</v>
       </c>
@@ -4199,8 +4340,14 @@
       <c r="G67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>665</v>
+      </c>
+      <c r="J67" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>263</v>
       </c>
@@ -4226,7 +4373,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -4245,28 +4392,40 @@
       <c r="F69" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
+      <c r="I69" t="s">
+        <v>667</v>
+      </c>
+      <c r="J69" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1">
+      <c r="A70" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="4">
         <v>1998</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>502</v>
       </c>
@@ -4291,8 +4450,14 @@
       <c r="H71" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>671</v>
+      </c>
+      <c r="J71" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>507</v>
       </c>
@@ -4317,28 +4482,40 @@
       <c r="H72" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+      <c r="I72" t="s">
+        <v>673</v>
+      </c>
+      <c r="J72" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1">
+      <c r="A73" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="4">
         <v>1971</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -4360,8 +4537,14 @@
       <c r="G74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>677</v>
+      </c>
+      <c r="J74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>319</v>
       </c>
@@ -4380,8 +4563,14 @@
       <c r="F75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>583</v>
+      </c>
+      <c r="J75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>336</v>
       </c>
@@ -4400,28 +4589,40 @@
       <c r="F76" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
+      <c r="I76" t="s">
+        <v>680</v>
+      </c>
+      <c r="J76" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="4" customFormat="1">
+      <c r="A77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="4">
         <v>1989</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -4440,8 +4641,14 @@
       <c r="F78" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>684</v>
+      </c>
+      <c r="J78" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>431</v>
       </c>
@@ -4460,48 +4667,66 @@
       <c r="F79" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
+      <c r="I79" t="s">
+        <v>686</v>
+      </c>
+      <c r="J79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="4" customFormat="1">
+      <c r="A80" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>2019</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+      <c r="I80" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1">
+      <c r="A81" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>1967</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -4521,7 +4746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -4544,7 +4769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>417</v>
       </c>
@@ -4564,7 +4789,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>325</v>
       </c>
@@ -4584,7 +4809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -4604,7 +4829,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>280</v>
       </c>
@@ -4624,7 +4849,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -4644,7 +4869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -4664,7 +4889,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
         <v>231</v>
       </c>
@@ -4690,7 +4915,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
         <v>118</v>
       </c>
@@ -4714,7 +4939,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
         <v>159</v>
       </c>
@@ -4737,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>414</v>
       </c>
@@ -4757,7 +4982,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
         <v>110</v>
       </c>
@@ -4780,7 +5005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -4804,7 +5029,7 @@
       </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>511</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,15 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9777CFA8-AB5F-6F43-9790-E7C17F0EB2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173082B4-FCA4-6443-A0AA-41AB8F287574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3900" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$159</definedName>
+    <definedName name="datadict_sample_bymsmt">#REF!</definedName>
+    <definedName name="datadict_standtable_bymsmt">#REF!</definedName>
+    <definedName name="header_dict">#REF!</definedName>
+    <definedName name="plots">#REF!</definedName>
+    <definedName name="pspl">#REF!</definedName>
+    <definedName name="sample_bymsmt">#REF!</definedName>
+    <definedName name="sample_msmt_dict">#REF!</definedName>
+    <definedName name="smy_heights">#REF!</definedName>
+    <definedName name="smy_nc">#REF!</definedName>
+    <definedName name="smy_ncs">#REF!</definedName>
+    <definedName name="source_standtable_bymsmt">#REF!</definedName>
+    <definedName name="tree_list">#REF!</definedName>
+    <definedName name="tree_merge">#REF!</definedName>
+    <definedName name="vegcomp_rank1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="721">
   <si>
     <t>Title</t>
   </si>
@@ -2112,13 +2126,100 @@
   </si>
   <si>
     <t xml:space="preserve">Ratios of lineal feet per acre to cubic volume per acre are used to adjust logging and milling costs for tree size, based on the average cost per cunit which applies to lodgepole pine trees averaging about 11 inches in dbh. In all cases tested, initial spacings of 13.2 ft. x 13.2 ft. give the best net return per acre from plywood and lumber. Production of lumber is next best. Poles and piling are less attractive, under the present assumptions. Production of pulp chips alone would create a loss at present market value. Results are summarized in two comprehensive wood and product value yield tables (Tables 5A and 55). These tables may improve decision-making concerning initial spacing. The revised simulation model also can be used to simulate, in a few minutes, the growth of many other kinds of lodgepole pine stands from age 15 to age 100, or more. Economic consequences of many approaches to managing lodgepole pine can be illustrated now. </t>
+  </si>
+  <si>
+    <t>Study the status of regeneration in partially cut stands in the IDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time since disturbance, basal area seperation were the best parameters for predicting height growth. Douglas fir regeneration was negatively correlated with time since disturbance. Density was also correlated with douglas fir regeneration. Neither douglas fir or lodgepole pine regeneration was correlated with seed sources. lodgepole pine and spruce regeneration was neatively correlated with the presence of large douglas fir trees. </t>
+  </si>
+  <si>
+    <t>Pacific silver fir dominates the populations of saplings at Cypress park for both understory and closed canopy areas. Firs have the strongest competitive ability of any other species at this site. Firs are great gap fillers</t>
+  </si>
+  <si>
+    <t>In field trials, site selection, site preparation, seed selection, vegetation control, increasing seeding density, sowing with alternate foods, and sowing with cover crop have been shown to improve seedling establishment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">does ecosystem functioning, specifically tree productivity and foliar nutrient concentration have any effect on EM fungal communities and whether forest age or stand type had greater influence on fungal diversity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fungal species composition was most strongly correlated with foliar N and site type, the regenerating hemlock in CH sites, the old-growth hemlock on CH sites and the mature hemlock on HA sites have distinctive fungal communities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the effects of Pre commerical thinning and fertilization on growth of lodge pole pine trees. </t>
+  </si>
+  <si>
+    <t>breast height (DBH) as well as tree and stand volume were enhanced by fertilization, but not by density level. Non crop trees became abundant, particularly within the heavily thinned stands. Fertilization enhanced herb abundance but decreased herb and shrub diversity, at least temporarily. Plant species richness was unaffected by density levels or fertilization. Structural diversity of the tree layer was greater in the heavily than lightly thinned stands, and overall structural diversity was enhanced by fertilization. Forage yield was enhanced by fertilization, but only within heavily thinned stands. Fertilization also resulted in increased crude protein levels of pinegrass (Calamagrostis rubescens Buckley), an important forage for cattle (Bos taurus L.) for up to six years after the final fertilization. Habitat use by cattle was enhanced by both fertilization and PCT, and this increased use did not appear to have any negative impacts on the native ungulates using these stands. Relative to ungrazed plots, cattle grazing increased both richness and diversity of herbs and shrubs within fertilized stands, whereas grazing decreased shrub richness within unfertilized stands. Results indicated that increased forest and range productivity is possible with treatments of repeated fertilization and, to a lesser extent, PCT. Ecological effects and management implications of these treatments are discussed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fluvial deposits are colonized by a high density of Alnus rubra accompanied by a subcanopy of Picea sitchensis individuals. As Alnus die off after 60-100 years, Picea increasingly dominates the canopy while Tsuga heterophylla regenerate within the understory. The original cohort of Picea dies off after 300-500 years, which allows Tsuga to dominate old growth terrace forests. Picea or Alnus do not tend to regenerate under these dense canopies and without disturbance Tsuga may remain dominant indefinitely. Understory composition was related to landform age, however species distributions at low elevation floodplain sites were also driven by elevation above thalweg and flood frequency. Light availability was also a significant factor in driving community composition. It appears that understory dynamics were linked to overstory succession and geomorphic development processes, which alter environmental conditions at the understory level. That is, species distributions are driven by dynamic environmental filters, which change as a result of biogeomorphic succession. Mature forest patches tended to persist longer than young forests. The landscape composition reflects a balance between episodes of hydrogeomorphic disturbance and periods of successional development. Increased hydrogeomorphic disturbance rates due to climate change have the capacity to alter the landscape composition resulting in diminished mature forest area.</t>
+  </si>
+  <si>
+    <t>Douglas fir seedlins exhibited high degree of drought tolerance. Western hemlock and silver fir were not successfully established because they were not drought tolerant species</t>
+  </si>
+  <si>
+    <t>examined whether temporal patterns in tree ring chronologies within and between three western North American tree species, all growing on zonal (mesic) sites, were consistent across an elevational gradient, and the degree to which ring width variations reflected estimates of past variations in temperature and precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Results indicated that the response to climate was species-dependent, with the strongest response in Douglas-fir and the weakest in hybrid spruce. Finally, a simple computer model was constructed and used to simulate the net primary production for each tree species in relation to recorded climate. Results from this simple modelling exercise explained only a small part of the inter-annual variability of tree-ring growth, but indicated the possibility of successfully simulating the influence of climate on tree growth, provided the submodel is successfully linked to a more complex modelling framework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are the outcomes of competition in mixed Douglas-fir and paper birch plantations and what role do belowground interactions play in mediating this competition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">availability of essential plant resources and level of competition for these resources appeared more important than belowground interactions and MN. After 21 years Douglas-fir were healthy and not suffering with any level of paper birch competition. By contrast the paper birch populations were in decline. below ground interactions facilitated paper birch growth, foliar nutrients of paper birch appeared to suffer. Paper birch has a lower incidence of armillaria root disease in the untrenched than trenched treatment by contrast Douglas-fir infectin responded more to resource availability. Foliar nutrition of Douglas fir appeared to benefit from presence of paper birch which may either be due to decomposition of paper birch litter or nutrient transfer through EM networks. Incidence of armillaria root disease was much lower amoung douglas fir where more paper birch was present. </t>
+  </si>
+  <si>
+    <t>This thesis uses these key approaches to describe the characteristics and stand development patterns of old-growth forests in the moist warm Interior Cedar Hemlock biogeoclimatic subzone of southeastern British Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To assess stand development patterns in old-growth stands, dendroecological techniques were used at six of the old-growth sites. Relative increases in growth were interpreted to reflect releases, while relative declining growth reflected suppression. Small-scale disturbances that create canopy gaps were the dominant disturbance in the old-growth forests studied here and both Tsuga and Thuja, the dominant trees in the study area, were found to rely on gaps for canopy ascension. Over 80% of the Thuja currently in the lower canopy had experienced one or more releases without reaching upper canopy positions. In contrast, almost half of the Tsuga trees currently in lower canopy positions have never released, but 77% of Tsuga trees that are currently in upper canopy positions required one or more release while in the understory to reach their dominant or codominant position. In contrast, 86% of Tsuga trees in lower canopy positions have undergone periods of suppression. These patterns of suppression and release were interpreted to mean that more understory releases are required for both Thuja and Tsuga trees to reach upper canopy positions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe stand structure characteristics of mature forest stands after wildfire and clearcut logging. Compare and contrast the acclimation of seedlings of two conifer species with different light ecologies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">after a coarse-scale disturbance such as fire or clearcutting, most tree species were prioneers while douglas fir did better when fire was the main disturbance while western hemlock did better when disturbance was clearcutting. Douglas fir was more competitive than hemlock and redcedar. Hemlock was important when redcedar was barely present and DOuglas-fir was absent. Douglas fir is a shade intolerant species however this had to do with its inability to regenerate in the understory.  Douglas fir often get replaced by more shade tolerant western redcedar and western hemlock.  forest succesional dynamics were closely realted to disturbance regime as well as life histories of the species. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding  boron, copper and iron to seedlings only increased growth in year two </t>
+  </si>
+  <si>
+    <t>To characterize and compare regeneration presence, height and age distribution of naturally occuring small trees</t>
+  </si>
+  <si>
+    <t>1) Ingress could not be relied upon to regenerate the clearcut within 5-years, whereas advanced regeneration, some of which lacked apical dominance of shoot terminal leaders, appeared to be important. 2) Proportionally more veglings than seedlings reached 5-years of age and 30 cm in height. In the clearcut, proportionally more Tsuga heterophylla than Thuja plicata reached 30 cm in height, and advanced regeneration consisted of proportionally more Tsuga heterophylla than Thuja plicata. 3) Proportionally more small trees occurred on Lignomor, mineral, and moss substrates than on other substrates in both stand types. 4) Microtopographic influence was related to substrate and soil moisture and nutrient regime, and differed between stand types. In the clearcut, increased soil nutrient regime on inclines/mounds positively influenced small tree presence and height growth beyond 30 cm, while increased soil moisture regime on inclines/mounds negatively influenced height growth beyond 30 cm. In the old-growth, proportionally fewer small trees reached 30 cm in height on inclines/mounds, and proportionally fewer reached 5-years of age on wet organic or moss substrates on inclines/mounds. 5) In the old-growth, increased soil nutrient regime negatively influenced small tree presence, and increased soil moisture regime positively influenced survival beyond 5 years. In the clearcut, increased soil nutrient regime negatively influenced small tree height growth beyond 30 cm, yet positively influenced height growth beyond 30 cm on Lignomors; increased soil moisture regime negatively influenced survival beyond 5-years; and increased soil nutrient regime negatively influenced Tsuga heterophylla survival beyond 5-years. 6) Blechnum spicant and Calamagrostis nootkatensis were more extensive in the clearcut, and Blechnum spicant negatively influenced small tree presence. Grass/sedge presence may also limit regeneration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demonstrated that climate has a significant influence on the timing of historic western hemlock looper, as sverity of outbreaks increased, canopy tree mortality and canaopy openness increased as well which could have affected regeneration dynamics. western hemlock looper increases heterogeneity at the llandscape scale. Western looper causes high mortality for hemlock, douglas fir while increasing abundance of redcedar, amabilis fir. </t>
+  </si>
+  <si>
+    <t>plant diversity increased by 38% on plot level and 32% across sites.  I established that the ratio of asterosclereid phytoliths produced in the needles of Douglas-fir (Pseudotsuga menziesii) to the rondel phytoliths produced by most grasses can accurately distinguish between Douglas-fir dominated forests and Garry oak (Quercus garryana) savannah habitats today. I then examined changes in this ratio with depth at seven local sites, finding that infilling by Douglas-fir forest first began at different times, depending on the site. However, some savannah sites have supported grassy vegetation for at least two thousand years. Active management to maintain open conditions will be necessary to preserve rare species that evolved in these conditions. These investigations demonstrate that examining the history of plant communities can reveal surprises and challenge assumptions about how they respond to disturbance. This knowledge can improve ecological theory, and inform management and conservation strategies.</t>
+  </si>
+  <si>
+    <t>nONE</t>
+  </si>
+  <si>
+    <t>The majority of seeds (72%) in the forest samples was found in the forest floor layer. Twenty-one percent of the germinable seeds were found in the 0-5 cm layer of the mineral soil, and 7% were found in the 5-10 cm layer. Fewer germinable seeds were found in samples from drier than from moister vegetation units, regardless of disturbance level. Seed bank samples from high-disturbance sites had the fewest germinable seeds, primarily because the forest floor had been removed. The seed rain was dominated by tree species within the forests, and shrub and herbaceous species on the rights-of-way. The seed rain was greater, and percent germinability was higher, in the second year than in the first. Important species vegetatively invading after, or recovering from, plot scarification, included Gaultheria shallon, Pteridium aquilinum, and Rubus ursinus. Successful seedling establishment was rare: only Alnus rubra, Anaphalis marqaritacea, and Rubus spp. seedlings were observed in significant numbers, but few of these survived to the next year. In order to be successful in managing vegetation to meet transmission line right-of-way (or tree production) goals, more attention must be paid to the biology and reproductive ecology of pest and acceptable/crop species. If the field of vegetation management is to change from a corrective to a preventive focus, this attention, and information,' is crucial.</t>
+  </si>
+  <si>
+    <t>examine spatial and temporal aspects of the variability of foliar nutrients in juvenile black cottonwood, variability of soil nutrients, find relationships between site index, foliar and soil nutrients, understory vegetation and site units.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black cottonwood requires deep, loamy soils with high nutrient status, PH and well oxygenated soil moisture. Soil moisture and nutrients are linked </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in this region soil moisture is most important in explaining site differentiation and forest distribution. Pseudotsuga can be found on moist soils, Tsuga is dominated by Pseudotsuga. Thuja attains maximum vigour on moist to wet relatively nutritive sites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not helpful results as all data is from nurseries </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2170,6 +2271,10 @@
       <color rgb="FF222222"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2188,9 +2293,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2203,9 +2309,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FBC3E7B4-C5B6-9D4C-82A2-CBA98C89782F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2519,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4745,6 +4852,12 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
+      <c r="I82" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
@@ -4768,6 +4881,12 @@
       <c r="G83" t="s">
         <v>13</v>
       </c>
+      <c r="I83" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
@@ -4788,6 +4907,12 @@
       <c r="F84" t="s">
         <v>419</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
@@ -4808,6 +4933,12 @@
       <c r="F85" t="s">
         <v>77</v>
       </c>
+      <c r="I85" t="s">
+        <v>696</v>
+      </c>
+      <c r="J85" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
@@ -4828,6 +4959,12 @@
       <c r="F86" t="s">
         <v>149</v>
       </c>
+      <c r="I86" t="s">
+        <v>698</v>
+      </c>
+      <c r="J86" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
@@ -4848,6 +4985,12 @@
       <c r="F87" t="s">
         <v>282</v>
       </c>
+      <c r="I87" t="s">
+        <v>572</v>
+      </c>
+      <c r="J87" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
@@ -4868,6 +5011,12 @@
       <c r="F88" t="s">
         <v>39</v>
       </c>
+      <c r="I88" t="s">
+        <v>583</v>
+      </c>
+      <c r="J88" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
@@ -4888,6 +5037,12 @@
       <c r="F89" t="s">
         <v>194</v>
       </c>
+      <c r="I89" t="s">
+        <v>702</v>
+      </c>
+      <c r="J89" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
@@ -4914,6 +5069,12 @@
       <c r="H90" t="s">
         <v>236</v>
       </c>
+      <c r="I90" t="s">
+        <v>704</v>
+      </c>
+      <c r="J90" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
@@ -4938,6 +5099,12 @@
         <v>13</v>
       </c>
       <c r="H91" s="3"/>
+      <c r="I91" t="s">
+        <v>706</v>
+      </c>
+      <c r="J91" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
@@ -4961,6 +5128,12 @@
       <c r="G92" t="s">
         <v>13</v>
       </c>
+      <c r="I92" t="s">
+        <v>708</v>
+      </c>
+      <c r="J92" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
@@ -4981,6 +5154,12 @@
       <c r="F93" t="s">
         <v>416</v>
       </c>
+      <c r="I93" t="s">
+        <v>583</v>
+      </c>
+      <c r="J93" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
@@ -5004,6 +5183,12 @@
       <c r="G94" t="s">
         <v>13</v>
       </c>
+      <c r="I94" t="s">
+        <v>711</v>
+      </c>
+      <c r="J94" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
@@ -5028,28 +5213,40 @@
         <v>13</v>
       </c>
       <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
+      <c r="I95" t="s">
+        <v>583</v>
+      </c>
+      <c r="J95" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="4" customFormat="1">
+      <c r="A96" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="4">
         <v>2013</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -5068,8 +5265,14 @@
       <c r="F97" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>715</v>
+      </c>
+      <c r="J97" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -5088,8 +5291,14 @@
       <c r="F98" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>717</v>
+      </c>
+      <c r="J98" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>347</v>
       </c>
@@ -5108,32 +5317,44 @@
       <c r="F99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1" t="s">
+      <c r="I99" t="s">
+        <v>583</v>
+      </c>
+      <c r="J99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="4" customFormat="1">
+      <c r="A100" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="4">
         <v>1976</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>470</v>
       </c>
@@ -5153,7 +5374,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
         <v>237</v>
       </c>
@@ -5176,7 +5397,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>50</v>
       </c>
@@ -5196,7 +5417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
         <v>253</v>
       </c>
@@ -5219,7 +5440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17">
+    <row r="105" spans="1:10" ht="17">
       <c r="A105" s="1" t="s">
         <v>267</v>
       </c>
@@ -5245,7 +5466,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>260</v>
       </c>
@@ -5265,7 +5486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>420</v>
       </c>
@@ -5285,7 +5506,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>434</v>
       </c>
@@ -5305,7 +5526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -5325,7 +5546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>314</v>
       </c>
@@ -5345,7 +5566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>529</v>
       </c>
@@ -5365,7 +5586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
         <v>289</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173082B4-FCA4-6443-A0AA-41AB8F287574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B034F-D1F5-E142-BED9-84690DF1B288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8400" windowWidth="25040" windowHeight="14280" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="260" yWindow="8960" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="742">
   <si>
     <t>Title</t>
   </si>
@@ -2213,6 +2213,69 @@
   </si>
   <si>
     <t xml:space="preserve">Not helpful results as all data is from nurseries </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> These data support the concept that (i) inorganic P availability influences exoenzymatic activity both directly in the soil, and indirectly through feedback from the tree, and (ii) the exoenzymatic activities of these specific fungal communities play a vital role in support of tree growth in these temperate rainforest ecosystems. In order to test for physiological plasticity of exoenzyme activity of these EM fungi, I conducted a greenhouse study. After transplantation into a sand : vermiculite growth medium, 12 colonized Tsuga heterophylla seedlings from P-limited soils on Vancouver Island received either an organic P or an inorganic P treatment. After six months, there were no differences in exoenzyme activity between treatments and, therefore, no evidence for phenotypic plasticity. By better understanding EM P acquisition mechanisms, we can potentially manage site productivity of temperate forests more strategically, which will maintain or even enhance forest revenue and carbon sequestration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe differences in ECM across a Phosphorus gradient </t>
+  </si>
+  <si>
+    <t>to determine the indentity and frequency of root pathogens of spruce stands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease is transferred by root contact between healthy and diseased trees. Only Spruce shows signs of disease, losses rsult from increment reduction, butt decay and windthrow. Upto 20% of losses for mature trees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantify changes in above and below ground biomass and nutrient content of the non-crop vegetation in CH sites varying in age since burning or clear cutting, observe the effects of salal on nutrient flush on CH sites. </t>
+  </si>
+  <si>
+    <t>Western redcedar and western hemlock were the best growing species on CH and HA sites, respectively. Both western hemlock and Sitka spruce (Picea sitchensis) were very responsive to the different site conditions (CH vs HA sites) and to planting treatments that increased or decreased conventional measures of nutrient availability caused by the different treatments, whereas western redcedar was not. The presence of salal was found to have no effect on the total percent mycorrhizae found on the roots of the three conifer species studied three years after planting. Both field and pot experiments yielded comparable results. Slow-release fertilizer, at the time of planting, increased growth only for the first two years after application. Western redcedar growth was significantly greater in depressions than on flats and mounds, but this difference was not related to any major differences in the forest floor variables measured between the three microtopographic positions. These results indicate that the nutritional stress and poor growth reported in conifers, especially in Sitka spruce, on CH cutovers on northern Vancouver Island can be explained by a combination of (1) inherently low forest floor fertility in cutovers originating from the old-growth CH forests, (2) salal competition for scarce nutrients and their immobilization in salal biomass, and (3) declining site fertility caused by the termination of the flush of nutrients that occurs in the immediate post-logging and burning period on CH sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">review factors contributing to windthrow risk in BC, investigate post-thinning growth patterns in trees. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following thinning, height growth was temporarily reduced, radial increments increased. Stem slenderness was reduced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not helpful results as no data on how disease affects growth or mortality </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to detail the differences in soil and stand caharacteristics between CH and HA phases. Determine seasonal trends in phenolic acid concentrations under vigorous salal on regenerating cutovers on CH sites to observe an allelopathic effect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HA forests tend to occur on drier ridgetops with increased risk on windthrow compared to the wetter and lower CH phase. CH sites were found to have a higher proportion of well humified woody and non-woody horizons, reflecting lack of disturbance. CH humus had higher concentrations of K, Ca, Mn, S, lipids and labile and higher Ph most likely due to inputs by redcedar and salal in CH sites. Salal indircelty reduced the germination of sitka spruce and redcedar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop a high level of stand structure and evaluate the system classification for its potential as a tool for identifying and diagnosing potential stand succession pathway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not helpful as succession is based on arbritary classifications of stem densities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To describe the vegetational composition of forest in the intial stages of secondary succession and to study the relevant environmental features of each association </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemical composition of soil is less important than overall soil chemistry on site quality. Patterns of species composition were largely driven by logging. </t>
+  </si>
+  <si>
+    <t>Size development, growth of trees and site occupancy continue to be elevated by fertilization, establishement density has influence on tree size and growth, overstory density and fertilization on salal occupancy of CH sites. Fertilization on stand level changes in foliage biomass porportion, fertilization on foliar or resource use efficiency. Establishment density on biomass allocation to foliage, foliar and resource-use efficiency. Site, species, fertilization and establishment density on size hierarchy</t>
+  </si>
+  <si>
+    <t>On CH sites low N and P and competition from salal limit growth of hemlock more than gorwth of cedar. On HA sites greater nutrients promotes greater growth of both species and hemlock gorws more than cedar. Fertilization resulted in larger trees and greater stand occupancy at both sites. Salal reduced the growth of conifer tree species .</t>
+  </si>
+  <si>
+    <t>How fertilizer affects CH and HA sites</t>
+  </si>
+  <si>
+    <t>Depending on the site fertility and treatment used, the stand volume of fertilized red cedar increased from 123% to 351% and fertilized hemlock volume increased from 106% to 2190% compared to the non-fertilized counterparts. In most cases, higher densities had much greater volume per hectare than lower density stands; however, density caused a significant decrease in the average height of both species at CH sites. Biomass and carbon content were also estimated in this study. Results indicated a positive growth response of total biomass generated by fertilization. CH sites have shown the best increment response to fertilization; however, averages were still low if compared to HA sites. Overall, the best treatments were found to be high density fertilized hemlock stands on HA sites. This treatment not only had the greatest height, volume and biomass, but was also the most efficient for C capture. After 22 growing seasons, the results of this research reinforces the idea that fertilization is a reliable and effective tool to increase nutrient availability and productivity of these forests; it suggests that the focus of silvicultural treatments such as fertilization and increased stand density should be directed mostly towards the more productive HA sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine the response of western hemlock seedlings on humus material from CH sites and to fertilizer treatments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N and P fertilizer treatments were successful in increasing western hemlock growth. </t>
   </si>
 </sst>
 </file>
@@ -2626,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5373,6 +5436,12 @@
       <c r="F101" t="s">
         <v>472</v>
       </c>
+      <c r="I101" t="s">
+        <v>722</v>
+      </c>
+      <c r="J101" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
@@ -5396,6 +5465,12 @@
       <c r="G102" t="s">
         <v>235</v>
       </c>
+      <c r="I102" t="s">
+        <v>723</v>
+      </c>
+      <c r="J102" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
@@ -5416,28 +5491,40 @@
       <c r="F103" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="2" t="s">
+      <c r="I103" t="s">
+        <v>725</v>
+      </c>
+      <c r="J103" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="4" customFormat="1">
+      <c r="A104" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="4">
         <v>1999</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17">
@@ -5465,6 +5552,12 @@
       <c r="H105" s="8" t="s">
         <v>271</v>
       </c>
+      <c r="I105" t="s">
+        <v>583</v>
+      </c>
+      <c r="J105" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
@@ -5485,25 +5578,37 @@
       <c r="F106" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
-      <c r="A107" t="s">
+      <c r="I106" t="s">
+        <v>730</v>
+      </c>
+      <c r="J106" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="4" customFormat="1">
+      <c r="A107" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="4">
         <v>2012</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>330</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5525,6 +5630,12 @@
       <c r="F108" t="s">
         <v>12</v>
       </c>
+      <c r="I108" t="s">
+        <v>734</v>
+      </c>
+      <c r="J108" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
@@ -5545,6 +5656,12 @@
       <c r="F109" t="s">
         <v>164</v>
       </c>
+      <c r="I109" t="s">
+        <v>736</v>
+      </c>
+      <c r="J109" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
@@ -5565,25 +5682,37 @@
       <c r="F110" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="A111" t="s">
+      <c r="I110" t="s">
+        <v>738</v>
+      </c>
+      <c r="J110" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="4" customFormat="1">
+      <c r="A111" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="4">
         <v>1985</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6596,5 +6725,6 @@
     <hyperlink ref="B18" r:id="rId1" display="https://open.library.ubc.ca/search?q=*&amp;creator=Bientjes%2C%20Willem" xr:uid="{8C161014-7DFA-A842-8983-6D7AFEE2CCAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B034F-D1F5-E142-BED9-84690DF1B288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F555C6B-27B7-814F-808D-8A48B21C2096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="8960" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="7180" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="762">
   <si>
     <t>Title</t>
   </si>
@@ -2276,6 +2276,66 @@
   </si>
   <si>
     <t xml:space="preserve">N and P fertilizer treatments were successful in increasing western hemlock growth. </t>
+  </si>
+  <si>
+    <t>to explore relationships between various characteristics of stand structure and several measures of tree and stand grpwth</t>
+  </si>
+  <si>
+    <t>The assessment of the competition indices revealed that the least complicated of the individual tree level indices tended to produce the best performance. The distance dependent indices consistently performed better than the distance independent indices. From the analysis results it was inferred that a relationship of relative symmetry, also termed resource depletion, exists among the study trees. This implies that competition occurs mainly for below ground resources. The relationship between the trees was found to be two-sided due to the influence that small trees had on larger trees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To quantify and compare the vertical distribution, biomass, length and surface are of roots greater than 5mm in the overstory and understory. To determine the relationship between biomass roots of overstory and undersotry vegetation. </t>
+  </si>
+  <si>
+    <t>The peak in mass of both overstory and understory &lt; 2 mm roots was within the upper 10 cm of the soil. Overstory 2-5 mm roots peaked between 5 and 30 cm. Understory 2-5 mm roots peaked within 10 cm of the surface of the forest floor. The large variation between replicates of the plant associations made it impossible to determine if changes in root mass with time of sampling were real or due to random variation. Unsuberized roots of the overstory vegetation contributed very little to biomass of ≤ 5 mm roots. Biomass of ≤ 5 mm roots of the overstory vegetation varied from 740 to 1320 g m⁻², length from 3.8 to 6.5 km m⁻², and surface area from 7.3 to 11.9 m² m⁻². The ridgetop association had the most overstory and understory roots and its soil (including organic horizons) was lowest in total nitrogen concentration and CEC. The midslope association had intermediate amounts of overstory roots, the lowest amount of understory roots, and its soil was intermediate in nitrogen concentration and CEC. The receiving association had the lowest amounts of overstory roots, intermediate amounts of understory roots, and its soil had the highest nitrogen concentration and CEC. The ridgetop ecosystems had the highest ratio of root-to-shoot and ratio of root-to-foliage plus twig, being approximately double the ratio for the receiving association. The midslope association was intermediate. Correlations of root mass with soil properties were generally poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To determine the extend and seriousness of landsliding on undisturbed forests </t>
+  </si>
+  <si>
+    <t>Not relevant as only root weight was taken into account</t>
+  </si>
+  <si>
+    <t>1) To compare establishment and survival of western hemlock germinants among different microsites (CWD with different wood breakdown levels and forest floor) in the forest understory; and 2) To investigate whether carbon is transferred through mycorrhizal networks from mature trees to seedlings established on CWD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western hemlock emergence and survivorship was higher on CWD than on forest floor, logs with medium to advance wood decay had higher recruitment. Found significant signals of carbon transferred from mature trees to regenerating seedlings established on CWD. Carbon enrichment in seedlings increased with mature donor size. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">None </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doesn't measure effect of pathogen on growth or mortalitly </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was hypothesized that genetically based differences in character means, plasticity, and/or trade-offs associated with adaptation to nutrient or water limitation may contribute to maintaining these species’ unique distribution patterns. </t>
+  </si>
+  <si>
+    <t>It was also found that, despite recent theories, a high relative degree of drought-tolerance did not trade-off with WUE or net photosynthesis rate (A) under well watered conditions, and that higher WUE was not associated with low A under ample or stressed water supply. On the other hand, specific N absorption rate and A were negatively correlated as expected. Water-use efficiency and NUE did not trade-off intrinsically (i.e., within treatments) for either species, but did trade-off plastically (i.e., across treatments). The species exhibited different slopes for the plastic WUE vs. NUE trade-off; this genotype by environment interaction effect may reflect specialization to their respective habitats. Two main conclusions were derived: 1) certain trade-offs (such as WUE vs. A, droughttolerance vs. A, WUE vs. drought-tolerance, WUE and drought-tolerance vs. root allocation, and WUE vs. NUE) may not be central to maintaining the distributions of black and white spruce, and thus may not represent costs, in all situations, to habitat specialization; and 2) physiological and morphological differences in black and white spruce may, in some instances, cancel at the wholeplant level, but could nevertheless have significant ecological consequences. Finally, the ecophysiological differences found between the two species imply that black spruce may be restricted to muskegs in areas near the southern border of the boreal forest because of an inability to compete on water-limited upland sites.</t>
+  </si>
+  <si>
+    <t>to evaluate the amounts of woody debris in various stand age classes, to examine some of the attributes of woody debris such as decay characteristics and to describe the role of woody debris in ecoystsem function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't measure how this affected growth, mortalitly or regneration </t>
+  </si>
+  <si>
+    <t>order to describe the general growth patterns expressed and their relationships to light, temperature and soil moisture levels in two different forest environments, a small clearcut or clearing and a shelterwood</t>
+  </si>
+  <si>
+    <t>The analyses of growth responses in relation to specific environmental variables resulted in the clear demonstration of site preference between each species. Grand fir seedlings grew best in the more shaded environment of the shelterwood, while Douglas fir grew best in the more open environment of the clearing. Seedlings of Douglas fir with proleptic free growth did not share this same response, however, and performed better in the shelterwood. Results generated from these analyses are presented and discussed in relation to the current understanding of conifer growth patterns, as well as the general performance of Douglas fir and grand fir seedlings in the context of reforestation.</t>
+  </si>
+  <si>
+    <t>Attempted to compare two types of harvesting treatments</t>
+  </si>
+  <si>
+    <t>To understand the effects of variable-retention harvesting and stand age on fine-root decomposition and fungal communities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To understand historical fire regimes </t>
+  </si>
+  <si>
+    <t>Doesn't predict how these historical fires many have affected forest composition of present day</t>
   </si>
 </sst>
 </file>
@@ -2689,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5737,8 +5797,14 @@
       <c r="G112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>742</v>
+      </c>
+      <c r="J112" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>526</v>
       </c>
@@ -5757,28 +5823,40 @@
       <c r="F113" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
+      <c r="I113" t="s">
+        <v>744</v>
+      </c>
+      <c r="J113" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="4" customFormat="1">
+      <c r="A114" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="4">
         <v>9172</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -5800,28 +5878,40 @@
       <c r="G115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
+      <c r="I115" t="s">
+        <v>748</v>
+      </c>
+      <c r="J115" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="4" customFormat="1">
+      <c r="A116" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="4">
         <v>1955</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>307</v>
       </c>
@@ -5840,28 +5930,40 @@
       <c r="F117" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
+      <c r="I117" t="s">
+        <v>752</v>
+      </c>
+      <c r="J117" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="4" customFormat="1">
+      <c r="A118" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="4">
         <v>2002</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -5883,48 +5985,68 @@
       <c r="G119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="I119" t="s">
+        <v>756</v>
+      </c>
+      <c r="J119" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="4" customFormat="1">
+      <c r="A120" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="4">
         <v>2018</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
+      <c r="I120" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="4">
         <v>2017</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -5944,7 +6066,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>517</v>
       </c>
@@ -5964,7 +6086,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="s">
         <v>82</v>
       </c>
@@ -5988,7 +6110,7 @@
       </c>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -6008,7 +6130,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>401</v>
       </c>
@@ -6028,7 +6150,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -6048,7 +6170,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>32</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F555C6B-27B7-814F-808D-8A48B21C2096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79494D5F-00D0-E449-86CF-1A4D93C56AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7180" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="420" yWindow="1680" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="782">
   <si>
     <t>Title</t>
   </si>
@@ -2336,6 +2336,66 @@
   </si>
   <si>
     <t>Doesn't predict how these historical fires many have affected forest composition of present day</t>
+  </si>
+  <si>
+    <t>Field trials of orchardgrass (Dactylis glomerata L.),smooth bromegrass (Bromus inermis Leys.), alsike clover (Trifolium hybridum L.), and a mixture by weight of 40%orchardgrass, 40% alsike clover, and 20% white clover (Trifolium repens L.), with five seeding rates by weight (0.5, 1.5, 3.0, 6.0 and 12.0 kg/ha), were conducted on a forest clear-cut in the Very Dry, Cool Montane Spruce biogeoclimatic subzone in the southern interior of British Columbia. The treatments were monitored for the first two growing seasons for their influence on the vegetation dynamics, and the resultant interactions of the vegetation on the growth and survival of planted 1+0 lodgepole pine (Pinus contorta var. latifolia Engelm.) seedlings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forage seeding had no effect on lodgepole pine survival. There was no significant difference in the height, basal diameter or stem volume growth of lodgepole pine in 1990 among different species of forage or between domestic forages and native vegetation. In the second year of the study (1991), decreases in the increment in lodgepole pine basal diameter were weakly associated with increasing seeding rate; however, lodgepole pine height, and stem volume remained unaffected by species or seeding rate of forages. There was no difference in the effect of different forage species or native vegetation on lodgepole pine growth in 1991. Stem volumes were lower in 1990 and 1991 on conifers with surrounding vegetation compared to the control groups with competing vegetation removed. </t>
+  </si>
+  <si>
+    <t>The influence of soil fauna on indices of N mineralization and decomposition in soil developed under four tree species (western redcedar, western hemlock, Sitka spruce and Douglas-fir) from the west coast of Vancouver island, B. C</t>
+  </si>
+  <si>
+    <t>Rates of N mineralization did not differ significantly between combinations of soil fauna and soil type (tree species). Both decomposition and microbial biomass were significantly enhanced in the presence of H. h.haydeniana. (and other fauna) in Sitka-spruce soils. Western redcedar soil mineralized the most N. The use of cabbage plants as indicators of N availability did not prove to be a good choice; plant biomass was extremely variable and not related to other measures of N availability. The abundance of soil fauna was low and this may have reduced the potential for statistically significant differences between fauna treatments.</t>
+  </si>
+  <si>
+    <t>To develop a distance-independent individual tree model for second-growth managed coastal Douglas-fir, western hemlock and western redcedar.</t>
+  </si>
+  <si>
+    <t>Mortality, diameter increment, and height increment models were developed and the effects of thinning, fertilization and the combination of thinning and fertilization were examined for Douglas-fir, western redcedar, and western hemlock. For each species, shade-tolerance was found to impact the possible predictor variables included in model development. The use of a generalized logistic survival model resulted in accurate estimates for larger trees, but poor results for smaller trees. To model the effects of fertilization, additional fertilization effect variables were included in the models; conversely, thinning effects were modeled using the immediate change in state variables such as basal area of larger trees which occurred immediately following thinning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A study of burned soils on Vancouver Island was carried out in order to determine whether or not the inherent site quality of forest soils is altered through burning and whether any such alteration is permanent or exhibits a cyclic trend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was concluded that slash burning on coniferous forest soils of Vancouver Island causes: (1) Lack of natural regeneration for 10 - 15 years. (2) A gradual increase in surface soil pH due to the "pumping" action of fast-growing herbs and shrubs which causes bases to be brought to the surface from the subsoil. (3) Increased exchangeable hydrogen in the sub-soils of burned sites apparently due to action of herbaceous growth in removing bases to the surface and also to increased biological activity. (4) An initial increase in exchangeable base content of the burned surface which begins to disappear due to leaching in 3 or 4 years. (5) Increased magnesium and potassium in the sub-soils of burned sites as a result of leaching these elements from the accumulated ash. (6) Initial increase in phosphorus content of the surface burned soil with a subsequent removal of this element to the subsoil due to the solvent action of percolating rain water. This phenomenon is especially true in the case of severely burned soils. (7) Increase in ammonia content in both surface and subsurface soils after burning due to stimulated ammonification. (8) Increased nitrification and loss of nitrate by leaching with severe burning. (9) Migration of colloidal organic matter and clay particles to the subsoil. (10) Increased total nitrogen content and a consequent decrease in the carbon-nitrogen ratio of the subsoil. (11) A reduction in the moisture holding capacity of the surface soil immediately following burning. </t>
+  </si>
+  <si>
+    <t>Mycorrhizal colonization and types of mycorrhizae that formed on container-grown Douglas-fir, western hemlock, and western red cedar seedlings were determined in a nursery near Nanaimo, B.C. and under a range of field conditions on eastern Vancouver Island. Methods included a root clearing, bleaching, and staining procedure that allowed for accurate estimates of percentage colonization and some advantages in mycorrhiza characterization</t>
+  </si>
+  <si>
+    <t>he percentage of Douglas-fir and western hemlock short roots colonized by ectomycorrhizal fungi in the nursery was highly variable but over 99 percent of the mycorrhizae were formed by Thelephora terrestris. After one field season mycorrhizal colonization levels were between 72 and 93 percent on the new roots formed. The most difficult to regenerate site had the lowest percentage colonization and number of ectomycorrhizal types. T. terrestris mycorrhizae still had the highest relative abundance followed by Rhizopogon vinicolor (on Douglas-fir only), Cenococcum geophilum, Mycelium radicus atrovirens, Tujber-like, Sndogone-like, and 38 minor types of ectomycorrhizae. Some types of ectomycorrhizae were only present or common on specific sites. This included a type that formed spore-like structures on the mantle cystidia and a type that produced red-brown hyphal exudates. Douglas-fir seedlings artificially inoculated with R. vinicolor in an Oregon nursery were taller than control seedlings when outplanted but no height or weight difference was found after one field season. The 17 types of mycorrhizae that formed on the control seedlings were dominated in relative abundance by a type that was morphologically identical to that formed on the seedlings that were artificially inoculated with R. vinicolor. Western red cedar did not form mycorrhizae in the nursery but formed low levels of vesicular-arbuscular mycorrhizae in the field that included both fine and coarse endophytes.</t>
+  </si>
+  <si>
+    <t>This thesis had two general objectives: to describe the patterns of distribution and abundance of terrestrial bryophytes in old growth subalpine forests at two study areas (Cypress and Mt. Seymour Provincial Parks) in southern coastal British Columbia, and to determine the scale at which environmental factors influence these patterns.</t>
+  </si>
+  <si>
+    <t>Doesn't measure effect of bryophytes on tree seedlings</t>
+  </si>
+  <si>
+    <t>The object of this work was to study the soil and nutrient requirements of Douglas fir seedlings in relation to their physiological development</t>
+  </si>
+  <si>
+    <t>Douglas fir seedlings during the first year in the nursery (0-0) produced little dry matter and removed small amounts of nutrients from the soil. The application of 20 to 30 lbs. per acre of nitrogen increased the growth of 0-0 seedlings in 1957 and 1958. Fertilization with potassium decreased, and with phosphorus increased, the growth of 0-0 seedlings in 1957 but had no effect in 1958. Application of compost, mushroom manure and cow manure increased the growth of 0-0 Douglas fir seedlings. The fertilization of 0-0 seedlings with mineral fertilizers had no effect on their development in the subsequent year. In the second year of growth (1-0), the dry matter production and the removal of nutrients from the soil by Douglas fir seedlings exceeded that of many agricultural crops. During the summer, 1-0 Douglas fir seedlings passed through at least one period of temporary dormancy, but their growth was continuous throughout the summer. Nitrogen fertilization increased the length and dry weight of 1-0 seedlings. Application of 320 lb. N per acre decreased growth and resulted in damage to seedling tissues. High phosphorus application decreased the unfavourable effect of excessive nitrogen fertilization. The 1-0 seedlings did not respond to potassium fertilization. Phosphorus, however, increased the dry weight of the 1-0 seedlings when applied at a rate of 320 lb. P205 per acre. Late summer nitrogen applications resulted in very rapid seedling growth during autumn, however, dormancy was delayed and the seedlings were heavily damaged by frost. Nitrogen fertilization in September increased the frost resistance of dormant 1-0 seedlings. Irrigation increased the height and weight of 1-0 Douglas fir seedlings. Heavy irrigation decreased the winter hardiness of the seedlings. The duration and time of the dormant period was found to be influenced by fertilization and soil moisture conditions. Each seedling, however, had individual dormancy characteristics</t>
+  </si>
+  <si>
+    <t>studied the distribution and potential causes of western redcedar (Thuja plicata Donn ex D. Don) dieback on the east coast of Vancouver Island, B.C. using dendrochronology and water balance modelling.</t>
+  </si>
+  <si>
+    <t>didn't measure how dieback affects western redcedar growth, survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">didn't measure how this invasive species affected seedling growth or mortality </t>
+  </si>
+  <si>
+    <t>Scotch broom (Cytisus scoparius), a leguminous shrub with nitrogen-fixing rhizobial root associations, is an invasive plant in the endangered Garry oak ecosystem (GOE) of Southern British Columbia. Broom frequently spreads from disturbed areas such as power line right-of-ways, and thus is a threat to native ecosystems</t>
+  </si>
+  <si>
+    <t>Estimates of the above-ground net primary production, standing crop biomass and above-ground autotrophic energy flows were made for eight 0.04 ha plots in naturally seeded 8 to 10 yr old red alder (Alnus rubra Bong.)</t>
+  </si>
+  <si>
+    <t>Characterises biomass but not what contributes to it</t>
   </si>
 </sst>
 </file>
@@ -2749,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6065,25 +6125,37 @@
       <c r="F122" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
-      <c r="A123" t="s">
+      <c r="I122" t="s">
+        <v>762</v>
+      </c>
+      <c r="J122" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="4" customFormat="1">
+      <c r="A123" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="4">
         <v>1999</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="4" t="s">
         <v>519</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6109,6 +6181,12 @@
         <v>13</v>
       </c>
       <c r="H124" s="4"/>
+      <c r="I124" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="J124" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
@@ -6129,6 +6207,12 @@
       <c r="F125" t="s">
         <v>203</v>
       </c>
+      <c r="I125" t="s">
+        <v>768</v>
+      </c>
+      <c r="J125" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
@@ -6149,25 +6233,37 @@
       <c r="F126" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127" t="s">
+      <c r="I126" t="s">
+        <v>770</v>
+      </c>
+      <c r="J126" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="4" customFormat="1">
+      <c r="A127" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="4">
         <v>1999</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="4" t="s">
         <v>388</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6192,68 +6288,92 @@
       <c r="G128" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" t="s">
+      <c r="I128" t="s">
+        <v>774</v>
+      </c>
+      <c r="J128" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="4" customFormat="1">
+      <c r="A129" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="4">
         <v>2007</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
+      <c r="I129" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="4">
         <v>2006</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="4" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
+      <c r="I130" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="4" customFormat="1">
+      <c r="A131" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="4">
         <v>1977</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="4" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>350</v>
       </c>
@@ -6273,7 +6393,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>317</v>
       </c>
@@ -6293,7 +6413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>424</v>
       </c>
@@ -6313,7 +6433,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -6333,7 +6453,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>212</v>
       </c>
@@ -6353,7 +6473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>393</v>
       </c>
@@ -6373,7 +6493,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>457</v>
       </c>
@@ -6393,7 +6513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="s">
         <v>58</v>
       </c>
@@ -6416,7 +6536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>451</v>
       </c>
@@ -6436,7 +6556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>284</v>
       </c>
@@ -6456,7 +6576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>428</v>
       </c>
@@ -6476,7 +6596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>481</v>
       </c>
@@ -6496,7 +6616,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="s">
         <v>122</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79494D5F-00D0-E449-86CF-1A4D93C56AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7380C-5AAB-9147-8B9C-9C3534E49AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1680" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="2920" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="802">
   <si>
     <t>Title</t>
   </si>
@@ -2396,6 +2396,66 @@
   </si>
   <si>
     <t>Characterises biomass but not what contributes to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understory vegetation in relation to coarse woody debris (CWD) was studied in six forest ecosystems which were located in six biogeoclimatic zones of British Columbia. </t>
+  </si>
+  <si>
+    <t>CWD has effects on the distribution and abundance of bryophyte growth-forms, e.g. mat type growth-forms and short turfs were more richly represented as wood-inhabiting species whereas weft type growth-forms were widely distributed on both CWD and forest floor, and their abundance increased as wood decay increased with the peak appearing on the forest floor. Analyses showed that vegetation/plant communities on CWD were significantly different from those on the forest floor in each of the six ecosystems. In general, forest floor vegetation was more different from each other than CWD vegetation among the study ecosystems. Evidence showed that log size and canopy closure had impact on species richness/diversity (number of species per unit area in this context) and the number of species was logarithmically correlated with log size and quadratically correlated with canopy closure. Usually, the larger the logs the more species were found, and there was a trend that this increase of species number diminished and then nearly leveled off when logs reached a certain size. However, the canopy - species relationship is different. The highest number of species was found under canopy closures of 65 - 75% and this number decreased with increase or decrease of canopy closure. It is concluded that CWD is an important functional element in forest ecosystems. It is important to understory vegetation, especially to non-vascular plants. Therefore, in forest operations, maintaining certain amounts of CWD in different decay stages is essential to maintain biodiversity in forest ecosystems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of the study reported in this thesis is to assess the influence of light and site quality on the morphology of western hemlock Tsuga heterophylla (Raf.) Sarg. seedlings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The results indicate that diameter and height growth increased directly with increased light and that seedlings cannot survive with less than ten per cent of full light (measured on cloudy days). The average minimum light intensity was found to be 117 foot-candles for a 12-hour period on bright days. Seedlings studied on five types of microsites showed significantly different external characteristics in height, diameter, maximum length of needles and angle of branches of the last internode. These characteristics were then studied on planted wildlings of local provenance on plots of known site indices. The results show that, after two years, the morphological characteristics of hemlock planted on different sites, were modified to levels associated with site quality. These modifications involved branch angle, maximum needle length, and height growth. It was concluded that, within a particular provenance, the influence of environment is of greater significance than hereditary factors, in superimposing modifications on the basic form of western hemlock seedlings. The possibility of using branch angle and maximum needle length to estimate site quality is noted.</t>
+  </si>
+  <si>
+    <t>to examine growth release of trees following the formation of natural, fine-scale canopy gaps in old-growth, western redcedar-western hemlock forests of coastal BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establishing these empirically-based criteria was important for quantifying the magnitude and duration of releases. Tree diameter and growth rate prior to release were the most important predictors of the magnitude and duration of releases, but identity of the tree species and distance from the gap center were also important predictors. Western hemlock and Pacific silver fir were often growing slowly both in the canopy and subcanopy, giving them tremendous potential to release. For these species, releases were generally intensive and persistent. In contrast, western red cedar were often growing quickly both in the canopy and subcanopy, giving them less potential to release. Compared to western hemlock and Pacific silver fir, western red cedar releases were less intensive and persistent. Patterns related to distance from the gap center emerged for trees growing along the north-south axis of gaps. Regardless of species, increasing distance from the gap center resulted in decreasing magnitude and duration of releases. However, patterns for duration were complex, as the distance effect was greater for trees north of the gap center. Information on growth release of trees is useful for reconstructing the history of past canopy disturbances, elucidating mechanisms of tree species coexistence, and assessing and predicting stand changes due to forest management in coastal British Columbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how soil temperature and seedling survival can affect regeneration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas fir had higher survivial compared to western hemlock and pacific fir. Then goes through a bunch of possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to provide information on effects of landslides on forest productivity and to examine long term processes of natural regeneration on landslide scars. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no evidence that planted conifers suffered any growth reductions due to landslide disturbances </t>
+  </si>
+  <si>
+    <t>To understand how adding nitrogen affected spruce</t>
+  </si>
+  <si>
+    <t>In the treatments where nitrogen was applied alone, no significant change in needle size was recorded. Nutritionally, nitrogen fertilization resulted in large increases in nitrogen concentration, indicating this element was limiting. As well, nitrogen fertilization also produced large decreases in K, S, and S04-S concentrations. Nitrogen-only fertilization also caused large elevations in the N/S ratios to occur. This elevation in N/S ratios and the subsequent decreases in S and S04-S concentrations seem to indicate that nitrogen-only fertilization has a negative impact on the sulphur nutrition of interior spruce. The addition of the "complete" mix fertilizer was, in most cases, successful in returning the decreased nutrient concentration levels of K, S, and S04 and the elevated N/S ratios back to their original unfertilized status. From these results it appears that nitrogen fertilization of interior spruce should only be considered if it is accompanied by a mixture of other nutrients; the most important component being sulphur.</t>
+  </si>
+  <si>
+    <t>The objectives of this study were to describe the variability, to evaluate the combining ability, and to calculate the heritability values for certain characteristics of Coastal Douglas-fir (Pseudotsuga menziesii (Mirb.) Franco var. menziesii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not useful results as they solely focussed on genetic differences and traits not linked to survival, germination or competition </t>
+  </si>
+  <si>
+    <t>To understand how this bacteria affect growth of lodgepole pine</t>
+  </si>
+  <si>
+    <t>he results indicated that both P2b-2R and P2b-2Rgfp were: (i) able to form persistent rhizospheric and endophytic populations, (ii) capable of in situ N fixation and (iii) enhancing seedling growth continuously after four months. Seedlings inoculated with P2b-2R derived 13%-40 % of foliar N from the atmosphere, while those treated with P2b-2Rgfp derived 18%-47 % of foliar N from the atmosphere during seedling growth period. There was a temporary seedling growth reduction in P2b-2R treatments two months after sowing, but seedlings recovered from the growth reduction thereafter. However, P2b-2Rgfp treatments did not display such a decline. Seedlings treated with P2b-2Rgfp had generally higher endophytic populations, foliar N concentrations, %N derived from atmosphere and dry weights, but lower rhizospheric populations than those treated with P2b-2R. However, these differences were not significant. GFP did not affect N-fixation and growth promotion of wild-type P2b-2R in general, however, GFP-labeled P2b-2R might have short-term advantages in early pine growth stages but these are not significant in the longer term.</t>
+  </si>
+  <si>
+    <t>A study was carried out to investigate the effects of slashburning on the nutrient status of two Sub-Boreal Spruce zone ecosystems in the west central interior of British Columbia.</t>
+  </si>
+  <si>
+    <t>Nutrient losses from the fine slash appeared to be independent of fire severity, although losses of most nutrients from the forest floor increased with fire severity; in plots in the mesic ecosystems which received moderate impact burns, and plots in the subhygric/hygric ecosystems which received low and moderate impact burns, net gains in forest floor Mg, K, and K and Ca content, respectively, were found. Nine months following burning there were significant increases in pH and total Mg concentrations and decreases in exchangeable K concentrations in the forest floor in the mesic ecosystems and S concentration in the forest floor in plots which had received low impact burns in both ecosystems. Effects of burning on some nutrient concentrations were confounded by the inherent seasonal variability in labile nutrient forms. There were no significant changes in mineral soil nutrient concentrations that could be attributed to burning. However, any such changes of small magnitude would have been difficult to detect due to the high spatial variation in soil nutrient concentrations. The survival and growth of interior spruce seedlings in the first season following outplanting was better in burned than in unburned areas in both ecosystems. However, seedling foliar N and P concentrations were lower in the burned areas. It is concluded that if slashburning is carried out in the mesic ecosystems, low to moderate severity fires should be prescribed to preserve the nutrient capital present in the forest floor. Slashburning would not substantially reduce the nutrient capital of subhygric/hygric ecosystems even with much higher fire severities than were observed in this study.</t>
+  </si>
+  <si>
+    <t>The objective of this study was to develop selection criteria which reflect two important characteristics: a) rapid growth rate and b) efficient utilization of space or growth under stand competition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed a method for selecting most competitively adapted western hemlock trees </t>
   </si>
 </sst>
 </file>
@@ -2809,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6392,6 +6452,12 @@
       <c r="F132" t="s">
         <v>353</v>
       </c>
+      <c r="I132" t="s">
+        <v>782</v>
+      </c>
+      <c r="J132" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
@@ -6412,6 +6478,12 @@
       <c r="F133" t="s">
         <v>77</v>
       </c>
+      <c r="I133" t="s">
+        <v>784</v>
+      </c>
+      <c r="J133" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
@@ -6432,6 +6504,12 @@
       <c r="F134" t="s">
         <v>426</v>
       </c>
+      <c r="I134" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="J134" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
@@ -6452,6 +6530,12 @@
       <c r="F135" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="I135" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="J135" s="5" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
@@ -6472,6 +6556,12 @@
       <c r="F136" t="s">
         <v>215</v>
       </c>
+      <c r="I136" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
@@ -6492,25 +6582,37 @@
       <c r="F137" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138" t="s">
+      <c r="I137" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="J137" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="4" customFormat="1">
+      <c r="A138" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="4">
         <v>1963</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6535,6 +6637,12 @@
       <c r="G139" t="s">
         <v>13</v>
       </c>
+      <c r="I139" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="J139" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
@@ -6555,25 +6663,37 @@
       <c r="F140" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141" t="s">
+      <c r="I140" t="s">
+        <v>798</v>
+      </c>
+      <c r="J140" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="4" customFormat="1">
+      <c r="A141" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="4">
         <v>1980</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="142" spans="1:10">

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7380C-5AAB-9147-8B9C-9C3534E49AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B6360-ACB9-7245-BF90-07C0CDB76E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2920" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="80" yWindow="520" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="815">
   <si>
     <t>Title</t>
   </si>
@@ -934,9 +934,6 @@
     <t>see table 2.1</t>
   </si>
   <si>
-    <t>Competition between paper birch and douglas-fia in two different biogeoclimatic zones of British Columbia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wang </t>
   </si>
   <si>
@@ -2456,6 +2453,48 @@
   </si>
   <si>
     <t xml:space="preserve">Developed a method for selecting most competitively adapted western hemlock trees </t>
+  </si>
+  <si>
+    <t>The present study deals with an extensive morphological survey of variations in Douglas-fir (Pseudotsuga menziesii (Poir.) Franco) in a cross section of its northern distribution from the Pacific Coast eastward to the Rocky Mountains</t>
+  </si>
+  <si>
+    <t>Not helpful as tried to understand genetic variability of douglas fir across its range but didn't measure performance differences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To investigate ECM differences between douglas-fir and paper birch across a age gradient. </t>
+  </si>
+  <si>
+    <t>Found differences in ECM communities however didn't link this to differences in performance or competitive ability</t>
+  </si>
+  <si>
+    <t>his pilot study investigates stand dynamics by describing the structure of oldgrowth stands, and correlating the occurrence of regeneration with site factors</t>
+  </si>
+  <si>
+    <t>The fir regeneration showed strong correlations with the presence of decaying wood substrate. There were more than twice as many seedlings on decaying wood than expected from the total cover of the substrate. However, survivorship from seedling to sapling stage was better on the forest floor than on decaying wood. Vegetation cover, light, and humus form showed no correlations with the number and vigour of seedlings. The occurrence of seedlings was also independent of canopy openings. This result implies that gap dynamics was not the driving force for the establishment of fir regeneration. One possible explanation is that snow melts later in canopy openings. The number of seedlings was higher than expected in the intermediate snow melt time zones which roughly corresponds to canopy edge positions. The future of the spruce component in the study stand was difficult to predict because of the very low number of individuals. The dominant position of spruce trees and presence of recently established seedlings throughout the stands would imply that there was an adequate seed source. However, without knowledge about survival of seedlings until they reach the canopy it is impossible to say whether the amount of regeneration is adequate for maintaining the spruce population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to determine (1) if there are some forest patches within lodgepole pine forests in this subzone in central B.C. that have not burned during the last 200-300 years, and (2) if forest patches within these lodgepole pine forests that did not burn at the time when the surrounding forests were most recently burned, have some characteristics that caused them not to burn.</t>
+  </si>
+  <si>
+    <t>It appears that lower tree density and basal area within the patches at the time of the fire may have been important. Other factors such as topographic features, soil moisture, and crown fuels do not appear to have been important.</t>
+  </si>
+  <si>
+    <t>In each plantation, part of the area has been burned and part was unburned. Stocking of planted Douglas-firs was found to be greater on the burned than on the unburned areas of 16 sites and height growth of planted Douglas-firs was greater on the burned than on the unburned areas of 18 sites. Some degree of nitrogen deficiency was inferred for 17 sites, but was not attributed to burning. Height and percent cover of salal was greater on unburned areas. Differences in height growth and percent cover of salal between burned and unburned areas were seen to be greatest where inferred burn severity was high. Browsing of Douglas-fir was more prevalent on burned areas but did not result in height growth being less than on adjacent unburned areas.</t>
+  </si>
+  <si>
+    <t>Competition between paper birch and douglas-fir in two different biogeoclimatic zones of British Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Linear relationships were demonstrated between various growth parameters (total dry weight, stem dry weight, root dry weight, volume, diameter and height) and disease severity rated as diseased leaf-weeks divided by total leaf-weeks. Losses due to rust infection included reduced total dry weight and volume growth in the year of heavy disease, the death of severely infected ramets during the following winter and reduced initial volume increment in the following growing season. The percentage reduction in yield (total dry weight) was greater than the cumulative percent leaf area infected, suggesting that the rust infected leaf parts act as sinks for photosynthate. The normal pattern of photosynthate allocation was altered in favour of the top growth of ramets. Ratios of stem/root dry weight increased rapidly as disease level increased. A threshold infection level, below which no loss occurred, was not detected in this pathosystem. Significant variation in rust resistance of black cottonwood clones was detected both within and between the two geographic areas. Clones from the coast or warm, moist areas were, on average, more resistant than clones from the interior or cold, dry climates. The phenomenon of induced resistance was not detected at either the local or the systemic levels in black cottonwood challenged by the rust.</t>
+  </si>
+  <si>
+    <t>Understand how variation could protect black cotton wood from Jack's rust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This thesis examines whether the competitive abilities of paper birch and Douglas-fir vary with climate from a coastal site to a southern interior site in British Columbia. The overall hypothesis is that paper birch would be more competitive at the interior site and Douglas-fir would be more competitive at the coastal site. </t>
+  </si>
+  <si>
+    <t>Douglas-fir had higher photosynthetic NUE and WUE at the coastal site than at the interior site. However it had higher biomass-based NUE at the interior site. Paper birch had higher nitrogen use efficiency (NUE) and water use efficiency (WUE) at the coastal site than at the interior site. Douglas-fir seedlings had significantly larger basal diameter and height at the coastal site than at the interior site throughout the growing season. Paper birch seedlings were taller in the early part of the growing season at the coastal than at the interior site, but there was no significant difference in basal diameter between the two sites. Douglasfir had significantly larger foliage, root, shoot and total biomass per plant at the coastal site than at the interior site. However, it had a lower root/shoot ratio at the coastal site, while the opposite was true for birch. The birch foliage, shoot, root and total biomass decreased significantly with increasing density at both sites, suggesting strong intra-specific competition. Douglas-fir experienced less intra-specific competition at both sites, and had greater negative effects on paper birch in terms of growth and biomass production at the coastal site than at the interior site. Paper birch had greater negative effects on Douglas-fir at the interior site than at the coastal site. Douglas-fir had greater RGR at the coastal site than at the interior site. In contrast, paper birch had greater a RGR at the interior site than at the coastal site. Douglas-fir had significantly greater relative competitive ability at the coastal site when grown in mixed culture with paper birch. In contrast, paper birch had.greater competitive ability at the interior site. Stem analysis of height growth patterns of the two species showed that height of Douglas-fir exceeded height of paper birch at about 45-50 years after stand establishment at the interior site. In comparison, Douglas-fir exceeded paper birch in height at about 25-30 years at the coastal site. Difference in height growth patterns of the two species at the two sites contributed to the explanation of differences in the persistence of paper birch in mixtures between these two biogeoclimatic subzones. Other factors between the two different study areas, such as differences in frequencies of natural fire, insect outbreak and forest diseases, may also be important in determining why paper birch is more abundant in the ICH zone.</t>
   </si>
 </sst>
 </file>
@@ -2869,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149:A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2901,21 +2940,21 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" t="s">
         <v>485</v>
-      </c>
-      <c r="B2" t="s">
-        <v>486</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -2924,24 +2963,24 @@
         <v>2001</v>
       </c>
       <c r="E2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" t="s">
         <v>487</v>
       </c>
-      <c r="F2" t="s">
-        <v>488</v>
-      </c>
       <c r="I2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J2" t="s">
         <v>541</v>
-      </c>
-      <c r="J2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
         <v>382</v>
-      </c>
-      <c r="B3" t="s">
-        <v>383</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -2953,21 +2992,21 @@
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" t="s">
         <v>544</v>
-      </c>
-      <c r="J3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
         <v>477</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -2976,24 +3015,24 @@
         <v>1996</v>
       </c>
       <c r="E4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F4" t="s">
         <v>479</v>
       </c>
-      <c r="F4" t="s">
-        <v>480</v>
-      </c>
       <c r="I4" t="s">
+        <v>545</v>
+      </c>
+      <c r="J4" t="s">
         <v>546</v>
-      </c>
-      <c r="J4" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" t="s">
         <v>460</v>
-      </c>
-      <c r="B5" t="s">
-        <v>461</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -3002,16 +3041,16 @@
         <v>2014</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
+        <v>547</v>
+      </c>
+      <c r="J5" t="s">
         <v>548</v>
-      </c>
-      <c r="J5" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3040,10 +3079,10 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
+        <v>549</v>
+      </c>
+      <c r="J6" t="s">
         <v>550</v>
-      </c>
-      <c r="J6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3066,18 +3105,18 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
+        <v>551</v>
+      </c>
+      <c r="J7" t="s">
         <v>552</v>
-      </c>
-      <c r="J7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" t="s">
         <v>523</v>
-      </c>
-      <c r="B8" t="s">
-        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>202</v>
@@ -3086,24 +3125,24 @@
         <v>2018</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I8" t="s">
+        <v>553</v>
+      </c>
+      <c r="J8" t="s">
         <v>554</v>
-      </c>
-      <c r="J8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="s">
         <v>354</v>
-      </c>
-      <c r="B9" t="s">
-        <v>355</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -3115,13 +3154,13 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I9" t="s">
+        <v>555</v>
+      </c>
+      <c r="J9" t="s">
         <v>556</v>
-      </c>
-      <c r="J9" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3144,18 +3183,18 @@
         <v>211</v>
       </c>
       <c r="I10" t="s">
+        <v>557</v>
+      </c>
+      <c r="J10" t="s">
         <v>558</v>
-      </c>
-      <c r="J10" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
         <v>363</v>
-      </c>
-      <c r="B11" t="s">
-        <v>364</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -3167,24 +3206,24 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
+        <v>559</v>
+      </c>
+      <c r="J11" t="s">
         <v>560</v>
-      </c>
-      <c r="J11" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" t="s">
         <v>534</v>
-      </c>
-      <c r="B12" t="s">
-        <v>535</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -3196,13 +3235,13 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I12" t="s">
+        <v>561</v>
+      </c>
+      <c r="J12" t="s">
         <v>562</v>
-      </c>
-      <c r="J12" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3228,18 +3267,18 @@
         <v>13</v>
       </c>
       <c r="I13" t="s">
+        <v>563</v>
+      </c>
+      <c r="J13" t="s">
         <v>564</v>
-      </c>
-      <c r="J13" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
         <v>296</v>
-      </c>
-      <c r="B14" t="s">
-        <v>297</v>
       </c>
       <c r="C14" t="s">
         <v>278</v>
@@ -3251,21 +3290,21 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I14" t="s">
+        <v>565</v>
+      </c>
+      <c r="J14" t="s">
         <v>566</v>
-      </c>
-      <c r="J14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B15" t="s">
         <v>500</v>
-      </c>
-      <c r="B15" t="s">
-        <v>501</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -3277,7 +3316,7 @@
         <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3303,10 +3342,10 @@
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3329,10 +3368,10 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
+        <v>569</v>
+      </c>
+      <c r="J17" t="s">
         <v>570</v>
-      </c>
-      <c r="J17" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3355,10 +3394,10 @@
         <v>77</v>
       </c>
       <c r="I18" t="s">
+        <v>571</v>
+      </c>
+      <c r="J18" t="s">
         <v>572</v>
-      </c>
-      <c r="J18" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3381,18 +3420,18 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
+        <v>573</v>
+      </c>
+      <c r="J19" t="s">
         <v>574</v>
-      </c>
-      <c r="J19" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="s">
         <v>311</v>
-      </c>
-      <c r="B20" t="s">
-        <v>312</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -3404,13 +3443,13 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="5" customFormat="1">
@@ -3435,10 +3474,10 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3467,10 +3506,10 @@
         <v>187</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3496,10 +3535,10 @@
         <v>13</v>
       </c>
       <c r="I23" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="K23" t="s">
         <v>581</v>
-      </c>
-      <c r="K23" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3528,18 +3567,18 @@
         <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
         <v>449</v>
-      </c>
-      <c r="B25" t="s">
-        <v>450</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -3551,13 +3590,13 @@
         <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3580,10 +3619,10 @@
         <v>249</v>
       </c>
       <c r="I26" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3612,18 +3651,18 @@
         <v>155</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" t="s">
         <v>497</v>
-      </c>
-      <c r="B28" t="s">
-        <v>498</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -3632,24 +3671,24 @@
         <v>1994</v>
       </c>
       <c r="E28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F28" t="s">
         <v>149</v>
       </c>
       <c r="I28" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" t="s">
         <v>405</v>
-      </c>
-      <c r="B29" t="s">
-        <v>406</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -3658,16 +3697,16 @@
         <v>2010</v>
       </c>
       <c r="E29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I29" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3690,18 +3729,18 @@
         <v>12</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" t="s">
         <v>302</v>
-      </c>
-      <c r="B31" t="s">
-        <v>303</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
@@ -3710,24 +3749,24 @@
         <v>1994</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F31" t="s">
         <v>62</v>
       </c>
       <c r="I31" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>596</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
         <v>412</v>
-      </c>
-      <c r="B32" t="s">
-        <v>413</v>
       </c>
       <c r="C32" t="s">
         <v>278</v>
@@ -3742,10 +3781,10 @@
         <v>288</v>
       </c>
       <c r="I32" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3770,10 +3809,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -3782,24 +3821,24 @@
         <v>1971</v>
       </c>
       <c r="E34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -3814,10 +3853,10 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
+        <v>603</v>
+      </c>
+      <c r="J35" t="s">
         <v>604</v>
-      </c>
-      <c r="J35" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3840,13 +3879,13 @@
         <v>104</v>
       </c>
       <c r="I36" t="s">
+        <v>605</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K36" t="s">
         <v>606</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K36" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3869,10 +3908,10 @@
         <v>144</v>
       </c>
       <c r="I37" t="s">
+        <v>608</v>
+      </c>
+      <c r="J37" t="s">
         <v>609</v>
-      </c>
-      <c r="J37" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3895,10 +3934,10 @@
         <v>18</v>
       </c>
       <c r="I38" t="s">
+        <v>610</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="N38" t="s">
         <v>156</v>
@@ -3906,10 +3945,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" t="s">
         <v>331</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -3918,30 +3957,30 @@
         <v>1985</v>
       </c>
       <c r="E39" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" t="s">
         <v>333</v>
-      </c>
-      <c r="F39" t="s">
-        <v>334</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I39" t="s">
+        <v>612</v>
+      </c>
+      <c r="J39" t="s">
         <v>613</v>
-      </c>
-      <c r="J39" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
+        <v>435</v>
+      </c>
+      <c r="B40" t="s">
         <v>436</v>
-      </c>
-      <c r="B40" t="s">
-        <v>437</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
@@ -3956,18 +3995,18 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
+        <v>614</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
+        <v>491</v>
+      </c>
+      <c r="B41" t="s">
         <v>492</v>
-      </c>
-      <c r="B41" t="s">
-        <v>493</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -3982,18 +4021,18 @@
         <v>249</v>
       </c>
       <c r="I41" t="s">
+        <v>616</v>
+      </c>
+      <c r="J41" t="s">
         <v>617</v>
-      </c>
-      <c r="J41" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B42" t="s">
         <v>473</v>
-      </c>
-      <c r="B42" t="s">
-        <v>474</v>
       </c>
       <c r="C42" t="s">
         <v>278</v>
@@ -4002,27 +4041,27 @@
         <v>2008</v>
       </c>
       <c r="E42" t="s">
+        <v>474</v>
+      </c>
+      <c r="F42" t="s">
         <v>475</v>
-      </c>
-      <c r="F42" t="s">
-        <v>476</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
       </c>
       <c r="I42" t="s">
+        <v>618</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s">
         <v>368</v>
-      </c>
-      <c r="B43" t="s">
-        <v>369</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
@@ -4037,18 +4076,18 @@
         <v>275</v>
       </c>
       <c r="I43" t="s">
+        <v>621</v>
+      </c>
+      <c r="J43" t="s">
         <v>622</v>
-      </c>
-      <c r="J43" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" t="s">
         <v>357</v>
-      </c>
-      <c r="B44" t="s">
-        <v>358</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -4060,13 +4099,13 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I44" t="s">
+        <v>623</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4083,7 +4122,7 @@
         <v>1994</v>
       </c>
       <c r="E45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F45" t="s">
         <v>98</v>
@@ -4092,10 +4131,10 @@
         <v>13</v>
       </c>
       <c r="I45" t="s">
+        <v>625</v>
+      </c>
+      <c r="J45" t="s">
         <v>626</v>
-      </c>
-      <c r="J45" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4124,18 +4163,18 @@
         <v>31</v>
       </c>
       <c r="I46" t="s">
+        <v>627</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B47" t="s">
         <v>399</v>
-      </c>
-      <c r="B47" t="s">
-        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -4153,10 +4192,10 @@
         <v>13</v>
       </c>
       <c r="I47" t="s">
+        <v>629</v>
+      </c>
+      <c r="J47" t="s">
         <v>630</v>
-      </c>
-      <c r="J47" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4179,18 +4218,18 @@
         <v>179</v>
       </c>
       <c r="I48" t="s">
+        <v>631</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
         <v>339</v>
-      </c>
-      <c r="B49" t="s">
-        <v>340</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -4205,18 +4244,18 @@
         <v>288</v>
       </c>
       <c r="I49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" t="s">
         <v>520</v>
-      </c>
-      <c r="B50" t="s">
-        <v>521</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
@@ -4225,24 +4264,24 @@
         <v>1989</v>
       </c>
       <c r="E50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I50" t="s">
+        <v>634</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="4" customFormat="1">
       <c r="A51" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>66</v>
@@ -4251,16 +4290,16 @@
         <v>1997</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -4283,10 +4322,10 @@
         <v>163</v>
       </c>
       <c r="I52" t="s">
+        <v>637</v>
+      </c>
+      <c r="J52" t="s">
         <v>638</v>
-      </c>
-      <c r="J52" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4309,18 +4348,18 @@
         <v>227</v>
       </c>
       <c r="I53" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
         <v>373</v>
-      </c>
-      <c r="B54" t="s">
-        <v>374</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -4329,22 +4368,22 @@
         <v>2000</v>
       </c>
       <c r="E54" t="s">
+        <v>374</v>
+      </c>
+      <c r="F54" t="s">
         <v>375</v>
-      </c>
-      <c r="F54" t="s">
-        <v>376</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I54" t="s">
+        <v>640</v>
+      </c>
+      <c r="J54" t="s">
         <v>641</v>
-      </c>
-      <c r="J54" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4367,18 +4406,18 @@
         <v>73</v>
       </c>
       <c r="I55" t="s">
+        <v>642</v>
+      </c>
+      <c r="J55" t="s">
         <v>643</v>
-      </c>
-      <c r="J55" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" t="s">
         <v>305</v>
-      </c>
-      <c r="B56" t="s">
-        <v>306</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
@@ -4390,21 +4429,21 @@
         <v>17</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" t="s">
+        <v>644</v>
+      </c>
+      <c r="J56" t="s">
         <v>645</v>
-      </c>
-      <c r="J56" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1">
       <c r="A57" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>42</v>
@@ -4413,16 +4452,16 @@
         <v>2013</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>211</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4451,18 +4490,18 @@
         <v>20</v>
       </c>
       <c r="I58" t="s">
+        <v>648</v>
+      </c>
+      <c r="J58" t="s">
         <v>649</v>
-      </c>
-      <c r="J58" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
+        <v>343</v>
+      </c>
+      <c r="B59" t="s">
         <v>344</v>
-      </c>
-      <c r="B59" t="s">
-        <v>345</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
@@ -4474,21 +4513,21 @@
         <v>251</v>
       </c>
       <c r="F59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I59" t="s">
+        <v>650</v>
+      </c>
+      <c r="J59" t="s">
         <v>651</v>
-      </c>
-      <c r="J59" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" t="s">
         <v>360</v>
-      </c>
-      <c r="B60" t="s">
-        <v>361</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -4500,21 +4539,21 @@
         <v>251</v>
       </c>
       <c r="F60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J60" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" t="s">
         <v>322</v>
-      </c>
-      <c r="B61" t="s">
-        <v>323</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -4523,24 +4562,24 @@
         <v>1997</v>
       </c>
       <c r="E61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J61" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
+        <v>530</v>
+      </c>
+      <c r="B62" t="s">
         <v>531</v>
-      </c>
-      <c r="B62" t="s">
-        <v>532</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -4552,21 +4591,21 @@
         <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I62" t="s">
+        <v>654</v>
+      </c>
+      <c r="J62" t="s">
         <v>655</v>
-      </c>
-      <c r="J62" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" t="s">
         <v>396</v>
-      </c>
-      <c r="B63" t="s">
-        <v>397</v>
       </c>
       <c r="C63" t="s">
         <v>52</v>
@@ -4575,16 +4614,16 @@
         <v>2009</v>
       </c>
       <c r="E63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F63" t="s">
         <v>73</v>
       </c>
       <c r="I63" t="s">
+        <v>656</v>
+      </c>
+      <c r="J63" t="s">
         <v>657</v>
-      </c>
-      <c r="J63" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4610,10 +4649,10 @@
         <v>13</v>
       </c>
       <c r="I64" t="s">
+        <v>658</v>
+      </c>
+      <c r="J64" t="s">
         <v>659</v>
-      </c>
-      <c r="J64" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1">
@@ -4636,10 +4675,10 @@
         <v>12</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4662,18 +4701,18 @@
         <v>93</v>
       </c>
       <c r="I66" t="s">
+        <v>662</v>
+      </c>
+      <c r="J66" t="s">
         <v>663</v>
-      </c>
-      <c r="J66" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17">
       <c r="A67" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B67" t="s">
         <v>408</v>
-      </c>
-      <c r="B67" t="s">
-        <v>409</v>
       </c>
       <c r="C67" t="s">
         <v>137</v>
@@ -4682,19 +4721,19 @@
         <v>2000</v>
       </c>
       <c r="E67" t="s">
+        <v>409</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="I67" t="s">
+        <v>664</v>
+      </c>
+      <c r="J67" t="s">
         <v>665</v>
-      </c>
-      <c r="J67" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4743,10 +4782,10 @@
         <v>12</v>
       </c>
       <c r="I69" t="s">
+        <v>666</v>
+      </c>
+      <c r="J69" t="s">
         <v>667</v>
-      </c>
-      <c r="J69" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="4" customFormat="1">
@@ -4769,18 +4808,18 @@
         <v>62</v>
       </c>
       <c r="I70" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B71" t="s">
         <v>502</v>
-      </c>
-      <c r="B71" t="s">
-        <v>503</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -4789,30 +4828,30 @@
         <v>1997</v>
       </c>
       <c r="E71" t="s">
+        <v>503</v>
+      </c>
+      <c r="F71" t="s">
         <v>504</v>
-      </c>
-      <c r="F71" t="s">
-        <v>505</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I71" t="s">
+        <v>670</v>
+      </c>
+      <c r="J71" t="s">
         <v>671</v>
-      </c>
-      <c r="J71" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -4821,30 +4860,30 @@
         <v>2001</v>
       </c>
       <c r="E72" t="s">
+        <v>507</v>
+      </c>
+      <c r="F72" t="s">
         <v>508</v>
-      </c>
-      <c r="F72" t="s">
-        <v>509</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I72" t="s">
+        <v>672</v>
+      </c>
+      <c r="J72" t="s">
         <v>673</v>
-      </c>
-      <c r="J72" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1">
       <c r="A73" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>16</v>
@@ -4853,16 +4892,16 @@
         <v>1971</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I73" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>675</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4888,18 +4927,18 @@
         <v>13</v>
       </c>
       <c r="I74" t="s">
+        <v>676</v>
+      </c>
+      <c r="J74" t="s">
         <v>677</v>
-      </c>
-      <c r="J74" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
+        <v>318</v>
+      </c>
+      <c r="B75" t="s">
         <v>319</v>
-      </c>
-      <c r="B75" t="s">
-        <v>320</v>
       </c>
       <c r="C75" t="s">
         <v>42</v>
@@ -4914,18 +4953,18 @@
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J75" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" t="s">
         <v>336</v>
-      </c>
-      <c r="B76" t="s">
-        <v>337</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -4937,13 +4976,13 @@
         <v>251</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I76" t="s">
+        <v>679</v>
+      </c>
+      <c r="J76" t="s">
         <v>680</v>
-      </c>
-      <c r="J76" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="4" customFormat="1">
@@ -4966,10 +5005,10 @@
         <v>12</v>
       </c>
       <c r="I77" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="J77" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4977,7 +5016,7 @@
         <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -4992,18 +5031,18 @@
         <v>197</v>
       </c>
       <c r="I78" t="s">
+        <v>683</v>
+      </c>
+      <c r="J78" t="s">
         <v>684</v>
-      </c>
-      <c r="J78" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" t="s">
         <v>431</v>
-      </c>
-      <c r="B79" t="s">
-        <v>432</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -5015,21 +5054,21 @@
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I79" t="s">
+        <v>685</v>
+      </c>
+      <c r="J79" t="s">
         <v>686</v>
-      </c>
-      <c r="J79" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="4" customFormat="1">
       <c r="A80" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>34</v>
@@ -5038,16 +5077,16 @@
         <v>2019</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I80" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>688</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1">
@@ -5070,10 +5109,10 @@
         <v>62</v>
       </c>
       <c r="I81" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5096,10 +5135,10 @@
         <v>12</v>
       </c>
       <c r="I82" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5125,18 +5164,18 @@
         <v>13</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" t="s">
         <v>417</v>
-      </c>
-      <c r="B84" t="s">
-        <v>418</v>
       </c>
       <c r="C84" t="s">
         <v>34</v>
@@ -5148,21 +5187,21 @@
         <v>251</v>
       </c>
       <c r="F84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" t="s">
         <v>325</v>
-      </c>
-      <c r="B85" t="s">
-        <v>326</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
@@ -5177,10 +5216,10 @@
         <v>77</v>
       </c>
       <c r="I85" t="s">
+        <v>695</v>
+      </c>
+      <c r="J85" t="s">
         <v>696</v>
-      </c>
-      <c r="J85" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5203,10 +5242,10 @@
         <v>149</v>
       </c>
       <c r="I86" t="s">
+        <v>697</v>
+      </c>
+      <c r="J86" t="s">
         <v>698</v>
-      </c>
-      <c r="J86" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5229,10 +5268,10 @@
         <v>282</v>
       </c>
       <c r="I87" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J87" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5255,10 +5294,10 @@
         <v>39</v>
       </c>
       <c r="I88" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J88" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5281,10 +5320,10 @@
         <v>194</v>
       </c>
       <c r="I89" t="s">
+        <v>701</v>
+      </c>
+      <c r="J89" t="s">
         <v>702</v>
-      </c>
-      <c r="J89" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5313,10 +5352,10 @@
         <v>236</v>
       </c>
       <c r="I90" t="s">
+        <v>703</v>
+      </c>
+      <c r="J90" t="s">
         <v>704</v>
-      </c>
-      <c r="J90" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5343,10 +5382,10 @@
       </c>
       <c r="H91" s="3"/>
       <c r="I91" t="s">
+        <v>705</v>
+      </c>
+      <c r="J91" t="s">
         <v>706</v>
-      </c>
-      <c r="J91" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5372,18 +5411,18 @@
         <v>13</v>
       </c>
       <c r="I92" t="s">
+        <v>707</v>
+      </c>
+      <c r="J92" t="s">
         <v>708</v>
-      </c>
-      <c r="J92" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
+        <v>413</v>
+      </c>
+      <c r="B93" t="s">
         <v>414</v>
-      </c>
-      <c r="B93" t="s">
-        <v>415</v>
       </c>
       <c r="C93" t="s">
         <v>37</v>
@@ -5395,13 +5434,13 @@
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J93" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5427,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="I94" t="s">
+        <v>710</v>
+      </c>
+      <c r="J94" t="s">
         <v>711</v>
-      </c>
-      <c r="J94" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5457,18 +5496,18 @@
       </c>
       <c r="H95" s="3"/>
       <c r="I95" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J95" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="4" customFormat="1">
       <c r="A96" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>10</v>
@@ -5480,21 +5519,21 @@
         <v>17</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" t="s">
         <v>489</v>
-      </c>
-      <c r="B97" t="s">
-        <v>490</v>
       </c>
       <c r="C97" t="s">
         <v>42</v>
@@ -5506,13 +5545,13 @@
         <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I97" t="s">
+        <v>714</v>
+      </c>
+      <c r="J97" t="s">
         <v>715</v>
-      </c>
-      <c r="J97" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5535,18 +5574,18 @@
         <v>170</v>
       </c>
       <c r="I98" t="s">
+        <v>716</v>
+      </c>
+      <c r="J98" t="s">
         <v>717</v>
-      </c>
-      <c r="J98" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
+        <v>346</v>
+      </c>
+      <c r="B99" t="s">
         <v>347</v>
-      </c>
-      <c r="B99" t="s">
-        <v>348</v>
       </c>
       <c r="C99" t="s">
         <v>47</v>
@@ -5561,10 +5600,10 @@
         <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J99" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="4" customFormat="1">
@@ -5591,18 +5630,18 @@
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
+        <v>469</v>
+      </c>
+      <c r="B101" t="s">
         <v>470</v>
-      </c>
-      <c r="B101" t="s">
-        <v>471</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -5614,13 +5653,13 @@
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I101" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J101" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5646,10 +5685,10 @@
         <v>235</v>
       </c>
       <c r="I102" t="s">
+        <v>722</v>
+      </c>
+      <c r="J102" t="s">
         <v>723</v>
-      </c>
-      <c r="J102" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5672,10 +5711,10 @@
         <v>53</v>
       </c>
       <c r="I103" t="s">
+        <v>724</v>
+      </c>
+      <c r="J103" t="s">
         <v>725</v>
-      </c>
-      <c r="J103" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="4" customFormat="1">
@@ -5701,10 +5740,10 @@
         <v>19</v>
       </c>
       <c r="I104" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="J104" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="17">
@@ -5733,10 +5772,10 @@
         <v>271</v>
       </c>
       <c r="I105" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J105" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5759,44 +5798,44 @@
         <v>262</v>
       </c>
       <c r="I106" t="s">
+        <v>729</v>
+      </c>
+      <c r="J106" t="s">
         <v>730</v>
-      </c>
-      <c r="J106" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="4" customFormat="1">
       <c r="A107" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I107" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="J107" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" t="s">
         <v>434</v>
-      </c>
-      <c r="B108" t="s">
-        <v>435</v>
       </c>
       <c r="C108" t="s">
         <v>66</v>
@@ -5811,10 +5850,10 @@
         <v>12</v>
       </c>
       <c r="I108" t="s">
+        <v>733</v>
+      </c>
+      <c r="J108" t="s">
         <v>734</v>
-      </c>
-      <c r="J108" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5837,21 +5876,21 @@
         <v>164</v>
       </c>
       <c r="I109" t="s">
+        <v>735</v>
+      </c>
+      <c r="J109" t="s">
         <v>736</v>
-      </c>
-      <c r="J109" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
+        <v>313</v>
+      </c>
+      <c r="B110" t="s">
         <v>314</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>315</v>
-      </c>
-      <c r="C110" t="s">
-        <v>316</v>
       </c>
       <c r="D110">
         <v>2012</v>
@@ -5863,18 +5902,18 @@
         <v>164</v>
       </c>
       <c r="I110" t="s">
+        <v>737</v>
+      </c>
+      <c r="J110" t="s">
         <v>738</v>
-      </c>
-      <c r="J110" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="4" customFormat="1">
       <c r="A111" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>23</v>
@@ -5889,10 +5928,10 @@
         <v>77</v>
       </c>
       <c r="I111" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5918,44 +5957,44 @@
         <v>13</v>
       </c>
       <c r="I112" t="s">
+        <v>741</v>
+      </c>
+      <c r="J112" t="s">
         <v>742</v>
-      </c>
-      <c r="J112" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
+        <v>525</v>
+      </c>
+      <c r="B113" t="s">
         <v>526</v>
       </c>
-      <c r="B113" t="s">
-        <v>527</v>
-      </c>
       <c r="C113" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D113">
         <v>1982</v>
       </c>
       <c r="E113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F113" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I113" t="s">
+        <v>743</v>
+      </c>
+      <c r="J113" t="s">
         <v>744</v>
-      </c>
-      <c r="J113" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="4" customFormat="1">
       <c r="A114" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>52</v>
@@ -5964,16 +6003,16 @@
         <v>9172</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I114" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="J114" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5999,18 +6038,18 @@
         <v>13</v>
       </c>
       <c r="I115" t="s">
+        <v>747</v>
+      </c>
+      <c r="J115" t="s">
         <v>748</v>
-      </c>
-      <c r="J115" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="4" customFormat="1">
       <c r="A116" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>42</v>
@@ -6022,21 +6061,21 @@
         <v>251</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I116" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="J116" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
+        <v>306</v>
+      </c>
+      <c r="B117" t="s">
         <v>307</v>
-      </c>
-      <c r="B117" t="s">
-        <v>308</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -6045,24 +6084,24 @@
         <v>1994</v>
       </c>
       <c r="E117" t="s">
+        <v>308</v>
+      </c>
+      <c r="F117" t="s">
         <v>309</v>
       </c>
-      <c r="F117" t="s">
-        <v>310</v>
-      </c>
       <c r="I117" t="s">
+        <v>751</v>
+      </c>
+      <c r="J117" t="s">
         <v>752</v>
-      </c>
-      <c r="J117" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="4" customFormat="1">
       <c r="A118" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>28</v>
@@ -6071,16 +6110,16 @@
         <v>2002</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I118" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="J118" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6106,18 +6145,18 @@
         <v>13</v>
       </c>
       <c r="I119" t="s">
+        <v>755</v>
+      </c>
+      <c r="J119" t="s">
         <v>756</v>
-      </c>
-      <c r="J119" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="4" customFormat="1">
       <c r="A120" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>23</v>
@@ -6126,24 +6165,24 @@
         <v>2018</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>42</v>
@@ -6152,18 +6191,18 @@
         <v>2017</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="J121" s="4" t="s">
         <v>760</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6186,18 +6225,18 @@
         <v>149</v>
       </c>
       <c r="I122" t="s">
+        <v>761</v>
+      </c>
+      <c r="J122" t="s">
         <v>762</v>
-      </c>
-      <c r="J122" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="4" customFormat="1">
       <c r="A123" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>10</v>
@@ -6209,13 +6248,13 @@
         <v>17</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I123" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="J123" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6242,10 +6281,10 @@
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="J124" t="s">
         <v>766</v>
-      </c>
-      <c r="J124" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6268,18 +6307,18 @@
         <v>203</v>
       </c>
       <c r="I125" t="s">
+        <v>767</v>
+      </c>
+      <c r="J125" t="s">
         <v>768</v>
-      </c>
-      <c r="J125" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" t="s">
         <v>401</v>
-      </c>
-      <c r="B126" t="s">
-        <v>402</v>
       </c>
       <c r="C126" t="s">
         <v>42</v>
@@ -6291,21 +6330,21 @@
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I126" t="s">
+        <v>769</v>
+      </c>
+      <c r="J126" t="s">
         <v>770</v>
-      </c>
-      <c r="J126" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="4" customFormat="1">
       <c r="A127" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>89</v>
@@ -6314,16 +6353,16 @@
         <v>1999</v>
       </c>
       <c r="E127" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="I127" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="J127" s="4" t="s">
         <v>772</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6349,10 +6388,10 @@
         <v>13</v>
       </c>
       <c r="I128" t="s">
+        <v>773</v>
+      </c>
+      <c r="J128" t="s">
         <v>774</v>
-      </c>
-      <c r="J128" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="4" customFormat="1">
@@ -6375,18 +6414,18 @@
         <v>288</v>
       </c>
       <c r="I129" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="J129" s="4" t="s">
         <v>776</v>
-      </c>
-      <c r="J129" s="4" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="4" customFormat="1">
       <c r="A130" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>10</v>
@@ -6395,16 +6434,16 @@
         <v>2006</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="4" customFormat="1">
@@ -6427,44 +6466,44 @@
         <v>275</v>
       </c>
       <c r="I131" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>780</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
+        <v>349</v>
+      </c>
+      <c r="B132" t="s">
         <v>350</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>351</v>
-      </c>
-      <c r="C132" t="s">
-        <v>352</v>
       </c>
       <c r="D132">
         <v>1997</v>
       </c>
       <c r="E132" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F132" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I132" t="s">
+        <v>781</v>
+      </c>
+      <c r="J132" t="s">
         <v>782</v>
-      </c>
-      <c r="J132" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" t="s">
         <v>317</v>
-      </c>
-      <c r="B133" t="s">
-        <v>318</v>
       </c>
       <c r="C133" t="s">
         <v>10</v>
@@ -6479,18 +6518,18 @@
         <v>77</v>
       </c>
       <c r="I133" t="s">
+        <v>783</v>
+      </c>
+      <c r="J133" t="s">
         <v>784</v>
-      </c>
-      <c r="J133" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
+        <v>423</v>
+      </c>
+      <c r="B134" t="s">
         <v>424</v>
-      </c>
-      <c r="B134" t="s">
-        <v>425</v>
       </c>
       <c r="C134" t="s">
         <v>42</v>
@@ -6499,16 +6538,16 @@
         <v>2008</v>
       </c>
       <c r="E134" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I134" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="J134" t="s">
         <v>786</v>
-      </c>
-      <c r="J134" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -6531,10 +6570,10 @@
         <v>138</v>
       </c>
       <c r="I135" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="J135" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="J135" s="5" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -6557,18 +6596,18 @@
         <v>215</v>
       </c>
       <c r="I136" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="J136" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="J136" s="5" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" t="s">
         <v>393</v>
-      </c>
-      <c r="B137" t="s">
-        <v>394</v>
       </c>
       <c r="C137" t="s">
         <v>89</v>
@@ -6577,27 +6616,27 @@
         <v>1991</v>
       </c>
       <c r="E137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I137" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="J137" t="s">
         <v>792</v>
-      </c>
-      <c r="J137" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="4" customFormat="1">
       <c r="A138" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D138" s="4">
         <v>1963</v>
@@ -6609,10 +6648,10 @@
         <v>12</v>
       </c>
       <c r="I138" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="J138" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6638,18 +6677,18 @@
         <v>13</v>
       </c>
       <c r="I139" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="J139" t="s">
         <v>796</v>
-      </c>
-      <c r="J139" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
+        <v>450</v>
+      </c>
+      <c r="B140" t="s">
         <v>451</v>
-      </c>
-      <c r="B140" t="s">
-        <v>452</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -6661,13 +6700,13 @@
         <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I140" t="s">
+        <v>797</v>
+      </c>
+      <c r="J140" t="s">
         <v>798</v>
-      </c>
-      <c r="J140" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="4" customFormat="1">
@@ -6690,50 +6729,62 @@
         <v>77</v>
       </c>
       <c r="I141" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="J141" s="4" t="s">
+    </row>
+    <row r="142" spans="1:10" s="4" customFormat="1">
+      <c r="A142" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1963</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" t="s">
-        <v>428</v>
-      </c>
-      <c r="B142" t="s">
-        <v>429</v>
-      </c>
-      <c r="C142" t="s">
-        <v>430</v>
-      </c>
-      <c r="D142">
-        <v>1963</v>
-      </c>
-      <c r="E142" t="s">
-        <v>251</v>
-      </c>
-      <c r="F142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" t="s">
+      <c r="J142" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="4" customFormat="1">
+      <c r="A143" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D143" s="4">
+        <v>2006</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C143" t="s">
-        <v>278</v>
-      </c>
-      <c r="D143">
-        <v>2006</v>
-      </c>
-      <c r="E143" t="s">
-        <v>484</v>
-      </c>
-      <c r="F143" t="s">
-        <v>483</v>
+      <c r="I143" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -6758,13 +6809,19 @@
       <c r="G144" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>805</v>
+      </c>
+      <c r="J144" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
+        <v>377</v>
+      </c>
+      <c r="B145" t="s">
         <v>378</v>
-      </c>
-      <c r="B145" t="s">
-        <v>379</v>
       </c>
       <c r="C145" t="s">
         <v>124</v>
@@ -6773,64 +6830,82 @@
         <v>2001</v>
       </c>
       <c r="E145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F145" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+        <v>379</v>
+      </c>
+      <c r="I145" t="s">
+        <v>807</v>
+      </c>
+      <c r="J145" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="4" customFormat="1">
+      <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="4">
         <v>1980</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="2" t="s">
+      <c r="I146" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="4" customFormat="1">
+      <c r="A147" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="4">
         <v>1991</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B148" t="s">
         <v>294</v>
-      </c>
-      <c r="B148" t="s">
-        <v>295</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
@@ -6847,13 +6922,19 @@
       <c r="G148" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>813</v>
+      </c>
+      <c r="J148" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C149" t="s">
         <v>137</v>
@@ -6868,7 +6949,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>258</v>
       </c>
@@ -6888,12 +6969,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" t="s">
         <v>299</v>
-      </c>
-      <c r="B151" t="s">
-        <v>300</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -6908,12 +6989,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
+        <v>453</v>
+      </c>
+      <c r="B152" t="s">
         <v>454</v>
-      </c>
-      <c r="B152" t="s">
-        <v>455</v>
       </c>
       <c r="C152" t="s">
         <v>52</v>
@@ -6925,15 +7006,15 @@
         <v>251</v>
       </c>
       <c r="F152" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
+        <v>365</v>
+      </c>
+      <c r="B153" t="s">
         <v>366</v>
-      </c>
-      <c r="B153" t="s">
-        <v>367</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -6948,12 +7029,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
+        <v>466</v>
+      </c>
+      <c r="B154" t="s">
         <v>467</v>
-      </c>
-      <c r="B154" t="s">
-        <v>468</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
@@ -6962,13 +7043,13 @@
         <v>1978</v>
       </c>
       <c r="E154" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F154" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>64</v>
       </c>
@@ -6988,7 +7069,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>243</v>
       </c>
@@ -7008,7 +7089,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
         <v>218</v>
       </c>
@@ -7031,7 +7112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
         <v>240</v>
       </c>
@@ -7057,7 +7138,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>130</v>
       </c>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B6360-ACB9-7245-BF90-07C0CDB76E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0ABE95-EF17-854E-8FD4-430F2C68F90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="520" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="837">
   <si>
     <t>Title</t>
   </si>
@@ -2495,6 +2495,72 @@
   </si>
   <si>
     <t>Douglas-fir had higher photosynthetic NUE and WUE at the coastal site than at the interior site. However it had higher biomass-based NUE at the interior site. Paper birch had higher nitrogen use efficiency (NUE) and water use efficiency (WUE) at the coastal site than at the interior site. Douglas-fir seedlings had significantly larger basal diameter and height at the coastal site than at the interior site throughout the growing season. Paper birch seedlings were taller in the early part of the growing season at the coastal than at the interior site, but there was no significant difference in basal diameter between the two sites. Douglasfir had significantly larger foliage, root, shoot and total biomass per plant at the coastal site than at the interior site. However, it had a lower root/shoot ratio at the coastal site, while the opposite was true for birch. The birch foliage, shoot, root and total biomass decreased significantly with increasing density at both sites, suggesting strong intra-specific competition. Douglas-fir experienced less intra-specific competition at both sites, and had greater negative effects on paper birch in terms of growth and biomass production at the coastal site than at the interior site. Paper birch had greater negative effects on Douglas-fir at the interior site than at the coastal site. Douglas-fir had greater RGR at the coastal site than at the interior site. In contrast, paper birch had greater a RGR at the interior site than at the coastal site. Douglas-fir had significantly greater relative competitive ability at the coastal site when grown in mixed culture with paper birch. In contrast, paper birch had.greater competitive ability at the interior site. Stem analysis of height growth patterns of the two species showed that height of Douglas-fir exceeded height of paper birch at about 45-50 years after stand establishment at the interior site. In comparison, Douglas-fir exceeded paper birch in height at about 25-30 years at the coastal site. Difference in height growth patterns of the two species at the two sites contributed to the explanation of differences in the persistence of paper birch in mixtures between these two biogeoclimatic subzones. Other factors between the two different study areas, such as differences in frequencies of natural fire, insect outbreak and forest diseases, may also be important in determining why paper birch is more abundant in the ICH zone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to quantify the relationship between ecological site quality and white spruce [Picea glauca (Moench) Voss] height growth, vegetation, soil, foliar nutrient, and stem analysis data were obtained from 102 white spruce-dominated stands across a wide range of sites throughout the Sub-Boreal Spruce (SBS) biogeoclimatic zone of central British Columbia. </t>
+  </si>
+  <si>
+    <t>(1)integration of easily measurable soil variables into synoptic variables and (2)stratification of the study stands according to soil moisture conditions improved the strength of site index-ecological site quality relationships. Depending on the availability of data, the stratified soil model (mean prediction error = 1.44 m), the soil moisture-aeration regime plus soil nutrient regime model (mean prediction error = 0.85 m), and the semi-empirical model (mean prediction error = 0.96 m) were recommended for operational application. Z ratio (the height at 60 years of age divided by the height at 30 years of age)was used to quantify white spruce height growth pattern and to stratify the study stands into seven Z-groups. Developing height growth models for each Z-group improved prediction precision compared to traditional height growth models. In spite of the changing height growth pattern among stands, neither site index nor any measure of ecological site quality was found to be the major source of the variation in the study stands. Three ecologically based, site-specific height growth models (site series group-specific model, edaphic unit-specific model, and site group-specific model) were developed. The edaphic unit- and site group-specific models, with mean error of estimate &lt;1 m, were recommended for predicting white spruce dominant height in the SBS zone, without using site index as a predictor. By developing synoptic measures of ecological quality for sub-boreal sites, this study gave further evidence of usefulness of these measures in predicting white spruce site index or stand dominant height.</t>
+  </si>
+  <si>
+    <t>This study investigated relationships between lodgepole pine {Pinus contorta Dougl. ex Loud.) height growth and ecological site quality. Vegetation, environmental, and stand data,</t>
+  </si>
+  <si>
+    <t>(1) ecotopes, defined either by a combination of categorical variables (biogeoclimatic subzone, soil moisture regime, and soil nutrient regime) (adj. R² = 0.85) or by a combination of continuous variables (potential evapotranspiration, and the depth of water table or gleyed soil horizons, and soil mineralizable-N) (adj. R² = 0.82), (2) site associations (adj. R² = 0.81), (3) site series (adj. R² = 0.84), and (4) vegetation units (adj. R² = 0.83). Lodgepole pine appears to have a potentigd to grow on nitrogen-rich sites with pH &lt; 7. The three-parameter Chapman-Richards growth fimction precisely described height growth of site trees over a wide range of sites. The pattern of height growth changed with ecological site quality. Site series and ecotope (defined either by a combination of categorical or continuous variables) had a stronger relationship with the function parameters than site index. The two site-specific height growth models developed—the site unit model and the ecotope model—were more effective than an existing site-index driven growth models. The above results support the use of either categorical or continuous synoptic ecological variables in describing the variation of lodgepole site index in relation to ecological site quality, which can be inferred from the understory vegetation developed in mid-seral stands. The derived site index and site-specific height growth models showed strong relationships between height growth and several measures of ecological site quality produced by biogeoclimatic ecosystem classification. In consequence, categorical or continuous ecological variables could be used in polymorphic growth modelling to predict lodgepole pine height growth so that the effects of site, and environmental changes, including management practices, on forest productivity can be better understood.</t>
+  </si>
+  <si>
+    <t>Understand how fertilizer affects western hemlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focussed on nutrient storage rather than growth </t>
+  </si>
+  <si>
+    <t>Understand factors affecting yellow cedar decline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">took a model selection approach but no information on growth impacts </t>
+  </si>
+  <si>
+    <t>This thesis explores the diversity of ectomycorrhizae of western hemlock (Tsuga heterophylla) in nutrient-poor environments and the role of fertilization on the ectomycorrhizal fungal community.</t>
+  </si>
+  <si>
+    <t>Fungal species were identified from sequenced clones using fast parsimony analysis. Assuming that clones with &gt; 97% identity were conspecific, 99 species were detected among 1004 clones sequenced. Fungal diversity was high and not significantly different across treatments. Species composition differed significantly in N + P plots compared to control plots or plots that received N alone. The presence of Cenococcum geophilum spl0 and Dermocybe cinnamomea were correlated with control and N plots, whereas the presence of Cenococcum geophilum sp8 and sp9, and Cortinarius spl8 and spl9 were correlated with N + P plots. Chapter Three of this thesis discusses limitations of a molecular approach to detecting fungal diversity, and ideas for future research to help elucidate the ecological roles of ectomycorrhizal fungi. This thesis contributes new knowledge about the diversity of western hemlock's ectomycorrhizal fungi and shows that N + P fertilization used in forest management has resulted in a long-lasting change in the ectomycorrhizal fungal community composition.</t>
+  </si>
+  <si>
+    <t>The understory aboveground nutrient cycles follow two basic patterns. The first pattern, a conservative cycle, is exemplified by nitrogen and phosphorus and has the following characteristics: (1) removal of nitrogen and phosphorus from overstory throughfall by the non-bryophyte understory, (2) estimated annual nitrogen and phosphorus uptake up bryophyte production in excess of the remaining throughfall nitrogen and phosphorus content and (3) a large proportion of the annual requirement was accounted for by internal redistribution within the understory plants. The second cycling pattern, an open cycle, is characteristic of calcium and magnesium and displays characteristics opposite to those of the "conservative cycle". The potassium, manganese, zinc, and copper cycles are intermediate between the "conservative" and "open" nutrient cycles. The results are discussed with respect to a proposed model of ecosystem function and it is hypothesized that understory plays a major role in maintaining ecosystem stability by promoting nutrient cycling.</t>
+  </si>
+  <si>
+    <t>A study was carried out to ascertain the biogeochemical role of understory vegetation in three representative sites characteristic of the Mountain Hemlock Biogeoclimatic Zone.</t>
+  </si>
+  <si>
+    <t>The influence of four commonly used site preparation methods (disc trenching, pile-and-burn, broadcast burn, no treatment) on soil microclimate, soil nutrients, bulk density, and early survival and growth of hybrid interior spruce (Picea glauca [Moench] Voss x engelmannii Parry ex. Engelm.) and lodgepole pine (Pinus contorta Dougl. ex. Loud.) seedlings were examined in plots established in the Engelmann Spruce - Sub alpine Fir (ESSF) zone in the northwest interior of British Columbia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Several soil nutrients in decayed wood, forest floor and 0-20 cm mineral layers were significantly affected by site preparation treatments. With the exception of total S, exchangeable K, mineralizable N in most treatments and total N in the pile-and-burn burned-pile microsite, soil nutrients and pH in decayed wood materials increased from pre-treatment to one season post-treatment. Nutrients of forest floor materials revealed greater microsite effects than decayed wood materials and may reflect greater biological activity in this uppermost layer. Nine and 12 months after pile and broadcast burning, respectively, there were significant increases in forest floor pH and exchangable and total Ca and Mg relative to untreated soils. Site preparation treatments which promote mixing (i.e. at the berrh and hinge) resulted in significant increases in many soil nutrients in the 0-20 cm layer, most notably total C and N . Greatest one-season losses of total N , S, and C from all three soil layers studied occurred in the pile-and-burn burned-pile microsite. Superior second-year root collar diameter and height increment growth of both planted species occurred on the broadcast burn and disc trench hinge microsites. Poorest growth of both species occurred on the pile-and-burn and untreated plots and was believed at least partially associated with higher soil moisture content and slow soil warming in early spring periods in this moist, cold biogeoclimatic subzone (ESSFmc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The objective of this study was to develop a high-level integration indicator that will characterize compaction of forest soils and that could be correlated to tree height growth. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The significance of levels of single soil properties in predicting maximum bulk density (MBD) were in the order: plastic and liquid limits, organic matter content, oxalate-extractable oxide, and PSD. Stratification of the sample according to Atterberg limits improved the predictability of MBD, and variation in particle density was included in the prediction by other soil properties used in the models. Height growth of interior Douglas-fir (Pseudotsuga menziesii var. glauca [Bessin] Franco) was restricted when relative bulk density (RBD) was &gt; 0.72. For lodgepole pine (Pinus contorta Dougl. ex Loud. var. latifolia Engelm.) and hybrid white spruce (Picea glauca [Moench] Voss × engelmannii Parry ex Engelm.), an RBD of 0.60 - 0.63 corresponded to maximum height growth, while that of 0.78 - 0.84 appeared to limit height growth. The presence of surface organic material mitigated compaction and was often associated with lower RBD. Interior Douglas-fir and lodgepole pine planted in low elevation sites in north-central BC did not grow well and their height growth was weakly related to RBD. The results suggest that soil rehabilitation should be considered on disturbed sites where soil RBD is &gt; 0.80. Findings in this study have implications in assessing forest soil compaction and its effect on site productivity. The results will help predict soil behaviour and associated tree growth in response to timber harvesting and site rehabilitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in order to investigate the effects on soil chemical properties, tree nutrient status, stand growth and yield, soil moisture availability and tree water status, tree photosynthesis, leaf area index and water use efficiency</t>
+  </si>
+  <si>
+    <t>Application of secondary biosolids significantly increased current year foliage, shoot and bud growth, current annual increments of DBH, height, and stand basal area, irrespective of biosolids application season, especially in the second year following treatment. There were no significant differences in the responses of soil chemistry, tree nutrition and growth between the 3% solids biosolids treatment and the dewatered/rewatered (with 3% biosolids) biosolids treatment. The spring biosolids application resulted in largest increases in soil N availability, foliar N concentration and growth in comparison with the summer and fall applications. Both 1000 and 1500 kg-N/ha biosolids treatments significantly increased soil N and P availability and foliar N concentration, but the former resulted in greater increases in tree growth than the latter; the 750 kg-N/ha treatment also increased tree growth, but to a lesser extent. The 225 kg-N/ha fertilizer treatment had a similar effect on soil N availability, tree N nutrition and growth, compared to the 750 kg-N/ha biosolids treatment, but it had little effect on total N, extractable P, and C/N ratio in the forest floor and mineral soil. The biosolids treatment increased soil water potential in the pot trial without seedlings, but there was no significant difference between biosolids treatments and control in the field trial with trees. Tree twig xylem water potential was significantly increased by the 1000 and 1500 kg-N/ha biosolids treatments during dry summertime, irrespective of biosolids application season. The secondary biosolids treatments significantly increased tree net photosynthetic rate, irrespective of stand age. Instantaneous water use efficiency and a measure of leaf area index were also increased in the biosolids-amended stands. The results in this study demonstrate that secondary biosolids fertilization significantly improved soil N and P availability, tree nutrition and growth, increased soil water storage, leaf area and photosynthetic efficiency, and reduced tree water stress, and that dewatered biosolids rewatered with 3% biosolids (1:3, v/v), spring, and 750-1000 kg-N/ha are considered to be the most appropriate biosolids type, application season and rate(s), respectively, in the study area.</t>
+  </si>
+  <si>
+    <t>Natural regeneration in spruce-dominated stands is seldom satisfactory in British Columbia. The present study was undertaken to identify pathogenic fungi residing in seedbeds in the ESSF and able to infect seed and seedlings of Engelmann spruce (Picea engelmannii Parry ex Engelm.) and subalpine fir (Abies lasiocarpa (Hook.) Nutt.), and to estimate the frequency of infection of naturally shed seed and seedling by such fungi in various natural and disturbed seedbeds</t>
+  </si>
+  <si>
+    <t>Engelmann spruce and subalpine fir seed over-wintered on natural forest floor seedbeds showed very poor seed survival. This was attributed to the presence of some pathogenic fungi in surface and organic layers which invaded and killed seed before snow melt. Average germination was 13% for Engelmann spruce and 12% for subalpine fir. Two major pathogenic fungi, an as yet unidentified black mold fungus and Rhizoctonia were responsible for the poor germination. Regression analysis showed that there was a significant linear relationship between frequency of the two pathogens and the viability of seed overwintered on various seedbeds. Another pathogenic pathogen, Caloscypha fulgens (Persoon) Boudier was also present on the undisturbed forest floor seedbeds in the ESSF and caused severe loss of Engelmann spruce seed under laboratory conditions. These pathogenic fungi reside mainly in litter and organic layers (L+F+H) of the forest floor. Exposure of mineral soil by removing surface and organic layers or scalping forest floor seedbeds was the best way to reduce the population of these pathogens and improved both Engelmann spruce and subalpine fir seed germination. Average germination on MIN was 57.3% for Engelmann spruce and 41.8% for subalpine fir, respectively. Removing only the litter layer significantly improves Engelmann spruce but not subalpine fir seed germination. Low seed viability and high frequency of pathogenic fungi also occurred on untreated forest floor seedbed in partially cut and clear-cut stands. Seedbed preparation such as the scalping forest floor is needed to reduce frequency of pathogens and to improve seed germination.</t>
+  </si>
+  <si>
+    <t>There is growing concern about the long term productivity of forests in British Columbia due to changing climatic conditions. Interior Douglas-fir, an economically and culturally valuable conifer species, has recently had inconsistent regeneration success in the dry climatic regions of its distribution due to high summer soil surface temperatures, drought and growing season frost. Seeds of interior Douglas-fir germinate after mixed severity disturbances, but their survival appears to depend on the size of disturbance gaps, environmental resources and conditions, and colonization by mycorrhizal fungal symbionts.</t>
+  </si>
+  <si>
+    <t>In the first experiment, regeneration failed in all canopy gap sizes and network treatments due to the harsh climatic conditions. There, neither protection in small gaps nor access to mycorrhizal networks were sufficient to create favourable regeneration conditions. In the second experiment, where the climate was cooler and wetter, seedling survival reached 74% in harvested gaps that were 80 – 300 m² in area, corresponding with greater soil moisture availability. Gaps of 20 – 80 m² were too small to initiate gap-phase regeneration, however, as indicated by low seed emergence and slow height growth rates. Gaps &gt;300 m² resulted in high emergence but low survival (26 %) due to low soil moisture availability. Access to mycorrhizal networks had minor effects on mycorrhizal colonization and water use efficiency. My study shows that regeneration potential of interior Douglas-fir is severely limited by the very dry, hot climate in the low elevation IDF forests, but can be increased in wetter, cooler climates with forest harvesting practices that create moderately sized canopy gaps.</t>
   </si>
 </sst>
 </file>
@@ -2908,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:A159"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6948,6 +7014,12 @@
       <c r="F149" t="s">
         <v>239</v>
       </c>
+      <c r="I149" t="s">
+        <v>815</v>
+      </c>
+      <c r="J149" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
@@ -6968,45 +7040,63 @@
       <c r="F150" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" t="s">
+      <c r="I150" t="s">
+        <v>817</v>
+      </c>
+      <c r="J150" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="4" customFormat="1">
+      <c r="A151" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="4">
         <v>2000</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" t="s">
+      <c r="I151" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="4" customFormat="1">
+      <c r="A152" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="4">
         <v>2010</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="4" t="s">
         <v>455</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -7028,6 +7118,12 @@
       <c r="F153" t="s">
         <v>77</v>
       </c>
+      <c r="I153" t="s">
+        <v>823</v>
+      </c>
+      <c r="J153" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
@@ -7048,6 +7144,12 @@
       <c r="F154" t="s">
         <v>468</v>
       </c>
+      <c r="I154" t="s">
+        <v>826</v>
+      </c>
+      <c r="J154" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
@@ -7068,6 +7170,12 @@
       <c r="F155" t="s">
         <v>67</v>
       </c>
+      <c r="I155" t="s">
+        <v>827</v>
+      </c>
+      <c r="J155" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
@@ -7088,6 +7196,12 @@
       <c r="F156" t="s">
         <v>246</v>
       </c>
+      <c r="I156" t="s">
+        <v>829</v>
+      </c>
+      <c r="J156" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="1" t="s">
@@ -7111,6 +7225,12 @@
       <c r="G157" t="s">
         <v>13</v>
       </c>
+      <c r="I157" t="s">
+        <v>831</v>
+      </c>
+      <c r="J157" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
@@ -7137,6 +7257,12 @@
       <c r="H158" t="s">
         <v>242</v>
       </c>
+      <c r="I158" t="s">
+        <v>833</v>
+      </c>
+      <c r="J158" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
@@ -7156,6 +7282,12 @@
       </c>
       <c r="F159" t="s">
         <v>12</v>
+      </c>
+      <c r="I159" t="s">
+        <v>835</v>
+      </c>
+      <c r="J159" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0ABE95-EF17-854E-8FD4-430F2C68F90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2BA82-A605-924A-AE83-342E3319CAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="838">
   <si>
     <t>Title</t>
   </si>
@@ -2561,20 +2561,16 @@
   </si>
   <si>
     <t>In the first experiment, regeneration failed in all canopy gap sizes and network treatments due to the harsh climatic conditions. There, neither protection in small gaps nor access to mycorrhizal networks were sufficient to create favourable regeneration conditions. In the second experiment, where the climate was cooler and wetter, seedling survival reached 74% in harvested gaps that were 80 – 300 m² in area, corresponding with greater soil moisture availability. Gaps of 20 – 80 m² were too small to initiate gap-phase regeneration, however, as indicated by low seed emergence and slow height growth rates. Gaps &gt;300 m² resulted in high emergence but low survival (26 %) due to low soil moisture availability. Access to mycorrhizal networks had minor effects on mycorrhizal colonization and water use efficiency. My study shows that regeneration potential of interior Douglas-fir is severely limited by the very dry, hot climate in the low elevation IDF forests, but can be increased in wetter, cooler climates with forest harvesting practices that create moderately sized canopy gaps.</t>
+  </si>
+  <si>
+    <t>Relevent Y/N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2590,18 +2586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -2610,18 +2594,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF222222"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2643,19 +2627,17 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2974,4321 +2956,5363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
   <dimension ref="A1:N159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2010</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1996</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2014</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1995</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2006</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>2018</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>2003</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>2003</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1993</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1983</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>2010</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>1999</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I14" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1964</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>1978</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>2001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1954</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>1998</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I19" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2008</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="5" customFormat="1">
-      <c r="A21" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1">
+      <c r="A21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>2013</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6" t="s">
+      <c r="L21" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>2000</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>2004</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="K23" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+      <c r="L23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1985</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>1955</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2000</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>1997</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>1994</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>2010</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>1998</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="3" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>1994</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>1995</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="3" t="s">
         <v>598</v>
       </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>1991</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>1971</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="3" t="s">
         <v>602</v>
       </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>1996</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I35" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>604</v>
       </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>1997</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I36" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>606</v>
       </c>
+      <c r="L36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1998</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I37" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>609</v>
       </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>2001</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I38" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>611</v>
       </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>1985</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>333</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>613</v>
       </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>1986</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I40" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="3" t="s">
         <v>615</v>
       </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>1972</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I41" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="2" t="s">
         <v>617</v>
       </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>2008</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="3" t="s">
         <v>619</v>
       </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>1992</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="2" t="s">
         <v>622</v>
       </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>1995</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I44" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="3" t="s">
         <v>624</v>
       </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>1994</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>626</v>
       </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1994</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="3" t="s">
         <v>628</v>
       </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>1987</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="2" t="s">
         <v>630</v>
       </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>1990</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I48" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="3" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
+      <c r="K48" s="2"/>
+      <c r="L48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>1984</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I49" t="s">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
+      <c r="K49" s="2"/>
+      <c r="L49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>1989</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I50" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="4" customFormat="1">
-      <c r="A51" s="4" t="s">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" s="1" customFormat="1">
+      <c r="A51" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>1997</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="J51" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
+      <c r="K51" s="2"/>
+      <c r="L51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>2000</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I52" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
+      <c r="K52" s="2"/>
+      <c r="L52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>1993</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I53" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="K53" s="2"/>
+      <c r="L53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>2000</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="s">
+      <c r="K54" s="2"/>
+      <c r="L54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>1998</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I55" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>1985</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I56" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" s="4" customFormat="1">
-      <c r="A57" s="4" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1">
+      <c r="A57" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>2013</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>2015</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
+      <c r="K58" s="2"/>
+      <c r="L58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>2012</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="I59" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>2011</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I60" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>1997</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I61" t="s">
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>1976</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="I62" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>2009</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I63" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>1960</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" s="2"/>
+      <c r="I64" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="4" customFormat="1">
-      <c r="A65" s="4" t="s">
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" s="1" customFormat="1">
+      <c r="A65" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>1965</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="J65" s="4" t="s">
+      <c r="J65" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>2004</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I66" t="s">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="17">
-      <c r="A67" s="1" t="s">
+      <c r="K66" s="2"/>
+      <c r="L66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" ht="17">
+      <c r="A67" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>2000</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
+      <c r="K67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>1993</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>1969</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I69" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="4" customFormat="1">
-      <c r="A70" s="4" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" s="1" customFormat="1">
+      <c r="A70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="2">
         <v>1998</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>1997</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>2001</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="4" customFormat="1">
-      <c r="A73" s="4" t="s">
+      <c r="K72" s="2"/>
+      <c r="L72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" s="1" customFormat="1">
+      <c r="A73" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
         <v>1971</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
+      <c r="K73" s="2"/>
+      <c r="L73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <v>2003</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>1961</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I75" t="s">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>2001</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I76" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="4" customFormat="1">
-      <c r="A77" s="4" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1">
+      <c r="A77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
         <v>1989</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>2000</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I78" t="s">
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>2003</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I79" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" s="4" customFormat="1">
-      <c r="A80" s="4" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1">
+      <c r="A80" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="2">
         <v>2019</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="4" customFormat="1">
-      <c r="A81" s="4" t="s">
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1">
+      <c r="A81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" s="2">
         <v>1967</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="J81" s="4" t="s">
+      <c r="J81" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>2002</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="J82" s="5" t="s">
+      <c r="J82" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <v>1989</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <v>2016</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="3" t="s">
         <v>416</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <v>2010</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I85" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <v>2013</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I86" t="s">
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <v>2011</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I87" t="s">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>1986</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I88" t="s">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89">
+      <c r="C89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="2">
         <v>2009</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I89" t="s">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1" t="s">
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>2015</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <v>2003</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91" t="s">
+      <c r="I91" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <v>1998</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>1984</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I93" t="s">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>2000</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>2007</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="3"/>
-      <c r="I95" t="s">
+      <c r="I95" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" s="4" customFormat="1">
-      <c r="A96" s="4" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" s="1" customFormat="1">
+      <c r="A96" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>2013</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <v>1988</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I97" t="s">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <v>1993</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I98" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <v>1957</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" s="4" customFormat="1">
+      <c r="K99" s="2"/>
+      <c r="L99" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" s="1" customFormat="1">
       <c r="A100" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="2">
         <v>1976</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J100" s="4" t="s">
+      <c r="J100" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" t="s">
+      <c r="K100" s="2"/>
+      <c r="L100" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>2020</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="I101" t="s">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
+      <c r="K101" s="2"/>
+      <c r="L101" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <v>1984</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I102" t="s">
+      <c r="H102" s="2"/>
+      <c r="I102" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" t="s">
+      <c r="K102" s="2"/>
+      <c r="L102" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>1991</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I103" t="s">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" s="4" customFormat="1">
-      <c r="A104" s="4" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" s="1" customFormat="1">
+      <c r="A104" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="2">
         <v>1999</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="H104" s="2"/>
+      <c r="I104" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J104" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="17">
-      <c r="A105" s="1" t="s">
+      <c r="K104" s="2"/>
+      <c r="L104" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" ht="17">
+      <c r="A105" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>1954</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
-      <c r="A106" t="s">
+      <c r="K105" s="2"/>
+      <c r="L105" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>1992</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I106" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" s="4" customFormat="1">
-      <c r="A107" s="4" t="s">
+      <c r="K106" s="2"/>
+      <c r="L106" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" s="1" customFormat="1">
+      <c r="A107" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="2">
         <v>2012</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="J107" s="4" t="s">
+      <c r="J107" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
-      <c r="A108" t="s">
+      <c r="K107" s="2"/>
+      <c r="L107" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>1959</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I108" t="s">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" t="s">
+      <c r="K108" s="2"/>
+      <c r="L108" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>2004</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I109" t="s">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="2" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>2012</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I110" t="s">
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" s="4" customFormat="1">
-      <c r="A111" s="4" t="s">
+      <c r="K110" s="2"/>
+      <c r="L110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M110" s="2"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1">
+      <c r="A111" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="2">
         <v>1985</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="J111" s="4" t="s">
+      <c r="J111" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" s="2"/>
+      <c r="L111" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M111" s="2"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>1999</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I112" t="s">
+      <c r="H112" s="2"/>
+      <c r="I112" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113" t="s">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>1982</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="I113" t="s">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" s="4" customFormat="1">
-      <c r="A114" s="4" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1">
+      <c r="A114" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="2">
         <v>9172</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="J114" s="4" t="s">
+      <c r="J114" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1" t="s">
+      <c r="K114" s="2"/>
+      <c r="L114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M114" s="2"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>2018</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I115" t="s">
+      <c r="H115" s="2"/>
+      <c r="I115" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" s="4" customFormat="1">
-      <c r="A116" s="4" t="s">
+      <c r="K115" s="2"/>
+      <c r="L115" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M115" s="2"/>
+    </row>
+    <row r="116" spans="1:13" s="1" customFormat="1">
+      <c r="A116" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="2">
         <v>1955</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J116" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
-      <c r="A117" t="s">
+      <c r="K116" s="2"/>
+      <c r="L116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>1994</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="I117" t="s">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" s="4" customFormat="1">
-      <c r="A118" s="4" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1">
+      <c r="A118" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
         <v>2002</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="J118" s="4" t="s">
+      <c r="J118" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
-      <c r="A119" t="s">
+      <c r="K118" s="2"/>
+      <c r="L118" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>1997</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I119" t="s">
+      <c r="H119" s="2"/>
+      <c r="I119" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" s="4" customFormat="1">
-      <c r="A120" s="4" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1">
+      <c r="A120" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="2">
         <v>2018</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J120" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="4" t="s">
+      <c r="K120" s="2"/>
+      <c r="L120" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="2">
         <v>2017</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4" t="s">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
-      <c r="A122" t="s">
+      <c r="K121" s="2"/>
+      <c r="L121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="2">
         <v>1992</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I122" t="s">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1">
+      <c r="A123" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="2">
         <v>1999</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="J123" s="4" t="s">
+      <c r="J123" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>2010</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="4"/>
-      <c r="I124" s="5" t="s">
+      <c r="H124" s="2"/>
+      <c r="I124" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
-      <c r="A125" t="s">
+      <c r="K124" s="2"/>
+      <c r="L124" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>1949</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I125" t="s">
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>1990</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I126" t="s">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" s="4" customFormat="1">
-      <c r="A127" s="4" t="s">
+      <c r="K126" s="2"/>
+      <c r="L126" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" s="1" customFormat="1">
+      <c r="A127" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="2">
         <v>1999</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="I127" s="4" t="s">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J127" s="4" t="s">
+      <c r="J127" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>1959</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I128" t="s">
+      <c r="H128" s="2"/>
+      <c r="I128" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" s="4" customFormat="1">
-      <c r="A129" s="4" t="s">
+      <c r="K128" s="2"/>
+      <c r="L128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13" s="1" customFormat="1">
+      <c r="A129" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="2">
         <v>2007</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I129" s="4" t="s">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="J129" s="4" t="s">
+      <c r="J129" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" s="1" customFormat="1">
+      <c r="A130" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="2">
         <v>2006</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I130" s="4" t="s">
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="J130" s="4" t="s">
+      <c r="J130" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" s="4" customFormat="1">
-      <c r="A131" s="4" t="s">
+      <c r="K130" s="2"/>
+      <c r="L130" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" s="1" customFormat="1">
+      <c r="A131" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="2">
         <v>1977</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I131" s="4" t="s">
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="J131" s="4" t="s">
+      <c r="J131" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132" t="s">
+      <c r="K131" s="2"/>
+      <c r="L131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>1997</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I132" t="s">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" t="s">
+      <c r="K132" s="2"/>
+      <c r="L132" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>1961</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I133" t="s">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" t="s">
+      <c r="K133" s="2"/>
+      <c r="L133" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>2008</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" t="s">
+      <c r="K134" s="2"/>
+      <c r="L134" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M134" s="2"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>1983</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J135" s="5" t="s">
+      <c r="J135" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M135" s="2"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>1998</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="J136" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137" t="s">
+      <c r="K136" s="2"/>
+      <c r="L136" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M136" s="2"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="2">
         <v>1991</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" s="4" customFormat="1">
-      <c r="A138" s="4" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" s="1" customFormat="1">
+      <c r="A138" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="2">
         <v>1963</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I138" s="4" t="s">
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="J138" s="4" t="s">
+      <c r="J138" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="1" t="s">
+      <c r="K138" s="2"/>
+      <c r="L138" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M138" s="2"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="2">
         <v>2016</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="H139" s="2"/>
+      <c r="I139" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140" t="s">
+      <c r="K139" s="2"/>
+      <c r="L139" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M139" s="2"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="2">
         <v>1987</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="I140" t="s">
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" s="4" customFormat="1">
-      <c r="A141" s="4" t="s">
+      <c r="K140" s="2"/>
+      <c r="L140" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M140" s="2"/>
+    </row>
+    <row r="141" spans="1:13" s="1" customFormat="1">
+      <c r="A141" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="2">
         <v>1980</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J141" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" s="4" customFormat="1">
-      <c r="A142" s="4" t="s">
+      <c r="K141" s="2"/>
+      <c r="L141" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" s="1" customFormat="1">
+      <c r="A142" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="2">
         <v>1963</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J142" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" s="4" customFormat="1">
-      <c r="A143" s="4" t="s">
+      <c r="K142" s="2"/>
+      <c r="L142" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M142" s="2"/>
+    </row>
+    <row r="143" spans="1:13" s="1" customFormat="1">
+      <c r="A143" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="2">
         <v>2006</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I143" s="4" t="s">
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="1" t="s">
+      <c r="K143" s="2"/>
+      <c r="L143" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M143" s="2"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="2">
         <v>1997</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I144" t="s">
+      <c r="H144" s="2"/>
+      <c r="I144" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" t="s">
+      <c r="K144" s="2"/>
+      <c r="L144" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M144" s="2"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="2">
         <v>2001</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I145" t="s">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" s="4" customFormat="1">
-      <c r="A146" s="4" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M145" s="2"/>
+    </row>
+    <row r="146" spans="1:13" s="1" customFormat="1">
+      <c r="A146" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="2">
         <v>1980</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I146" s="4" t="s">
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J146" s="4" t="s">
+      <c r="J146" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" s="4" customFormat="1">
-      <c r="A147" s="4" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M146" s="2"/>
+    </row>
+    <row r="147" spans="1:13" s="1" customFormat="1">
+      <c r="A147" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="2">
         <v>1991</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I147" s="4" t="s">
+      <c r="I147" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="J147" s="4" t="s">
+      <c r="J147" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="1" t="s">
+      <c r="K147" s="2"/>
+      <c r="L147" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M147" s="2"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="2">
         <v>1997</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I148" t="s">
+      <c r="H148" s="2"/>
+      <c r="I148" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" t="s">
+      <c r="K148" s="2"/>
+      <c r="L148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>1993</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I149" t="s">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="A150" t="s">
+      <c r="K149" s="2"/>
+      <c r="L149" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="2">
         <v>1992</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I150" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" s="4" customFormat="1">
-      <c r="A151" s="4" t="s">
+      <c r="K150" s="2"/>
+      <c r="L150" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M150" s="2"/>
+    </row>
+    <row r="151" spans="1:13" s="1" customFormat="1">
+      <c r="A151" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="2">
         <v>2000</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J151" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" s="4" customFormat="1">
-      <c r="A152" s="4" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M151" s="2"/>
+    </row>
+    <row r="152" spans="1:13" s="1" customFormat="1">
+      <c r="A152" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="2">
         <v>2010</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I152" s="4" t="s">
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="J152" s="4" t="s">
+      <c r="J152" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" t="s">
+      <c r="K152" s="2"/>
+      <c r="L152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M152" s="2"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="2">
         <v>2005</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I153" t="s">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="A154" t="s">
+      <c r="K153" s="2"/>
+      <c r="L153" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M153" s="2"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>1978</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I154" t="s">
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" t="s">
+      <c r="K154" s="2"/>
+      <c r="L154" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M154" s="2"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="2">
         <v>1996</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I155" t="s">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M155" s="2"/>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C156" t="s">
-        <v>193</v>
-      </c>
-      <c r="D156">
+      <c r="C156" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" s="2">
         <v>2009</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I156" t="s">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="1" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M156" s="2"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="2">
         <v>1998</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I157" t="s">
+      <c r="H157" s="2"/>
+      <c r="I157" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157" s="2"/>
+      <c r="L157" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M157" s="2"/>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="2">
         <v>1997</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" t="s">
+      <c r="K158" s="2"/>
+      <c r="L158" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M158" s="2"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="2">
         <v>2015</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I159" t="s">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" s="2" t="s">
         <v>836</v>
       </c>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M159" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H159" xr:uid="{C4661730-15EF-D74B-AA2D-D46848E18CF6}">

--- a/notes/Literature_Search_3.0.xlsx
+++ b/notes/Literature_Search_3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Coexistence-in-BC-Forests/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2BA82-A605-924A-AE83-342E3319CAC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0DCEED-7846-EC4F-98E6-BBD9BC413DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14740" xr2:uid="{DCDC09B4-4F80-784A-A785-4F879609AB99}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$159</definedName>
     <definedName name="datadict_sample_bymsmt">#REF!</definedName>
     <definedName name="datadict_standtable_bymsmt">#REF!</definedName>
     <definedName name="header_dict">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="840">
   <si>
     <t>Title</t>
   </si>
@@ -520,9 +520,6 @@
     <t>Regeneration of trees is dependent on snow cover especially over high elevations</t>
   </si>
   <si>
-    <t>no BC</t>
-  </si>
-  <si>
     <t>Influence of cambial ageing, initial spacing, stem taper and growth rate on the wood quality of three coastal conifers</t>
   </si>
   <si>
@@ -2564,6 +2561,15 @@
   </si>
   <si>
     <t>Relevent Y/N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In decreasing order of importance, as determined by DFD indices, Subzone trees are Tsuga heterophylla, Thuja plicata. Pinus monticola, Pseudotsuga menziesii, Betula papyrifera, Picea engelmannii, Larix occidentalis, Populus tremuloides, Pinus contorta, Populus trichocarpa. Abies lasiocarpa and Abies grandis. Most rapid tree height growth of Thuja plicata, Pseudotsuga menziesii, Pinus monticola and Picea engel-mannii occurs in Devil's Club communities; of Tsuga heterophylla, Larix occidentalis, Pinus contorta, Betula papyrifera, Populus tremuloides in Aralia Oakfern communities; and of Populus trichocarpa in Alluvial Complexes. Forest types are more productive in pioneer than in climax stages. Estimates of net primary productivity and standing crop of forest types for tree trunks of all tree species summed as one, showed that the greatest pioneer- conifer stand productivity (1251 kilogram/ hectare/year) and climax stand standing crop (180 x 10³ kg/ha) belong to the Devil's Club association, and the least productive (126 kg/ha/yr) and lowest standing crop (15 x 10³ kg/ha) to the Lichen association. It is concluded that biogeocoenotic classification provides a sound basis for land use planning in this region, and should be applicable to other areas.</t>
+  </si>
+  <si>
+    <t>The objectives of this research were to study: 1) variation in the environments within which Engelmann spruce establishes on subalpine cutovers; 2) the performance of planted seedlings in these environments both with and without interference from non-crop species; 3) the relationship between the growth of planted seedlings and naturally established Engelmann spruce and; 4) the responses of non-crop species to post-logging disturbances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There were significant differences between the characteristics of planted and naturally established Engelmann spruce seedlings. Open-grown planted seedlings were larger than naturals of the same age and had higher relative growth rates, but similar ratios of needle:stem biomass. Shaded planted seedlings were also larger than naturals but had lower relative growth rates and lower ratios of needle:stem biomass. There were also differences between naturals and planted seedlings in the morphology of root systems. After the removal of above-ground vegetation, dominant herbs re-established cover within one season, mainly from persistent below-ground structures. Dominant shrubs recovered more slowly but were not replaced by new species, even after the removal of both above- and below-ground biomass. Shifts to new dominants occurred after the removal of total biomass in herb patches and also in undisturbed herb patches. Species shifts in undisturbed herb patches as well as increases in total cover in both herb and shrub patches over the study period suggested that the plant communities on the study sites were not at equilibrium. The results of this research indicated that shifts in carbon allocation within seedlings are not part of Engelmann spruce's strategy for establishment in heterogeneous subalpine environments. It is suggested that patterns of growth are conservative rather than competitive and that increased levels of resources must be delivered directly to seedlings to improve early performance. The removal of non-crop vegetation is one way to do this but dominant non-crop species, particularly herbs, will re-establish rapidly relative to the rate of spruce establishment, suggesting limited benefits from vegetation management on subalpine cutovers. Any form of harvesting that causes mimimum understorey disturbance on these sites will result in levels of spruce regeneration that fail to meet current stocking standards. Planting large and vigorous seedlings in areas where resources are high and interference is low may alleviate this problem, but changing silvicultural expectations to better reflect the constraints on conifer regeneration in subalpine environments may be a more effective solution.</t>
   </si>
 </sst>
 </file>
@@ -2954,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CE7A9-FE74-7347-83DA-3841B156FAC8}">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L117" sqref="L117"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2988,25 +2994,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -3015,31 +3021,31 @@
         <v>2001</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -3051,28 +3057,28 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>66</v>
@@ -3081,31 +3087,31 @@
         <v>1996</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -3114,22 +3120,22 @@
         <v>2014</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -3159,14 +3165,14 @@
         <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -3192,56 +3198,56 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2">
         <v>2018</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
@@ -3253,28 +3259,28 @@
         <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>89</v>
@@ -3283,31 +3289,31 @@
         <v>2003</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>42</v>
@@ -3319,30 +3325,30 @@
         <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>42</v>
@@ -3354,19 +3360,19 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -3394,26 +3400,26 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D14" s="2">
         <v>1999</v>
@@ -3422,28 +3428,28 @@
         <v>17</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -3452,25 +3458,31 @@
         <v>1964</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>837</v>
+      </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>124</v>
@@ -3482,30 +3494,30 @@
         <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
@@ -3522,23 +3534,23 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>70</v>
@@ -3555,14 +3567,14 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -3588,23 +3600,23 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>42</v>
@@ -3616,19 +3628,19 @@
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M20" s="2"/>
     </row>
@@ -3652,21 +3664,21 @@
         <v>116</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>89</v>
@@ -3675,26 +3687,26 @@
         <v>2000</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -3759,23 +3771,23 @@
         <v>81</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>52</v>
@@ -3787,28 +3799,28 @@
         <v>38</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>66</v>
@@ -3820,19 +3832,19 @@
         <v>17</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M26" s="2"/>
     </row>
@@ -3862,23 +3874,23 @@
         <v>155</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
@@ -3887,7 +3899,7 @@
         <v>1994</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>149</v>
@@ -3895,23 +3907,23 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -3920,31 +3932,31 @@
         <v>2010</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -3961,23 +3973,23 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>137</v>
@@ -3986,7 +3998,7 @@
         <v>1994</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>62</v>
@@ -3994,26 +4006,26 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2">
         <v>1995</v>
@@ -4022,28 +4034,28 @@
         <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>52</v>
@@ -4052,25 +4064,31 @@
         <v>1991</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>52</v>
@@ -4079,7 +4097,7 @@
         <v>1971</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
@@ -4087,23 +4105,23 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>16</v>
@@ -4120,18 +4138,18 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -4153,20 +4171,20 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="L36" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
@@ -4188,18 +4206,18 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>133</v>
       </c>
@@ -4221,26 +4239,23 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>47</v>
@@ -4249,35 +4264,35 @@
         <v>1985</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>66</v>
@@ -4294,23 +4309,23 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>28</v>
@@ -4322,63 +4337,63 @@
         <v>17</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D42" s="2">
         <v>2008</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>619</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>124</v>
@@ -4390,28 +4405,28 @@
         <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>89</v>
@@ -4423,23 +4438,23 @@
         <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -4453,7 +4468,7 @@
         <v>1994</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>98</v>
@@ -4463,18 +4478,18 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
@@ -4500,23 +4515,23 @@
         <v>31</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>52</v>
@@ -4535,23 +4550,23 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>47</v>
@@ -4563,28 +4578,28 @@
         <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -4596,28 +4611,28 @@
         <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>34</v>
@@ -4626,31 +4641,31 @@
         <v>1989</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>66</v>
@@ -4659,18 +4674,18 @@
         <v>1997</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
@@ -4680,10 +4695,10 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -4695,28 +4710,28 @@
         <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>47</v>
@@ -4728,28 +4743,28 @@
         <v>115</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>47</v>
@@ -4758,26 +4773,26 @@
         <v>2000</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I54" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M54" s="2"/>
     </row>
@@ -4803,23 +4818,23 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>66</v>
@@ -4831,28 +4846,28 @@
         <v>17</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>42</v>
@@ -4861,18 +4876,18 @@
         <v>2013</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
@@ -4906,23 +4921,23 @@
         <v>20</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>23</v>
@@ -4931,31 +4946,31 @@
         <v>2012</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>47</v>
@@ -4964,31 +4979,31 @@
         <v>2011</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>10</v>
@@ -4997,31 +5012,31 @@
         <v>1997</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
@@ -5033,28 +5048,28 @@
         <v>56</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>52</v>
@@ -5063,7 +5078,7 @@
         <v>2009</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>73</v>
@@ -5071,14 +5086,14 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M63" s="2"/>
     </row>
@@ -5106,14 +5121,14 @@
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M64" s="2"/>
     </row>
@@ -5139,10 +5154,10 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
@@ -5172,23 +5187,23 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" ht="17">
       <c r="A67" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>137</v>
@@ -5197,33 +5212,33 @@
         <v>2000</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>47</v>
@@ -5235,19 +5250,19 @@
         <v>17</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M68" s="2"/>
     </row>
@@ -5273,32 +5288,32 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D70" s="2">
         <v>1998</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>62</v>
@@ -5306,10 +5321,10 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2" t="s">
@@ -5319,10 +5334,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>89</v>
@@ -5331,35 +5346,35 @@
         <v>1997</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I71" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>89</v>
@@ -5368,35 +5383,35 @@
         <v>2001</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I72" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1">
       <c r="A73" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
@@ -5405,18 +5420,18 @@
         <v>1971</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2" t="s">
@@ -5426,10 +5441,10 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
@@ -5438,7 +5453,7 @@
         <v>2003</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>126</v>
@@ -5448,23 +5463,23 @@
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>42</v>
@@ -5473,7 +5488,7 @@
         <v>1961</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
@@ -5481,23 +5496,23 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -5506,22 +5521,22 @@
         <v>2001</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M76" s="2"/>
     </row>
@@ -5547,10 +5562,10 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2" t="s">
@@ -5560,10 +5575,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -5572,31 +5587,31 @@
         <v>2000</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>16</v>
@@ -5608,28 +5623,28 @@
         <v>17</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1">
       <c r="A80" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
@@ -5638,18 +5653,18 @@
         <v>2019</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2" t="s">
@@ -5659,19 +5674,19 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1">
       <c r="A81" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D81" s="2">
         <v>1967</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>62</v>
@@ -5679,10 +5694,10 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="2" t="s">
@@ -5692,10 +5707,10 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>52</v>
@@ -5704,7 +5719,7 @@
         <v>2002</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>12</v>
@@ -5712,14 +5727,14 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M82" s="2"/>
     </row>
@@ -5747,23 +5762,23 @@
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -5772,31 +5787,31 @@
         <v>2016</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -5813,23 +5828,23 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>124</v>
@@ -5838,7 +5853,7 @@
         <v>2013</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>149</v>
@@ -5846,23 +5861,23 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>124</v>
@@ -5874,19 +5889,19 @@
         <v>17</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M87" s="2"/>
     </row>
@@ -5912,56 +5927,56 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D89" s="2">
         <v>2009</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>66</v>
@@ -5970,26 +5985,26 @@
         <v>2015</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="I90" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M90" s="2"/>
     </row>
@@ -6017,23 +6032,23 @@
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>66</v>
@@ -6042,33 +6057,33 @@
         <v>1998</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M92" s="2"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>37</v>
@@ -6080,19 +6095,19 @@
         <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M93" s="2"/>
     </row>
@@ -6120,14 +6135,14 @@
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M94" s="2"/>
     </row>
@@ -6155,23 +6170,23 @@
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M95" s="2"/>
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1">
       <c r="A96" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -6183,15 +6198,15 @@
         <v>17</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2" t="s">
@@ -6201,10 +6216,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>42</v>
@@ -6216,28 +6231,28 @@
         <v>24</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>66</v>
@@ -6246,31 +6261,31 @@
         <v>1993</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>47</v>
@@ -6287,14 +6302,14 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M99" s="2"/>
     </row>
@@ -6322,10 +6337,10 @@
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2" t="s">
@@ -6335,10 +6350,10 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -6350,28 +6365,28 @@
         <v>17</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>103</v>
@@ -6383,21 +6398,21 @@
         <v>38</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M102" s="2"/>
     </row>
@@ -6423,23 +6438,23 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1">
       <c r="A104" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -6448,20 +6463,20 @@
         <v>1999</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2" t="s">
@@ -6471,10 +6486,10 @@
     </row>
     <row r="105" spans="1:13" ht="17">
       <c r="A105" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>42</v>
@@ -6483,35 +6498,35 @@
         <v>1954</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H105" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="I105" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>28</v>
@@ -6523,48 +6538,48 @@
         <v>17</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1">
       <c r="A107" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D107" s="2">
         <v>2012</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
@@ -6574,10 +6589,10 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>66</v>
@@ -6594,23 +6609,23 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M108" s="2"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>47</v>
@@ -6622,31 +6637,31 @@
         <v>17</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M109" s="2"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D110" s="2">
         <v>2012</v>
@@ -6655,28 +6670,28 @@
         <v>17</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M110" s="2"/>
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1">
       <c r="A111" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>23</v>
@@ -6685,7 +6700,7 @@
         <v>1985</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>77</v>
@@ -6693,10 +6708,10 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="J111" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="2" t="s">
@@ -6706,10 +6721,10 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>137</v>
@@ -6718,7 +6733,7 @@
         <v>1999</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>12</v>
@@ -6728,56 +6743,56 @@
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M112" s="2"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D113" s="2">
         <v>1982</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>52</v>
@@ -6786,18 +6801,18 @@
         <v>9172</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2" t="s">
@@ -6829,23 +6844,23 @@
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M115" s="2"/>
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>42</v>
@@ -6854,18 +6869,18 @@
         <v>1955</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2" t="s">
@@ -6875,10 +6890,10 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -6887,31 +6902,31 @@
         <v>1994</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M117" s="2"/>
     </row>
     <row r="118" spans="1:13" s="1" customFormat="1">
       <c r="A118" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>28</v>
@@ -6920,7 +6935,7 @@
         <v>2002</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>62</v>
@@ -6928,10 +6943,10 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2" t="s">
@@ -6963,23 +6978,23 @@
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="1:13" s="1" customFormat="1">
       <c r="A120" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -6988,18 +7003,18 @@
         <v>2018</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2" t="s">
@@ -7009,10 +7024,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>42</v>
@@ -7021,18 +7036,18 @@
         <v>2017</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2" t="s">
@@ -7062,23 +7077,23 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J122" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M122" s="2"/>
     </row>
     <row r="123" spans="1:13" s="1" customFormat="1">
       <c r="A123" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -7090,15 +7105,15 @@
         <v>17</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="2" t="s">
@@ -7130,26 +7145,26 @@
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M124" s="2"/>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D125" s="2">
         <v>1949</v>
@@ -7158,28 +7173,28 @@
         <v>17</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M125" s="2"/>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>42</v>
@@ -7191,28 +7206,28 @@
         <v>17</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M126" s="2"/>
     </row>
     <row r="127" spans="1:13" s="1" customFormat="1">
       <c r="A127" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>89</v>
@@ -7221,18 +7236,18 @@
         <v>1999</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="2" t="s">
@@ -7264,23 +7279,23 @@
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M128" s="2"/>
     </row>
     <row r="129" spans="1:13" s="1" customFormat="1">
       <c r="A129" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>23</v>
@@ -7292,15 +7307,15 @@
         <v>17</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="J129" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="2" t="s">
@@ -7310,10 +7325,10 @@
     </row>
     <row r="130" spans="1:13" s="1" customFormat="1">
       <c r="A130" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>10</v>
@@ -7322,18 +7337,18 @@
         <v>2006</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2" t="s">
@@ -7343,10 +7358,10 @@
     </row>
     <row r="131" spans="1:13" s="1" customFormat="1">
       <c r="A131" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>37</v>
@@ -7355,18 +7370,18 @@
         <v>1977</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="J131" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="2" t="s">
@@ -7376,43 +7391,43 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D132" s="2">
         <v>1997</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="J132" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M132" s="2"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -7429,23 +7444,23 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="J133" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M133" s="2"/>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>42</v>
@@ -7454,22 +7469,22 @@
         <v>2008</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="J134" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M134" s="2"/>
     </row>
@@ -7495,23 +7510,23 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>10</v>
@@ -7520,31 +7535,31 @@
         <v>1998</v>
       </c>
       <c r="E136" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="J136" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M136" s="2"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>89</v>
@@ -7553,40 +7568,40 @@
         <v>1991</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J137" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="1:13" s="1" customFormat="1">
       <c r="A138" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D138" s="2">
         <v>1963</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>12</v>
@@ -7594,10 +7609,10 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J138" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2" t="s">
@@ -7629,23 +7644,23 @@
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="J139" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M139" s="2"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
@@ -7657,28 +7672,28 @@
         <v>38</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="J140" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M140" s="2"/>
     </row>
     <row r="141" spans="1:13" s="1" customFormat="1">
       <c r="A141" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>52</v>
@@ -7687,7 +7702,7 @@
         <v>1980</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>77</v>
@@ -7695,10 +7710,10 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J141" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="2" t="s">
@@ -7708,19 +7723,19 @@
     </row>
     <row r="142" spans="1:13" s="1" customFormat="1">
       <c r="A142" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="D142" s="2">
         <v>1963</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>12</v>
@@ -7728,10 +7743,10 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="J142" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2" t="s">
@@ -7741,30 +7756,30 @@
     </row>
     <row r="143" spans="1:13" s="1" customFormat="1">
       <c r="A143" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D143" s="2">
         <v>2006</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="J143" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="2" t="s">
@@ -7796,23 +7811,23 @@
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="J144" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M144" s="2"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>124</v>
@@ -7821,31 +7836,31 @@
         <v>2001</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="J145" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M145" s="2"/>
     </row>
     <row r="146" spans="1:13" s="1" customFormat="1">
       <c r="A146" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>47</v>
@@ -7862,10 +7877,10 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2" t="s">
@@ -7875,10 +7890,10 @@
     </row>
     <row r="147" spans="1:13" s="1" customFormat="1">
       <c r="A147" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -7890,19 +7905,19 @@
         <v>84</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="2" t="s">
@@ -7912,10 +7927,10 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
@@ -7927,30 +7942,30 @@
         <v>92</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J148" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M148" s="2"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>137</v>
@@ -7959,31 +7974,31 @@
         <v>1993</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J149" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M149" s="2"/>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>60</v>
@@ -7992,7 +8007,7 @@
         <v>1992</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>62</v>
@@ -8000,23 +8015,23 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M150" s="2"/>
     </row>
     <row r="151" spans="1:13" s="1" customFormat="1">
       <c r="A151" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>10</v>
@@ -8033,10 +8048,10 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="J151" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="2" t="s">
@@ -8046,10 +8061,10 @@
     </row>
     <row r="152" spans="1:13" s="1" customFormat="1">
       <c r="A152" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>52</v>
@@ -8058,18 +8073,18 @@
         <v>2010</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="J152" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2" t="s">
@@ -8079,10 +8094,10 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
@@ -8099,23 +8114,23 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="J153" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -8124,22 +8139,22 @@
         <v>1978</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M154" s="2"/>
     </row>
@@ -8165,56 +8180,56 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="J155" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D156" s="2">
         <v>2009</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="J156" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M156" s="2"/>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>42</v>
@@ -8223,33 +8238,33 @@
         <v>1998</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J157" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M157" s="2"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>10</v>
@@ -8258,26 +8273,26 @@
         <v>1997</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I158" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J158" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M158" s="2"/>
     </row>
@@ -8303,23 +8318,19 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J159" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M159" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H159" xr:uid="{C4661730-15EF-D74B-AA2D-D46848E18CF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
-      <sortCondition ref="B1:B159"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:L159" xr:uid="{30381A93-4F5C-714D-9121-7D67268B7F9F}"/>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" display="https://open.library.ubc.ca/search?q=*&amp;creator=Bientjes%2C%20Willem" xr:uid="{8C161014-7DFA-A842-8983-6D7AFEE2CCAD}"/>
   </hyperlinks>
